--- a/templates/ERC000049/metadata_template_ERC000049.xlsx
+++ b/templates/ERC000049/metadata_template_ERC000049.xlsx
@@ -21,12 +21,12 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$BD$1:$BD$287</definedName>
     <definedName name="hostpredictionapproach">'cv_sample'!$AX$1:$AX$7</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
     <definedName name="observedbioticrelationship">'cv_sample'!$BW$1:$BW$5</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="predictedgenomestructure">'cv_sample'!$AR$1:$AR$3</definedName>
     <definedName name="predictedgenometype">'cv_sample'!$AQ$1:$AQ$10</definedName>
     <definedName name="reassemblypostbinning">'cv_sample'!$AE$1:$AE$2</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="755">
   <si>
     <t>alias</t>
   </si>
@@ -462,6 +462,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -561,6 +573,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -678,6 +708,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -685,6 +718,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -2815,10 +2851,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2859,10 +2895,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2889,7 +2925,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2909,7 +2945,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -2926,7 +2962,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -2943,7 +2979,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -2960,7 +2996,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -2977,7 +3013,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -2994,7 +3030,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -3011,7 +3047,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -3028,7 +3064,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -3045,7 +3081,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -3059,7 +3095,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -3073,7 +3109,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -3087,7 +3123,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -3101,7 +3137,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -3111,8 +3147,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -3122,8 +3161,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -3133,8 +3175,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -3144,8 +3189,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -3156,7 +3204,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -3167,7 +3215,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -3178,7 +3226,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -3189,7 +3237,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -3200,7 +3248,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -3211,7 +3259,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -3222,7 +3270,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -3233,7 +3281,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -3244,7 +3292,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -3255,7 +3303,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -3266,7 +3314,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -3277,7 +3325,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -3288,7 +3336,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -3299,7 +3347,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -3307,7 +3355,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -3315,7 +3363,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -3323,7 +3371,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -3331,7 +3379,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -3339,7 +3387,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -3347,7 +3395,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -3355,7 +3403,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -3363,7 +3411,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -3371,7 +3419,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -3379,176 +3427,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3573,27 +3661,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3616,122 +3704,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3758,450 +3846,450 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
     </row>
     <row r="2" spans="1:75" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
     </row>
   </sheetData>
@@ -4260,165 +4348,165 @@
   <sheetData>
     <row r="1" spans="31:75">
       <c r="AE1" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="AJ1" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="AK1" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="AM1" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="AO1" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="AP1" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="AQ1" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="AR1" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="AS1" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="AX1" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="AZ1" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="BD1" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="BW1" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
     </row>
     <row r="2" spans="31:75">
       <c r="AE2" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="AJ2" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="AK2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="AM2" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="AO2" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="AP2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AQ2" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="AR2" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="AS2" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="AX2" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="AZ2" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="BD2" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="BW2" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
     </row>
     <row r="3" spans="31:75">
       <c r="AJ3" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="AK3" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="AO3" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="AP3" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="AQ3" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="AR3" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="AX3" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="AZ3" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="BD3" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="BW3" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4" spans="31:75">
       <c r="AJ4" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="AK4" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="AO4" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="AP4" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="AQ4" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="AX4" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="BD4" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="BW4" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
     </row>
     <row r="5" spans="31:75">
       <c r="AJ5" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="AO5" t="s">
         <v>116</v>
       </c>
       <c r="AP5" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="AQ5" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="AX5" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="BD5" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="BW5" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
     </row>
     <row r="6" spans="31:75">
@@ -4426,1469 +4514,1469 @@
         <v>116</v>
       </c>
       <c r="AO6" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="AP6" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="AQ6" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="AX6" t="s">
         <v>116</v>
       </c>
       <c r="BD6" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="31:75">
       <c r="AO7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="AP7" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="AQ7" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="AX7" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="BD7" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="31:75">
       <c r="AO8" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="AP8" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="AQ8" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="BD8" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" spans="31:75">
       <c r="AO9" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="AP9" t="s">
         <v>116</v>
       </c>
       <c r="AQ9" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="BD9" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="31:75">
       <c r="AO10" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="AP10" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="AQ10" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="BD10" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="31:75">
       <c r="AP11" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="BD11" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="31:75">
       <c r="AP12" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="BD12" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13" spans="31:75">
       <c r="BD13" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="31:75">
       <c r="BD14" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="31:75">
       <c r="BD15" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="16" spans="31:75">
       <c r="BD16" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17" spans="56:56">
       <c r="BD17" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="56:56">
       <c r="BD18" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="56:56">
       <c r="BD19" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20" spans="56:56">
       <c r="BD20" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="56:56">
       <c r="BD21" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="22" spans="56:56">
       <c r="BD22" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="23" spans="56:56">
       <c r="BD23" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="56:56">
       <c r="BD24" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="25" spans="56:56">
       <c r="BD25" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="56:56">
       <c r="BD26" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="27" spans="56:56">
       <c r="BD27" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="28" spans="56:56">
       <c r="BD28" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="29" spans="56:56">
       <c r="BD29" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="30" spans="56:56">
       <c r="BD30" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="31" spans="56:56">
       <c r="BD31" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="32" spans="56:56">
       <c r="BD32" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33" spans="56:56">
       <c r="BD33" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="34" spans="56:56">
       <c r="BD34" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="35" spans="56:56">
       <c r="BD35" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="36" spans="56:56">
       <c r="BD36" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="37" spans="56:56">
       <c r="BD37" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="38" spans="56:56">
       <c r="BD38" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39" spans="56:56">
       <c r="BD39" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="40" spans="56:56">
       <c r="BD40" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="41" spans="56:56">
       <c r="BD41" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="42" spans="56:56">
       <c r="BD42" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="43" spans="56:56">
       <c r="BD43" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="44" spans="56:56">
       <c r="BD44" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="45" spans="56:56">
       <c r="BD45" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="46" spans="56:56">
       <c r="BD46" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="47" spans="56:56">
       <c r="BD47" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="48" spans="56:56">
       <c r="BD48" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="49" spans="56:56">
       <c r="BD49" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="50" spans="56:56">
       <c r="BD50" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="51" spans="56:56">
       <c r="BD51" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="52" spans="56:56">
       <c r="BD52" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="53" spans="56:56">
       <c r="BD53" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="54" spans="56:56">
       <c r="BD54" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="55" spans="56:56">
       <c r="BD55" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="56" spans="56:56">
       <c r="BD56" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="57" spans="56:56">
       <c r="BD57" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="58" spans="56:56">
       <c r="BD58" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="59" spans="56:56">
       <c r="BD59" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="60" spans="56:56">
       <c r="BD60" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="61" spans="56:56">
       <c r="BD61" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="62" spans="56:56">
       <c r="BD62" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="63" spans="56:56">
       <c r="BD63" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="64" spans="56:56">
       <c r="BD64" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="65" spans="56:56">
       <c r="BD65" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="66" spans="56:56">
       <c r="BD66" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="67" spans="56:56">
       <c r="BD67" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="68" spans="56:56">
       <c r="BD68" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="69" spans="56:56">
       <c r="BD69" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="70" spans="56:56">
       <c r="BD70" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="71" spans="56:56">
       <c r="BD71" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="72" spans="56:56">
       <c r="BD72" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="73" spans="56:56">
       <c r="BD73" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="74" spans="56:56">
       <c r="BD74" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="75" spans="56:56">
       <c r="BD75" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="76" spans="56:56">
       <c r="BD76" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="77" spans="56:56">
       <c r="BD77" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="78" spans="56:56">
       <c r="BD78" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="79" spans="56:56">
       <c r="BD79" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="80" spans="56:56">
       <c r="BD80" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="81" spans="56:56">
       <c r="BD81" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="82" spans="56:56">
       <c r="BD82" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="83" spans="56:56">
       <c r="BD83" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="84" spans="56:56">
       <c r="BD84" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="85" spans="56:56">
       <c r="BD85" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="86" spans="56:56">
       <c r="BD86" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="87" spans="56:56">
       <c r="BD87" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="88" spans="56:56">
       <c r="BD88" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="89" spans="56:56">
       <c r="BD89" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="90" spans="56:56">
       <c r="BD90" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="91" spans="56:56">
       <c r="BD91" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="92" spans="56:56">
       <c r="BD92" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="93" spans="56:56">
       <c r="BD93" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="94" spans="56:56">
       <c r="BD94" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="95" spans="56:56">
       <c r="BD95" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="96" spans="56:56">
       <c r="BD96" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="97" spans="56:56">
       <c r="BD97" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="98" spans="56:56">
       <c r="BD98" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="99" spans="56:56">
       <c r="BD99" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="100" spans="56:56">
       <c r="BD100" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="101" spans="56:56">
       <c r="BD101" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="102" spans="56:56">
       <c r="BD102" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="103" spans="56:56">
       <c r="BD103" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="104" spans="56:56">
       <c r="BD104" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="105" spans="56:56">
       <c r="BD105" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="106" spans="56:56">
       <c r="BD106" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="107" spans="56:56">
       <c r="BD107" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="108" spans="56:56">
       <c r="BD108" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="109" spans="56:56">
       <c r="BD109" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="110" spans="56:56">
       <c r="BD110" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="111" spans="56:56">
       <c r="BD111" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="112" spans="56:56">
       <c r="BD112" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="113" spans="56:56">
       <c r="BD113" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="114" spans="56:56">
       <c r="BD114" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="115" spans="56:56">
       <c r="BD115" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="116" spans="56:56">
       <c r="BD116" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="117" spans="56:56">
       <c r="BD117" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="118" spans="56:56">
       <c r="BD118" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="119" spans="56:56">
       <c r="BD119" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="120" spans="56:56">
       <c r="BD120" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="121" spans="56:56">
       <c r="BD121" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="122" spans="56:56">
       <c r="BD122" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="123" spans="56:56">
       <c r="BD123" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="124" spans="56:56">
       <c r="BD124" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="125" spans="56:56">
       <c r="BD125" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="126" spans="56:56">
       <c r="BD126" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="127" spans="56:56">
       <c r="BD127" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="128" spans="56:56">
       <c r="BD128" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="129" spans="56:56">
       <c r="BD129" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="130" spans="56:56">
       <c r="BD130" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="131" spans="56:56">
       <c r="BD131" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="132" spans="56:56">
       <c r="BD132" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="133" spans="56:56">
       <c r="BD133" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="134" spans="56:56">
       <c r="BD134" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="135" spans="56:56">
       <c r="BD135" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="136" spans="56:56">
       <c r="BD136" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="137" spans="56:56">
       <c r="BD137" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="138" spans="56:56">
       <c r="BD138" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="139" spans="56:56">
       <c r="BD139" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="140" spans="56:56">
       <c r="BD140" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="141" spans="56:56">
       <c r="BD141" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="142" spans="56:56">
       <c r="BD142" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="143" spans="56:56">
       <c r="BD143" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="144" spans="56:56">
       <c r="BD144" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="145" spans="56:56">
       <c r="BD145" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
     <row r="146" spans="56:56">
       <c r="BD146" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="147" spans="56:56">
       <c r="BD147" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
     <row r="148" spans="56:56">
       <c r="BD148" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
     </row>
     <row r="149" spans="56:56">
       <c r="BD149" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
     <row r="150" spans="56:56">
       <c r="BD150" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
     </row>
     <row r="151" spans="56:56">
       <c r="BD151" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
     </row>
     <row r="152" spans="56:56">
       <c r="BD152" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="153" spans="56:56">
       <c r="BD153" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
     </row>
     <row r="154" spans="56:56">
       <c r="BD154" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="155" spans="56:56">
       <c r="BD155" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
     </row>
     <row r="156" spans="56:56">
       <c r="BD156" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
     </row>
     <row r="157" spans="56:56">
       <c r="BD157" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
     </row>
     <row r="158" spans="56:56">
       <c r="BD158" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="159" spans="56:56">
       <c r="BD159" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
     </row>
     <row r="160" spans="56:56">
       <c r="BD160" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="161" spans="56:56">
       <c r="BD161" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
     </row>
     <row r="162" spans="56:56">
       <c r="BD162" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
     </row>
     <row r="163" spans="56:56">
       <c r="BD163" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
     </row>
     <row r="164" spans="56:56">
       <c r="BD164" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="165" spans="56:56">
       <c r="BD165" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
     </row>
     <row r="166" spans="56:56">
       <c r="BD166" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
     </row>
     <row r="167" spans="56:56">
       <c r="BD167" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
     </row>
     <row r="168" spans="56:56">
       <c r="BD168" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
     </row>
     <row r="169" spans="56:56">
       <c r="BD169" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
     </row>
     <row r="170" spans="56:56">
       <c r="BD170" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
     </row>
     <row r="171" spans="56:56">
       <c r="BD171" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
     </row>
     <row r="172" spans="56:56">
       <c r="BD172" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="173" spans="56:56">
       <c r="BD173" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
     </row>
     <row r="174" spans="56:56">
       <c r="BD174" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
     </row>
     <row r="175" spans="56:56">
       <c r="BD175" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
     </row>
     <row r="176" spans="56:56">
       <c r="BD176" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
     </row>
     <row r="177" spans="56:56">
       <c r="BD177" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
     </row>
     <row r="178" spans="56:56">
       <c r="BD178" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
     </row>
     <row r="179" spans="56:56">
       <c r="BD179" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
     </row>
     <row r="180" spans="56:56">
       <c r="BD180" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
     </row>
     <row r="181" spans="56:56">
       <c r="BD181" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
     </row>
     <row r="182" spans="56:56">
       <c r="BD182" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="183" spans="56:56">
       <c r="BD183" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
     </row>
     <row r="184" spans="56:56">
       <c r="BD184" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
     </row>
     <row r="185" spans="56:56">
       <c r="BD185" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
     </row>
     <row r="186" spans="56:56">
       <c r="BD186" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
     </row>
     <row r="187" spans="56:56">
       <c r="BD187" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
     </row>
     <row r="188" spans="56:56">
       <c r="BD188" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
     </row>
     <row r="189" spans="56:56">
       <c r="BD189" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
     </row>
     <row r="190" spans="56:56">
       <c r="BD190" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
     </row>
     <row r="191" spans="56:56">
       <c r="BD191" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
     </row>
     <row r="192" spans="56:56">
       <c r="BD192" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
     </row>
     <row r="193" spans="56:56">
       <c r="BD193" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
     </row>
     <row r="194" spans="56:56">
       <c r="BD194" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
     </row>
     <row r="195" spans="56:56">
       <c r="BD195" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
     </row>
     <row r="196" spans="56:56">
       <c r="BD196" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
     </row>
     <row r="197" spans="56:56">
       <c r="BD197" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
     </row>
     <row r="198" spans="56:56">
       <c r="BD198" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
     </row>
     <row r="199" spans="56:56">
       <c r="BD199" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
     </row>
     <row r="200" spans="56:56">
       <c r="BD200" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
     </row>
     <row r="201" spans="56:56">
       <c r="BD201" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
     </row>
     <row r="202" spans="56:56">
       <c r="BD202" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
     </row>
     <row r="203" spans="56:56">
       <c r="BD203" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
     </row>
     <row r="204" spans="56:56">
       <c r="BD204" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
     </row>
     <row r="205" spans="56:56">
       <c r="BD205" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
     </row>
     <row r="206" spans="56:56">
       <c r="BD206" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
     </row>
     <row r="207" spans="56:56">
       <c r="BD207" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
     </row>
     <row r="208" spans="56:56">
       <c r="BD208" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
     </row>
     <row r="209" spans="56:56">
       <c r="BD209" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
     </row>
     <row r="210" spans="56:56">
       <c r="BD210" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
     </row>
     <row r="211" spans="56:56">
       <c r="BD211" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
     </row>
     <row r="212" spans="56:56">
       <c r="BD212" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
     </row>
     <row r="213" spans="56:56">
       <c r="BD213" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
     </row>
     <row r="214" spans="56:56">
       <c r="BD214" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
     </row>
     <row r="215" spans="56:56">
       <c r="BD215" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
     </row>
     <row r="216" spans="56:56">
       <c r="BD216" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
     </row>
     <row r="217" spans="56:56">
       <c r="BD217" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
     </row>
     <row r="218" spans="56:56">
       <c r="BD218" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
     </row>
     <row r="219" spans="56:56">
       <c r="BD219" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
     </row>
     <row r="220" spans="56:56">
       <c r="BD220" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
     </row>
     <row r="221" spans="56:56">
       <c r="BD221" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
     </row>
     <row r="222" spans="56:56">
       <c r="BD222" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
     </row>
     <row r="223" spans="56:56">
       <c r="BD223" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
     </row>
     <row r="224" spans="56:56">
       <c r="BD224" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
     </row>
     <row r="225" spans="56:56">
       <c r="BD225" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
     </row>
     <row r="226" spans="56:56">
       <c r="BD226" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
     </row>
     <row r="227" spans="56:56">
       <c r="BD227" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
     </row>
     <row r="228" spans="56:56">
       <c r="BD228" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
     </row>
     <row r="229" spans="56:56">
       <c r="BD229" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
     </row>
     <row r="230" spans="56:56">
       <c r="BD230" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
     </row>
     <row r="231" spans="56:56">
       <c r="BD231" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
     </row>
     <row r="232" spans="56:56">
       <c r="BD232" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
     </row>
     <row r="233" spans="56:56">
       <c r="BD233" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
     </row>
     <row r="234" spans="56:56">
       <c r="BD234" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
     </row>
     <row r="235" spans="56:56">
       <c r="BD235" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
     </row>
     <row r="236" spans="56:56">
       <c r="BD236" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
     </row>
     <row r="237" spans="56:56">
       <c r="BD237" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
     </row>
     <row r="238" spans="56:56">
       <c r="BD238" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
     </row>
     <row r="239" spans="56:56">
       <c r="BD239" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
     </row>
     <row r="240" spans="56:56">
       <c r="BD240" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
     </row>
     <row r="241" spans="56:56">
       <c r="BD241" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
     </row>
     <row r="242" spans="56:56">
       <c r="BD242" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
     </row>
     <row r="243" spans="56:56">
       <c r="BD243" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
     </row>
     <row r="244" spans="56:56">
       <c r="BD244" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
     </row>
     <row r="245" spans="56:56">
       <c r="BD245" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
     </row>
     <row r="246" spans="56:56">
       <c r="BD246" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
     </row>
     <row r="247" spans="56:56">
       <c r="BD247" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
     </row>
     <row r="248" spans="56:56">
       <c r="BD248" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
     </row>
     <row r="249" spans="56:56">
       <c r="BD249" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
     </row>
     <row r="250" spans="56:56">
       <c r="BD250" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
     </row>
     <row r="251" spans="56:56">
       <c r="BD251" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
     </row>
     <row r="252" spans="56:56">
       <c r="BD252" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
     </row>
     <row r="253" spans="56:56">
       <c r="BD253" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
     </row>
     <row r="254" spans="56:56">
       <c r="BD254" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
     </row>
     <row r="255" spans="56:56">
       <c r="BD255" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
     </row>
     <row r="256" spans="56:56">
       <c r="BD256" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
     </row>
     <row r="257" spans="56:56">
       <c r="BD257" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
     </row>
     <row r="258" spans="56:56">
       <c r="BD258" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
     </row>
     <row r="259" spans="56:56">
       <c r="BD259" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
     </row>
     <row r="260" spans="56:56">
       <c r="BD260" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
     </row>
     <row r="261" spans="56:56">
       <c r="BD261" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
     </row>
     <row r="262" spans="56:56">
       <c r="BD262" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
     </row>
     <row r="263" spans="56:56">
       <c r="BD263" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
     </row>
     <row r="264" spans="56:56">
       <c r="BD264" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
     </row>
     <row r="265" spans="56:56">
       <c r="BD265" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
     </row>
     <row r="266" spans="56:56">
       <c r="BD266" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
     </row>
     <row r="267" spans="56:56">
       <c r="BD267" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
     </row>
     <row r="268" spans="56:56">
       <c r="BD268" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
     </row>
     <row r="269" spans="56:56">
       <c r="BD269" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
     </row>
     <row r="270" spans="56:56">
       <c r="BD270" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
     </row>
     <row r="271" spans="56:56">
       <c r="BD271" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
     </row>
     <row r="272" spans="56:56">
       <c r="BD272" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
     </row>
     <row r="273" spans="56:56">
       <c r="BD273" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
     </row>
     <row r="274" spans="56:56">
       <c r="BD274" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
     </row>
     <row r="275" spans="56:56">
       <c r="BD275" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
     </row>
     <row r="276" spans="56:56">
       <c r="BD276" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
     </row>
     <row r="277" spans="56:56">
       <c r="BD277" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
     </row>
     <row r="278" spans="56:56">
       <c r="BD278" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
     </row>
     <row r="279" spans="56:56">
       <c r="BD279" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
     </row>
     <row r="280" spans="56:56">
       <c r="BD280" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
     </row>
     <row r="281" spans="56:56">
       <c r="BD281" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
     </row>
     <row r="282" spans="56:56">
       <c r="BD282" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
     </row>
     <row r="283" spans="56:56">
       <c r="BD283" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
     </row>
     <row r="284" spans="56:56">
       <c r="BD284" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
     </row>
     <row r="285" spans="56:56">
       <c r="BD285" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
     </row>
     <row r="286" spans="56:56">
       <c r="BD286" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
     </row>
     <row r="287" spans="56:56">
       <c r="BD287" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000049/metadata_template_ERC000049.xlsx
+++ b/templates/ERC000049/metadata_template_ERC000049.xlsx
@@ -975,8 +975,7 @@
     <t>completeness score</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Completeness score is typically based on either the fraction of markers found as compared to a database or the percent of a genome found as compared to a closely related reference genome. completeness score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. mandatory for all samples directly linked with sags or mags. Units: 
-                    </t>
+    <t>(Optional) Completeness score is typically based on either the fraction of markers found as compared to a database or the percent of a genome found as compared to a closely related reference genome. completeness score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. mandatory for all samples directly linked with sags or mags. (Units: %)</t>
   </si>
   <si>
     <t>completeness software</t>
@@ -1006,8 +1005,7 @@
     <t>reassembly post binning</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Has an assembly been performed on a genome bin extracted from a metagenomic assembly? Units: 
-                    </t>
+    <t>(Optional) Has an assembly been performed on a genome bin extracted from a metagenomic assembly? (Units: Yes)</t>
   </si>
   <si>
     <t>MAG coverage software</t>
@@ -1313,8 +1311,7 @@
     <t>altitude</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. Units: 
-                    </t>
+    <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -2187,15 +2184,13 @@
     <t>geographic location (latitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (longitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (region and locality)</t>
@@ -2207,8 +2202,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. Units: 
-                    </t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
   <si>
     <t>broad-scale environmental context</t>
@@ -2232,8 +2226,7 @@
     <t>elevation</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. Units: 
-                    </t>
+    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
     <t>source material identifiers</t>
@@ -2251,8 +2244,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. Units: 
-                    </t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
   </si>
   <si>
     <t>size fraction selected</t>

--- a/templates/ERC000049/metadata_template_ERC000049.xlsx
+++ b/templates/ERC000049/metadata_template_ERC000049.xlsx
@@ -111,7 +111,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000049/metadata_template_ERC000049.xlsx
+++ b/templates/ERC000049/metadata_template_ERC000049.xlsx
@@ -17,33 +17,33 @@
     <sheet name="cv_sample" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="detectiontype">'cv_sample'!$AS$1:$AS$2</definedName>
+    <definedName name="detectiontype">'cv_sample'!$AE$1:$AE$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$BD$1:$BD$287</definedName>
-    <definedName name="hostpredictionapproach">'cv_sample'!$AX$1:$AX$7</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AN$1:$AN$288</definedName>
+    <definedName name="hostpredictionapproach">'cv_sample'!$AZ$1:$AZ$7</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="observedbioticrelationship">'cv_sample'!$BW$1:$BW$5</definedName>
+    <definedName name="observedbioticrelationship">'cv_sample'!$E$1:$E$5</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="predictedgenomestructure">'cv_sample'!$AR$1:$AR$3</definedName>
-    <definedName name="predictedgenometype">'cv_sample'!$AQ$1:$AQ$10</definedName>
-    <definedName name="reassemblypostbinning">'cv_sample'!$AE$1:$AE$2</definedName>
-    <definedName name="singlecellorviralparticlelysisapproach">'cv_sample'!$AK$1:$AK$4</definedName>
-    <definedName name="sortingtechnology">'cv_sample'!$AJ$1:$AJ$6</definedName>
-    <definedName name="sourceofUViGs">'cv_sample'!$AO$1:$AO$10</definedName>
+    <definedName name="predictedgenomestructure">'cv_sample'!$AD$1:$AD$3</definedName>
+    <definedName name="predictedgenometype">'cv_sample'!$AC$1:$AC$10</definedName>
+    <definedName name="reassemblypostbinning">'cv_sample'!$X$1:$X$2</definedName>
+    <definedName name="singlecellorviralparticlelysisapproach">'cv_sample'!$BG$1:$BG$4</definedName>
+    <definedName name="sortingtechnology">'cv_sample'!$BS$1:$BS$6</definedName>
+    <definedName name="sourceofUViGs">'cv_sample'!$AB$1:$AB$10</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
-    <definedName name="UViGassemblyquality">'cv_sample'!$AZ$1:$AZ$3</definedName>
-    <definedName name="virusenrichmentapproach">'cv_sample'!$AP$1:$AP$12</definedName>
-    <definedName name="WGAamplificationapproach">'cv_sample'!$AM$1:$AM$2</definedName>
+    <definedName name="UViGassemblyquality">'cv_sample'!$AJ$1:$AJ$3</definedName>
+    <definedName name="virusenrichmentapproach">'cv_sample'!$BT$1:$BT$12</definedName>
+    <definedName name="WGAamplificationapproach">'cv_sample'!$BQ$1:$BQ$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="756">
   <si>
     <t>alias</t>
   </si>
@@ -840,22 +840,1300 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
+    <t>commensal</t>
+  </si>
+  <si>
+    <t>free living</t>
+  </si>
+  <si>
+    <t>mutualism</t>
+  </si>
+  <si>
+    <t>parasite</t>
+  </si>
+  <si>
+    <t>symbiont</t>
+  </si>
+  <si>
+    <t>observed biotic relationship</t>
+  </si>
+  <si>
+    <t>(Optional) Description of relationship(s) between the subject organism and other organism(s) it is associated with. e.g., parasite on species x; mutualist with species y. the target organism is the subject of the relationship, and the other organism(s) is the object.</t>
+  </si>
+  <si>
+    <t>known pathogenicity</t>
+  </si>
+  <si>
+    <t>(Optional) To what is the entity pathogenic, for instance plant, fungi, bacteria</t>
+  </si>
+  <si>
+    <t>sample collection device</t>
+  </si>
+  <si>
+    <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
+  </si>
+  <si>
+    <t>sample collection method</t>
+  </si>
+  <si>
+    <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
+  </si>
+  <si>
+    <t>metagenomic source</t>
+  </si>
+  <si>
+    <t>(Mandatory) The metagenomic source of the sample. this value should contain “metagenome” and be in the taxonomy database e.g. wastewater metagenome or human gut metagenome. please note “metagenome” alone will not be accepted. check here for more details on metagenome taxonomy: https://ena-docs.readthedocs.io/en/latest/faq_taxonomy.html#environmental-taxonomic-classifications</t>
+  </si>
+  <si>
+    <t>sample derived from</t>
+  </si>
+  <si>
+    <t>(Mandatory) Reference to parental sample(s) or original run(s) that the assembly is derived from. the referenced samples or runs should already be registered in insdc. this should be formatted as one of the following. a single sample/run e.g. ersxxxxxx or a comma separated list e.g. ersxxxxxx,ersxxxxxx or a range e.g. ersxxxxxx-ersxxxxxx</t>
+  </si>
+  <si>
     <t>project name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
   </si>
   <si>
+    <t>estimated size</t>
+  </si>
+  <si>
+    <t>(Optional) The estimated size of the genome (in bp) prior to sequencing. of particular importance in the sequencing of (eukaryotic) genome which could remain in draft form for a long or unspecified period. mandatory for migs of eukaryotes.</t>
+  </si>
+  <si>
+    <t>multiplex identifiers</t>
+  </si>
+  <si>
+    <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
+  </si>
+  <si>
+    <t>relevant electronic resources</t>
+  </si>
+  <si>
+    <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
+  </si>
+  <si>
+    <t>relevant standard operating procedures</t>
+  </si>
+  <si>
+    <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
+  </si>
+  <si>
+    <t>number of standard tRNAs extracted</t>
+  </si>
+  <si>
+    <t>(Optional) The total number of trnas identified from the bin, sag or mag</t>
+  </si>
+  <si>
+    <t>feature prediction</t>
+  </si>
+  <si>
+    <t>(Optional) Method used to predict uvigs features such as orfs, integration site, etc. add names and versions of software(s), parameters used</t>
+  </si>
+  <si>
+    <t>similarity search method</t>
+  </si>
+  <si>
+    <t>(Optional) Tool used to compare orfs with database, along with version and cutoffs used. add names and versions of software(s), parameters used</t>
+  </si>
+  <si>
+    <t>tRNA extraction software</t>
+  </si>
+  <si>
+    <t>(Optional) Tools used for trna identification. add names and versions of software(s), parameters used</t>
+  </si>
+  <si>
+    <t>completeness score</t>
+  </si>
+  <si>
+    <t>(Optional) Completeness score is typically based on either the fraction of markers found as compared to a database or the percent of a genome found as compared to a closely related reference genome. completeness score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. mandatory for all samples directly linked with sags or mags. (Units: %)</t>
+  </si>
+  <si>
+    <t>completeness software</t>
+  </si>
+  <si>
+    <t>(Optional) Tools used for completion estimate, i.e. checkm, anvi'o, busco. mandatory for all samples directly linked with sags or mags.</t>
+  </si>
+  <si>
+    <t>completeness approach</t>
+  </si>
+  <si>
+    <t>(Optional) The approach used to determine the completeness of a given bin, sag or mag, which would typically make use of a set of conserved marker genes or a closely related reference genome. for uvig completeness, include reference genome or group used, and contig feature suggesting a complete genome</t>
+  </si>
+  <si>
+    <t>binning software</t>
+  </si>
+  <si>
+    <t>(Optional) Tool(s) used for the extraction of genomes from metagenomic datasets, where possible include a product id (pid) of the tool(s) used. e.g. metacluster-ta (rrid:scr_004599) or maxbin (biotools:maxbin)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>reassembly post binning</t>
+  </si>
+  <si>
+    <t>(Optional) Has an assembly been performed on a genome bin extracted from a metagenomic assembly? (Units: Yes)</t>
+  </si>
+  <si>
+    <t>MAG coverage software</t>
+  </si>
+  <si>
+    <t>(Optional) Tool(s) used to determine the genome coverage if coverage is used as a binning parameter in the extraction of genomes from metagenomic datasets e.g. bwa, bbmap, bowtie, other</t>
+  </si>
+  <si>
+    <t>binning parameters</t>
+  </si>
+  <si>
+    <t>(Optional) The parameters that have been applied during the extraction of genomes from metagenomic datasets e.g. coverage and kmer</t>
+  </si>
+  <si>
+    <t>taxonomic identity marker</t>
+  </si>
+  <si>
+    <t>(Optional) The phylogenetic marker(s) used to assign an organism name to the bin, sag or mag. examples are 16s gene, multi-marker approach or other e.g. rpob gene. mandatory for all samples directly linked with sags or mags.</t>
+  </si>
+  <si>
+    <t>isolate microbial genome</t>
+  </si>
+  <si>
+    <t>metagenome (not viral targeted)</t>
+  </si>
+  <si>
+    <t>metatranscriptome (not viral targeted)</t>
+  </si>
+  <si>
+    <t>microbial single amplified genome (SAG)</t>
+  </si>
+  <si>
+    <t>sequence-targeted RNA metagenome</t>
+  </si>
+  <si>
+    <t>sequence-targeted metagenome</t>
+  </si>
+  <si>
+    <t>viral fraction RNA metagenome (RNA virome)</t>
+  </si>
+  <si>
+    <t>viral fraction metagenome (virome)</t>
+  </si>
+  <si>
+    <t>viral single amplified genome (vSAG)</t>
+  </si>
+  <si>
+    <t>source of UViGs</t>
+  </si>
+  <si>
+    <t>(Mandatory) Type of dataset from which the uvig was obtained</t>
+  </si>
+  <si>
+    <t>DNA</t>
+  </si>
+  <si>
+    <t>RNA</t>
+  </si>
+  <si>
+    <t>dsDNA</t>
+  </si>
+  <si>
+    <t>dsRNA</t>
+  </si>
+  <si>
+    <t>mixed</t>
+  </si>
+  <si>
+    <t>ssDNA</t>
+  </si>
+  <si>
+    <t>ssRNA</t>
+  </si>
+  <si>
+    <t>ssRNA (+)</t>
+  </si>
+  <si>
+    <t>ssRNA (-)</t>
+  </si>
+  <si>
+    <t>uncharacterized</t>
+  </si>
+  <si>
+    <t>predicted genome type</t>
+  </si>
+  <si>
+    <t>(Mandatory) Type of genome predicted for the uvig</t>
+  </si>
+  <si>
+    <t>non-segmented</t>
+  </si>
+  <si>
+    <t>segmented</t>
+  </si>
+  <si>
+    <t>undetermined</t>
+  </si>
+  <si>
+    <t>predicted genome structure</t>
+  </si>
+  <si>
+    <t>(Mandatory) Expected structure of the viral genome</t>
+  </si>
+  <si>
+    <t>independent sequence (UViG)</t>
+  </si>
+  <si>
+    <t>provirus (UpViG)</t>
+  </si>
+  <si>
+    <t>detection type</t>
+  </si>
+  <si>
+    <t>(Mandatory) Type of uvig detection</t>
+  </si>
+  <si>
+    <t>viral identification software</t>
+  </si>
+  <si>
+    <t>(Mandatory) Tool(s) used for the identification of uvig as a viral genome, software or protocol name including version number, parameters, and cutoffs used formatted {software};{version};{parameters} e.g. virsorter; 1.0.4; virome database, category 2</t>
+  </si>
+  <si>
+    <t>OTU classification approach</t>
+  </si>
+  <si>
+    <t>(Optional) Cutoffs and approach used when clustering “species-level” otus. note that results from standard 95% ani / 85% af clustering should be provided alongside otus defined from another set of thresholds, even if the latter are the ones primarily used during the analysis. this should be formatted {ani cutoff};{af cutoff};{clustering method} e.g. 95% ani;85% af; greedy incremental clustering</t>
+  </si>
+  <si>
+    <t>OTU sequence comparison approach</t>
+  </si>
+  <si>
+    <t>(Optional) Tool and thresholds used to compare sequences when computing "species-level" otus formatted: {software};{version};{parameters} e.g. gblastn;2.6.0+;e-value cutoff: 0.001</t>
+  </si>
+  <si>
+    <t>OTU database</t>
+  </si>
+  <si>
+    <t>(Optional) Reference database (i.e. sequences not generated as part of the current study) used to cluster new genomes in "species-level" otus, if any. this should be formatted: {database};{version} e.g. ncbi viral refseq;83</t>
+  </si>
+  <si>
+    <t>One or multiple fragments, totaling ≥ 90% of the expected genome or replicon sequence or predicted complete</t>
+  </si>
+  <si>
+    <t>One or multiple fragments, totalling &lt; 90% of the expected genome or replicon sequence, or for which no genome size could be estimated</t>
+  </si>
+  <si>
+    <t>Single, validated, contiguous sequence per replicon without gaps or ambiguities, with extensive manual review and editing to annotate putative gene functions and transcriptional units</t>
+  </si>
+  <si>
+    <t>UViG assembly quality</t>
+  </si>
+  <si>
+    <t>(Mandatory) Uvig assembly quality is one of 3 attributes which in combination reflect the standard quality of a uvig, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html.</t>
+  </si>
+  <si>
+    <t>isolation_source</t>
+  </si>
+  <si>
+    <t>(Mandatory) Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived</t>
+  </si>
+  <si>
+    <t>collection date</t>
+  </si>
+  <si>
+    <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Arctic Ocean</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Ashmore and Cartier Islands</t>
+  </si>
+  <si>
+    <t>Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Baker Island</t>
+  </si>
+  <si>
+    <t>Baltic Sea</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Bassas da India</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Borneo</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Clipperton Island</t>
+  </si>
+  <si>
+    <t>Cocos Islands</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Coral Sea Islands</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>East Timor</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Europa Island</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Islas Malvinas)</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>French Southern and Antarctic Lands</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Gaza Strip</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Glorioso Islands</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Howland Island</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indian Ocean</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Jan Mayen</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jarvis Island</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Johnston Atoll</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Juan de Nova Island</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kerguelen Archipelago</t>
+  </si>
+  <si>
+    <t>Kingman Reef</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Mediterranean Sea</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Midway Islands</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Navassa Island</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>North Sea</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pacific Ocean</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Palmyra Atoll</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paracel Islands</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Pitcairn Islands</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Ross Sea</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Sint Maarten</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Southern Ocean</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Spratly Islands</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Svalbard</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Tasman Sea</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tromelin Island</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>West Bank</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>missing: control sample</t>
+  </si>
+  <si>
+    <t>missing: data agreement established pre-2023</t>
+  </si>
+  <si>
+    <t>missing: endangered species</t>
+  </si>
+  <si>
+    <t>missing: human-identifiable</t>
+  </si>
+  <si>
+    <t>missing: lab stock</t>
+  </si>
+  <si>
+    <t>missing: sample group</t>
+  </si>
+  <si>
+    <t>missing: synthetic construct</t>
+  </si>
+  <si>
+    <t>missing: third party data</t>
+  </si>
+  <si>
+    <t>not applicable</t>
+  </si>
+  <si>
+    <t>not collected</t>
+  </si>
+  <si>
+    <t>not provided</t>
+  </si>
+  <si>
+    <t>restricted access</t>
+  </si>
+  <si>
+    <t>geographic location (country and/or sea)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
+  </si>
+  <si>
+    <t>geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
+    <t>broad-scale environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>local environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>environmental medium</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
+  </si>
+  <si>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>size fraction selected</t>
+  </si>
+  <si>
+    <t>(Optional) Filtering pore size used in sample preparation e.g. 0-0.22 micrometer</t>
+  </si>
+  <si>
+    <t>host scientific name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
+  </si>
+  <si>
+    <t>source material identifiers</t>
+  </si>
+  <si>
+    <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
+  </si>
+  <si>
+    <t>CRISPR spacer match</t>
+  </si>
+  <si>
+    <t>co-occurrence</t>
+  </si>
+  <si>
+    <t>combination</t>
+  </si>
+  <si>
+    <t>host sequence similarity</t>
+  </si>
+  <si>
+    <t>kmer similarity</t>
+  </si>
+  <si>
+    <t>provirus</t>
+  </si>
+  <si>
+    <t>host prediction approach</t>
+  </si>
+  <si>
+    <t>(Optional) Tool or approach used for host prediction</t>
+  </si>
+  <si>
+    <t>host prediction estimated accuracy</t>
+  </si>
+  <si>
+    <t>(Optional) For each tool or approach used for host prediction, estimated false discovery rates should be included, either computed de novo or from the literature</t>
+  </si>
+  <si>
     <t>experimental factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
-    <t>estimated size</t>
-  </si>
-  <si>
-    <t>(Optional) The estimated size of the genome (in bp) prior to sequencing. of particular importance in the sequencing of (eukaryotic) genome which could remain in draft form for a long or unspecified period. mandatory for migs of eukaryotes.</t>
+    <t>taxonomic classification</t>
+  </si>
+  <si>
+    <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
+  </si>
+  <si>
+    <t>annotation source</t>
+  </si>
+  <si>
+    <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
   </si>
   <si>
     <t>reference for biomaterial</t>
@@ -864,10 +2142,37 @@
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>annotation source</t>
-  </si>
-  <si>
-    <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
+    <t>reference database(s)</t>
+  </si>
+  <si>
+    <t>(Optional) List of database(s) used for orf annotation, along with version number and reference to website or publication</t>
+  </si>
+  <si>
+    <t>chemical</t>
+  </si>
+  <si>
+    <t>enzymatic</t>
+  </si>
+  <si>
+    <t>physical</t>
+  </si>
+  <si>
+    <t>single cell or viral particle lysis approach</t>
+  </si>
+  <si>
+    <t>(Optional) Method used to free dna from interior of the cell(s) or particle(s)</t>
+  </si>
+  <si>
+    <t>single cell or viral particle lysis kit protocol</t>
+  </si>
+  <si>
+    <t>(Optional) Name of the kit or standard protocol used for cell(s) or particle(s) lysis</t>
+  </si>
+  <si>
+    <t>sample material processing</t>
+  </si>
+  <si>
+    <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -906,10 +2211,88 @@
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>multiplex identifiers</t>
-  </si>
-  <si>
-    <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
+    <t>assembly software</t>
+  </si>
+  <si>
+    <t>(Mandatory) Tool(s) used for assembly, including version number and parameters in the format {software};{version};{parameters} e.g. metaspades;3.11.0;kmer set 21,33,55,77,99,121, default parameters otherwise</t>
+  </si>
+  <si>
+    <t>mda based</t>
+  </si>
+  <si>
+    <t>pcr based</t>
+  </si>
+  <si>
+    <t>WGA amplification approach</t>
+  </si>
+  <si>
+    <t>(Optional) Method used to amplify genomic dna in preparation for sequencing</t>
+  </si>
+  <si>
+    <t>WGA amplification kit</t>
+  </si>
+  <si>
+    <t>(Optional) Kit used to amplify genomic dna in preparation for sequencing</t>
+  </si>
+  <si>
+    <t>flow cytometric cell sorting</t>
+  </si>
+  <si>
+    <t>lazer-tweezing</t>
+  </si>
+  <si>
+    <t>microfluidics</t>
+  </si>
+  <si>
+    <t>micromanipulation</t>
+  </si>
+  <si>
+    <t>optical manipulation</t>
+  </si>
+  <si>
+    <t>sorting technology</t>
+  </si>
+  <si>
+    <t>(Optional) Method used to sort/isolate cells or particles of interest</t>
+  </si>
+  <si>
+    <t>CsCl density gradient</t>
+  </si>
+  <si>
+    <t>DNAse</t>
+  </si>
+  <si>
+    <t>FeCl Precipitation</t>
+  </si>
+  <si>
+    <t>PEG Precipitation</t>
+  </si>
+  <si>
+    <t>RNAse</t>
+  </si>
+  <si>
+    <t>centrifugation</t>
+  </si>
+  <si>
+    <t>filtration</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>targeted sequence capture</t>
+  </si>
+  <si>
+    <t>ultracentrifugation</t>
+  </si>
+  <si>
+    <t>ultrafiltration</t>
+  </si>
+  <si>
+    <t>virus enrichment approach</t>
+  </si>
+  <si>
+    <t>(Mandatory) List of approaches used to enrich the sample for viruses, if any</t>
   </si>
   <si>
     <t>adapters</t>
@@ -924,1390 +2307,10 @@
     <t>(Optional) Sequencing machine used. where possible the term should be taken from the obi list of dna sequencers (http://purl.obolibrary.org/obo/obi_0400103).</t>
   </si>
   <si>
-    <t>relevant electronic resources</t>
-  </si>
-  <si>
-    <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
-  </si>
-  <si>
-    <t>relevant standard operating procedures</t>
-  </si>
-  <si>
-    <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
-  </si>
-  <si>
-    <t>number of standard tRNAs extracted</t>
-  </si>
-  <si>
-    <t>(Optional) The total number of trnas identified from the bin, sag or mag</t>
-  </si>
-  <si>
-    <t>assembly software</t>
-  </si>
-  <si>
-    <t>(Mandatory) Tool(s) used for assembly, including version number and parameters in the format {software};{version};{parameters} e.g. metaspades;3.11.0;kmer set 21,33,55,77,99,121, default parameters otherwise</t>
-  </si>
-  <si>
-    <t>feature prediction</t>
-  </si>
-  <si>
-    <t>(Optional) Method used to predict uvigs features such as orfs, integration site, etc. add names and versions of software(s), parameters used</t>
-  </si>
-  <si>
-    <t>reference database(s)</t>
-  </si>
-  <si>
-    <t>(Optional) List of database(s) used for orf annotation, along with version number and reference to website or publication</t>
-  </si>
-  <si>
-    <t>similarity search method</t>
-  </si>
-  <si>
-    <t>(Optional) Tool used to compare orfs with database, along with version and cutoffs used. add names and versions of software(s), parameters used</t>
-  </si>
-  <si>
-    <t>tRNA extraction software</t>
-  </si>
-  <si>
-    <t>(Optional) Tools used for trna identification. add names and versions of software(s), parameters used</t>
-  </si>
-  <si>
-    <t>completeness score</t>
-  </si>
-  <si>
-    <t>(Optional) Completeness score is typically based on either the fraction of markers found as compared to a database or the percent of a genome found as compared to a closely related reference genome. completeness score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. mandatory for all samples directly linked with sags or mags. (Units: %)</t>
-  </si>
-  <si>
-    <t>completeness software</t>
-  </si>
-  <si>
-    <t>(Optional) Tools used for completion estimate, i.e. checkm, anvi'o, busco. mandatory for all samples directly linked with sags or mags.</t>
-  </si>
-  <si>
-    <t>completeness approach</t>
-  </si>
-  <si>
-    <t>(Optional) The approach used to determine the completeness of a given bin, sag or mag, which would typically make use of a set of conserved marker genes or a closely related reference genome. for uvig completeness, include reference genome or group used, and contig feature suggesting a complete genome</t>
-  </si>
-  <si>
-    <t>binning software</t>
-  </si>
-  <si>
-    <t>(Optional) Tool(s) used for the extraction of genomes from metagenomic datasets, where possible include a product id (pid) of the tool(s) used. e.g. metacluster-ta (rrid:scr_004599) or maxbin (biotools:maxbin)</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>reassembly post binning</t>
-  </si>
-  <si>
-    <t>(Optional) Has an assembly been performed on a genome bin extracted from a metagenomic assembly? (Units: Yes)</t>
-  </si>
-  <si>
-    <t>MAG coverage software</t>
-  </si>
-  <si>
-    <t>(Optional) Tool(s) used to determine the genome coverage if coverage is used as a binning parameter in the extraction of genomes from metagenomic datasets e.g. bwa, bbmap, bowtie, other</t>
-  </si>
-  <si>
-    <t>binning parameters</t>
-  </si>
-  <si>
-    <t>(Optional) The parameters that have been applied during the extraction of genomes from metagenomic datasets e.g. coverage and kmer</t>
-  </si>
-  <si>
-    <t>taxonomic identity marker</t>
-  </si>
-  <si>
-    <t>(Optional) The phylogenetic marker(s) used to assign an organism name to the bin, sag or mag. examples are 16s gene, multi-marker approach or other e.g. rpob gene. mandatory for all samples directly linked with sags or mags.</t>
-  </si>
-  <si>
-    <t>taxonomic classification</t>
-  </si>
-  <si>
-    <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
-  </si>
-  <si>
-    <t>flow cytometric cell sorting</t>
-  </si>
-  <si>
-    <t>lazer-tweezing</t>
-  </si>
-  <si>
-    <t>microfluidics</t>
-  </si>
-  <si>
-    <t>micromanipulation</t>
-  </si>
-  <si>
-    <t>optical manipulation</t>
-  </si>
-  <si>
-    <t>sorting technology</t>
-  </si>
-  <si>
-    <t>(Optional) Method used to sort/isolate cells or particles of interest</t>
-  </si>
-  <si>
-    <t>chemical</t>
-  </si>
-  <si>
-    <t>combination</t>
-  </si>
-  <si>
-    <t>enzymatic</t>
-  </si>
-  <si>
-    <t>physical</t>
-  </si>
-  <si>
-    <t>single cell or viral particle lysis approach</t>
-  </si>
-  <si>
-    <t>(Optional) Method used to free dna from interior of the cell(s) or particle(s)</t>
-  </si>
-  <si>
-    <t>single cell or viral particle lysis kit protocol</t>
-  </si>
-  <si>
-    <t>(Optional) Name of the kit or standard protocol used for cell(s) or particle(s) lysis</t>
-  </si>
-  <si>
-    <t>mda based</t>
-  </si>
-  <si>
-    <t>pcr based</t>
-  </si>
-  <si>
-    <t>WGA amplification approach</t>
-  </si>
-  <si>
-    <t>(Optional) Method used to amplify genomic dna in preparation for sequencing</t>
-  </si>
-  <si>
-    <t>WGA amplification kit</t>
-  </si>
-  <si>
-    <t>(Optional) Kit used to amplify genomic dna in preparation for sequencing</t>
-  </si>
-  <si>
-    <t>isolate microbial genome</t>
-  </si>
-  <si>
-    <t>metagenome (not viral targeted)</t>
-  </si>
-  <si>
-    <t>metatranscriptome (not viral targeted)</t>
-  </si>
-  <si>
-    <t>microbial single amplified genome (SAG)</t>
-  </si>
-  <si>
-    <t>sequence-targeted RNA metagenome</t>
-  </si>
-  <si>
-    <t>sequence-targeted metagenome</t>
-  </si>
-  <si>
-    <t>viral fraction RNA metagenome (RNA virome)</t>
-  </si>
-  <si>
-    <t>viral fraction metagenome (virome)</t>
-  </si>
-  <si>
-    <t>viral single amplified genome (vSAG)</t>
-  </si>
-  <si>
-    <t>source of UViGs</t>
-  </si>
-  <si>
-    <t>(Mandatory) Type of dataset from which the uvig was obtained</t>
-  </si>
-  <si>
-    <t>CsCl density gradient</t>
-  </si>
-  <si>
-    <t>DNAse</t>
-  </si>
-  <si>
-    <t>FeCl Precipitation</t>
-  </si>
-  <si>
-    <t>PEG Precipitation</t>
-  </si>
-  <si>
-    <t>RNAse</t>
-  </si>
-  <si>
-    <t>centrifugation</t>
-  </si>
-  <si>
-    <t>filtration</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>targeted sequence capture</t>
-  </si>
-  <si>
-    <t>ultracentrifugation</t>
-  </si>
-  <si>
-    <t>ultrafiltration</t>
-  </si>
-  <si>
-    <t>virus enrichment approach</t>
-  </si>
-  <si>
-    <t>(Mandatory) List of approaches used to enrich the sample for viruses, if any</t>
-  </si>
-  <si>
-    <t>DNA</t>
-  </si>
-  <si>
-    <t>RNA</t>
-  </si>
-  <si>
-    <t>dsDNA</t>
-  </si>
-  <si>
-    <t>dsRNA</t>
-  </si>
-  <si>
-    <t>mixed</t>
-  </si>
-  <si>
-    <t>ssDNA</t>
-  </si>
-  <si>
-    <t>ssRNA</t>
-  </si>
-  <si>
-    <t>ssRNA (+)</t>
-  </si>
-  <si>
-    <t>ssRNA (-)</t>
-  </si>
-  <si>
-    <t>uncharacterized</t>
-  </si>
-  <si>
-    <t>predicted genome type</t>
-  </si>
-  <si>
-    <t>(Mandatory) Type of genome predicted for the uvig</t>
-  </si>
-  <si>
-    <t>non-segmented</t>
-  </si>
-  <si>
-    <t>segmented</t>
-  </si>
-  <si>
-    <t>undetermined</t>
-  </si>
-  <si>
-    <t>predicted genome structure</t>
-  </si>
-  <si>
-    <t>(Mandatory) Expected structure of the viral genome</t>
-  </si>
-  <si>
-    <t>independent sequence (UViG)</t>
-  </si>
-  <si>
-    <t>provirus (UpViG)</t>
-  </si>
-  <si>
-    <t>detection type</t>
-  </si>
-  <si>
-    <t>(Mandatory) Type of uvig detection</t>
-  </si>
-  <si>
-    <t>viral identification software</t>
-  </si>
-  <si>
-    <t>(Mandatory) Tool(s) used for the identification of uvig as a viral genome, software or protocol name including version number, parameters, and cutoffs used formatted {software};{version};{parameters} e.g. virsorter; 1.0.4; virome database, category 2</t>
-  </si>
-  <si>
-    <t>OTU classification approach</t>
-  </si>
-  <si>
-    <t>(Optional) Cutoffs and approach used when clustering “species-level” otus. note that results from standard 95% ani / 85% af clustering should be provided alongside otus defined from another set of thresholds, even if the latter are the ones primarily used during the analysis. this should be formatted {ani cutoff};{af cutoff};{clustering method} e.g. 95% ani;85% af; greedy incremental clustering</t>
-  </si>
-  <si>
-    <t>OTU sequence comparison approach</t>
-  </si>
-  <si>
-    <t>(Optional) Tool and thresholds used to compare sequences when computing "species-level" otus formatted: {software};{version};{parameters} e.g. gblastn;2.6.0+;e-value cutoff: 0.001</t>
-  </si>
-  <si>
-    <t>OTU database</t>
-  </si>
-  <si>
-    <t>(Optional) Reference database (i.e. sequences not generated as part of the current study) used to cluster new genomes in "species-level" otus, if any. this should be formatted: {database};{version} e.g. ncbi viral refseq;83</t>
-  </si>
-  <si>
-    <t>CRISPR spacer match</t>
-  </si>
-  <si>
-    <t>co-occurrence</t>
-  </si>
-  <si>
-    <t>host sequence similarity</t>
-  </si>
-  <si>
-    <t>kmer similarity</t>
-  </si>
-  <si>
-    <t>provirus</t>
-  </si>
-  <si>
-    <t>host prediction approach</t>
-  </si>
-  <si>
-    <t>(Optional) Tool or approach used for host prediction</t>
-  </si>
-  <si>
-    <t>host prediction estimated accuracy</t>
-  </si>
-  <si>
-    <t>(Optional) For each tool or approach used for host prediction, estimated false discovery rates should be included, either computed de novo or from the literature</t>
-  </si>
-  <si>
-    <t>One or multiple fragments, totaling ≥ 90% of the expected genome or replicon sequence or predicted complete</t>
-  </si>
-  <si>
-    <t>One or multiple fragments, totalling &lt; 90% of the expected genome or replicon sequence, or for which no genome size could be estimated</t>
-  </si>
-  <si>
-    <t>Single, validated, contiguous sequence per replicon without gaps or ambiguities, with extensive manual review and editing to annotate putative gene functions and transcriptional units</t>
-  </si>
-  <si>
-    <t>UViG assembly quality</t>
-  </si>
-  <si>
-    <t>(Mandatory) Uvig assembly quality is one of 3 attributes which in combination reflect the standard quality of a uvig, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html.</t>
-  </si>
-  <si>
-    <t>isolation_source</t>
-  </si>
-  <si>
-    <t>(Mandatory) Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived</t>
-  </si>
-  <si>
-    <t>collection date</t>
-  </si>
-  <si>
-    <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
-  </si>
-  <si>
-    <t>altitude</t>
-  </si>
-  <si>
-    <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Anguilla</t>
-  </si>
-  <si>
-    <t>Antarctica</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>Arctic Ocean</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Aruba</t>
-  </si>
-  <si>
-    <t>Ashmore and Cartier Islands</t>
-  </si>
-  <si>
-    <t>Atlantic Ocean</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Baker Island</t>
-  </si>
-  <si>
-    <t>Baltic Sea</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>Bassas da India</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Bermuda</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Borneo</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Bouvet Island</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>British Virgin Islands</t>
-  </si>
-  <si>
-    <t>Brunei</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Christmas Island</t>
-  </si>
-  <si>
-    <t>Clipperton Island</t>
-  </si>
-  <si>
-    <t>Cocos Islands</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
-    <t>Coral Sea Islands</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Cote d'Ivoire</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Curacao</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Democratic Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>East Timor</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Europa Island</t>
-  </si>
-  <si>
-    <t>Falkland Islands (Islas Malvinas)</t>
-  </si>
-  <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>French Guiana</t>
-  </si>
-  <si>
-    <t>French Polynesia</t>
-  </si>
-  <si>
-    <t>French Southern and Antarctic Lands</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Gaza Strip</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Glorioso Islands</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Greenland</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
-    <t>Guam</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Guernsey</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Heard Island and McDonald Islands</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Howland Island</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indian Ocean</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Isle of Man</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Jan Mayen</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Jarvis Island</t>
-  </si>
-  <si>
-    <t>Jersey</t>
-  </si>
-  <si>
-    <t>Johnston Atoll</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Juan de Nova Island</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Kerguelen Archipelago</t>
-  </si>
-  <si>
-    <t>Kingman Reef</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Kosovo</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Macau</t>
-  </si>
-  <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>Mediterranean Sea</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Micronesia</t>
-  </si>
-  <si>
-    <t>Midway Islands</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>Navassa Island</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Niue</t>
-  </si>
-  <si>
-    <t>Norfolk Island</t>
-  </si>
-  <si>
-    <t>North Korea</t>
-  </si>
-  <si>
-    <t>North Sea</t>
-  </si>
-  <si>
-    <t>Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Pacific Ocean</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>Palmyra Atoll</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Paracel Islands</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Pitcairn Islands</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Reunion</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Ross Sea</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Saint Helena</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>Saint Pierre and Miquelon</t>
-  </si>
-  <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>San Marino</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Sint Maarten</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>South Georgia and the South Sandwich Islands</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Southern Ocean</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Spratly Islands</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Svalbard</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Syria</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>Tasman Sea</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Tokelau</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Tromelin Island</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
-    <t>Wallis and Futuna</t>
-  </si>
-  <si>
-    <t>West Bank</t>
-  </si>
-  <si>
-    <t>Western Sahara</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>missing: control sample</t>
-  </si>
-  <si>
-    <t>missing: data agreement established pre-2023</t>
-  </si>
-  <si>
-    <t>missing: endangered species</t>
-  </si>
-  <si>
-    <t>missing: human-identifiable</t>
-  </si>
-  <si>
-    <t>missing: lab stock</t>
-  </si>
-  <si>
-    <t>missing: sample group</t>
-  </si>
-  <si>
-    <t>missing: synthetic construct</t>
-  </si>
-  <si>
-    <t>missing: third party data</t>
-  </si>
-  <si>
-    <t>not applicable</t>
-  </si>
-  <si>
-    <t>not collected</t>
-  </si>
-  <si>
-    <t>not provided</t>
-  </si>
-  <si>
-    <t>restricted access</t>
-  </si>
-  <si>
-    <t>geographic location (country and/or sea)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The location the sample was collected from with the intention of sequencing, as defined by the country or sea. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
-  </si>
-  <si>
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
-  </si>
-  <si>
-    <t>broad-scale environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>local environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>environmental medium</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
-  </si>
-  <si>
-    <t>elevation</t>
-  </si>
-  <si>
-    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
-  </si>
-  <si>
-    <t>source material identifiers</t>
-  </si>
-  <si>
-    <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
-  </si>
-  <si>
-    <t>sample material processing</t>
-  </si>
-  <si>
-    <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
-  </si>
-  <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>size fraction selected</t>
-  </si>
-  <si>
-    <t>(Optional) Filtering pore size used in sample preparation e.g. 0-0.22 micrometer</t>
-  </si>
-  <si>
-    <t>sample derived from</t>
-  </si>
-  <si>
-    <t>(Mandatory) Reference to parental sample(s) or original run(s) that the assembly is derived from. the referenced samples or runs should already be registered in insdc. this should be formatted as one of the following. a single sample/run e.g. ersxxxxxx or a comma separated list e.g. ersxxxxxx,ersxxxxxx or a range e.g. ersxxxxxx-ersxxxxxx</t>
-  </si>
-  <si>
-    <t>metagenomic source</t>
-  </si>
-  <si>
-    <t>(Mandatory) The metagenomic source of the sample. this value should contain “metagenome” and be in the taxonomy database e.g. wastewater metagenome or human gut metagenome. please note “metagenome” alone will not be accepted. check here for more details on metagenome taxonomy: https://ena-docs.readthedocs.io/en/latest/faq_taxonomy.html#environmental-taxonomic-classifications</t>
-  </si>
-  <si>
-    <t>sample collection device</t>
-  </si>
-  <si>
-    <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
-  </si>
-  <si>
-    <t>sample collection method</t>
-  </si>
-  <si>
-    <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
-  </si>
-  <si>
-    <t>host scientific name</t>
-  </si>
-  <si>
-    <t>(Optional) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
-  </si>
-  <si>
-    <t>known pathogenicity</t>
-  </si>
-  <si>
-    <t>(Optional) To what is the entity pathogenic, for instance plant, fungi, bacteria</t>
-  </si>
-  <si>
-    <t>commensal</t>
-  </si>
-  <si>
-    <t>free living</t>
-  </si>
-  <si>
-    <t>mutualism</t>
-  </si>
-  <si>
-    <t>parasite</t>
-  </si>
-  <si>
-    <t>symbiont</t>
-  </si>
-  <si>
-    <t>observed biotic relationship</t>
-  </si>
-  <si>
-    <t>(Optional) Is it free-living or in a host and if the latter what type of relationship is observed</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
   </si>
 </sst>
 </file>
@@ -3844,217 +3847,217 @@
         <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>348</v>
+        <v>657</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>359</v>
+        <v>659</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>372</v>
+        <v>661</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>384</v>
+        <v>663</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>389</v>
+        <v>665</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>393</v>
+        <v>667</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>395</v>
+        <v>669</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>397</v>
+        <v>671</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>399</v>
+        <v>673</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>401</v>
+        <v>675</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>408</v>
+        <v>677</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>410</v>
+        <v>679</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>415</v>
+        <v>687</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>417</v>
+        <v>689</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>419</v>
+        <v>691</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>421</v>
+        <v>693</v>
       </c>
       <c r="BD1" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="BK1" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="BN1" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>738</v>
-      </c>
       <c r="BS1" s="1" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="2" spans="1:75" ht="150" customHeight="1">
@@ -4071,259 +4074,259 @@
         <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>349</v>
+        <v>658</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>360</v>
+        <v>660</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>373</v>
+        <v>662</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>385</v>
+        <v>664</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>390</v>
+        <v>666</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>394</v>
+        <v>668</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>396</v>
+        <v>670</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>398</v>
+        <v>672</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>400</v>
+        <v>674</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>402</v>
+        <v>676</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>409</v>
+        <v>678</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>411</v>
+        <v>680</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>416</v>
+        <v>688</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>418</v>
+        <v>690</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>420</v>
+        <v>692</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>422</v>
+        <v>694</v>
       </c>
       <c r="BD2" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BK2" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BL2" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BM2" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BN2" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="BI2" s="2" t="s">
+      <c r="BO2" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="BJ2" s="2" t="s">
+      <c r="BP2" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="BK2" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="BL2" s="2" t="s">
+      <c r="BQ2" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="BM2" s="2" t="s">
+      <c r="BR2" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="BN2" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="BO2" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="BP2" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="BQ2" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="BR2" s="2" t="s">
-        <v>739</v>
-      </c>
       <c r="BS2" s="2" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="13">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE3:AE101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E101">
+      <formula1>observedbioticrelationship</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X101">
       <formula1>reassemblypostbinning</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB101">
+      <formula1>sourceofUViGs</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC101">
+      <formula1>predictedgenometype</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD3:AD101">
+      <formula1>predictedgenomestructure</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE3:AE101">
+      <formula1>detectiontype</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ3:AJ101">
+      <formula1>UViGassemblyquality</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN3:AN101">
+      <formula1>geographiclocationcountryandorsea</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ3:AZ101">
+      <formula1>hostpredictionapproach</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BG3:BG101">
+      <formula1>singlecellorviralparticlelysisapproach</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BQ3:BQ101">
+      <formula1>WGAamplificationapproach</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS3:BS101">
       <formula1>sortingtechnology</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK3:AK101">
-      <formula1>singlecellorviralparticlelysisapproach</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM3:AM101">
-      <formula1>WGAamplificationapproach</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO3:AO101">
-      <formula1>sourceofUViGs</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP3:AP101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT3:BT101">
       <formula1>virusenrichmentapproach</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ101">
-      <formula1>predictedgenometype</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AR101">
-      <formula1>predictedgenomestructure</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS3:AS101">
-      <formula1>detectiontype</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX3:AX101">
-      <formula1>hostpredictionapproach</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ3:AZ101">
-      <formula1>UViGassemblyquality</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD3:BD101">
-      <formula1>geographiclocationcountryandorsea</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BW3:BW101">
-      <formula1>observedbioticrelationship</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4332,1643 +4335,1648 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="AE1:BW287"/>
+  <dimension ref="E1:BT288"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="31:75">
+    <row r="1" spans="5:72">
+      <c r="E1" t="s">
+        <v>265</v>
+      </c>
+      <c r="X1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>341</v>
+      </c>
       <c r="AE1" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="AJ1" t="s">
-        <v>329</v>
-      </c>
-      <c r="AK1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>681</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>701</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>724</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>730</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="2" spans="5:72">
+      <c r="E2" t="s">
+        <v>266</v>
+      </c>
+      <c r="X2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>330</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>347</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>359</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>370</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>682</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>683</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>725</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>731</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="3" spans="5:72">
+      <c r="E3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>360</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>371</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>683</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>702</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>732</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="4" spans="5:72">
+      <c r="E4" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>332</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>372</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>684</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>703</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>733</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="5" spans="5:72">
+      <c r="E5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>333</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>685</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>734</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="6" spans="5:72">
+      <c r="AB6" t="s">
+        <v>322</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>334</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>374</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>116</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>116</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="7" spans="5:72">
+      <c r="AB7" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>335</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>375</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>686</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="8" spans="5:72">
+      <c r="AB8" t="s">
+        <v>324</v>
+      </c>
+      <c r="AC8" t="s">
         <v>336</v>
       </c>
-      <c r="AM1" t="s">
-        <v>344</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>350</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>361</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AR1" t="s">
+      <c r="AN8" t="s">
+        <v>376</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="9" spans="5:72">
+      <c r="AB9" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>377</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="5:72">
+      <c r="AB10" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>338</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>378</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="11" spans="5:72">
+      <c r="AN11" t="s">
+        <v>379</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="12" spans="5:72">
+      <c r="AN12" t="s">
+        <v>380</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="13" spans="5:72">
+      <c r="AN13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="5:72">
+      <c r="AN14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="15" spans="5:72">
+      <c r="AN15" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="16" spans="5:72">
+      <c r="AN16" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="17" spans="40:40">
+      <c r="AN17" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="18" spans="40:40">
+      <c r="AN18" t="s">
         <v>386</v>
       </c>
-      <c r="AS1" t="s">
+    </row>
+    <row r="19" spans="40:40">
+      <c r="AN19" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="20" spans="40:40">
+      <c r="AN20" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="21" spans="40:40">
+      <c r="AN21" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="22" spans="40:40">
+      <c r="AN22" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="40:40">
+      <c r="AN23" t="s">
         <v>391</v>
       </c>
-      <c r="AX1" t="s">
+    </row>
+    <row r="24" spans="40:40">
+      <c r="AN24" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="25" spans="40:40">
+      <c r="AN25" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="26" spans="40:40">
+      <c r="AN26" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="27" spans="40:40">
+      <c r="AN27" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="28" spans="40:40">
+      <c r="AN28" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="29" spans="40:40">
+      <c r="AN29" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="30" spans="40:40">
+      <c r="AN30" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="31" spans="40:40">
+      <c r="AN31" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="32" spans="40:40">
+      <c r="AN32" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="40:40">
+      <c r="AN33" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="34" spans="40:40">
+      <c r="AN34" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="35" spans="40:40">
+      <c r="AN35" t="s">
         <v>403</v>
       </c>
-      <c r="AZ1" t="s">
+    </row>
+    <row r="36" spans="40:40">
+      <c r="AN36" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="37" spans="40:40">
+      <c r="AN37" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="38" spans="40:40">
+      <c r="AN38" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="39" spans="40:40">
+      <c r="AN39" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="40" spans="40:40">
+      <c r="AN40" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="41" spans="40:40">
+      <c r="AN41" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="42" spans="40:40">
+      <c r="AN42" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="43" spans="40:40">
+      <c r="AN43" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="44" spans="40:40">
+      <c r="AN44" t="s">
         <v>412</v>
       </c>
-      <c r="BD1" t="s">
+    </row>
+    <row r="45" spans="40:40">
+      <c r="AN45" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="46" spans="40:40">
+      <c r="AN46" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="47" spans="40:40">
+      <c r="AN47" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="48" spans="40:40">
+      <c r="AN48" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="49" spans="40:40">
+      <c r="AN49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="50" spans="40:40">
+      <c r="AN50" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="51" spans="40:40">
+      <c r="AN51" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="52" spans="40:40">
+      <c r="AN52" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="53" spans="40:40">
+      <c r="AN53" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="54" spans="40:40">
+      <c r="AN54" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="55" spans="40:40">
+      <c r="AN55" t="s">
         <v>423</v>
       </c>
-      <c r="BW1" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="2" spans="31:75">
-      <c r="AE2" t="s">
-        <v>318</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>330</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>337</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>345</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>351</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>362</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>387</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>392</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>404</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>413</v>
-      </c>
-      <c r="BD2" t="s">
+    </row>
+    <row r="56" spans="40:40">
+      <c r="AN56" t="s">
         <v>424</v>
       </c>
-      <c r="BW2" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="3" spans="31:75">
-      <c r="AJ3" t="s">
-        <v>331</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>338</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>352</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>363</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>376</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>388</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>337</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>414</v>
-      </c>
-      <c r="BD3" t="s">
+    </row>
+    <row r="57" spans="40:40">
+      <c r="AN57" t="s">
         <v>425</v>
       </c>
-      <c r="BW3" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="4" spans="31:75">
-      <c r="AJ4" t="s">
-        <v>332</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>339</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>353</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>364</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>377</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>405</v>
-      </c>
-      <c r="BD4" t="s">
+    </row>
+    <row r="58" spans="40:40">
+      <c r="AN58" t="s">
         <v>426</v>
       </c>
-      <c r="BW4" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="5" spans="31:75">
-      <c r="AJ5" t="s">
-        <v>333</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>365</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>378</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>406</v>
-      </c>
-      <c r="BD5" t="s">
+    </row>
+    <row r="59" spans="40:40">
+      <c r="AN59" t="s">
         <v>427</v>
       </c>
-      <c r="BW5" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="6" spans="31:75">
-      <c r="AJ6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>354</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>366</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>379</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>116</v>
-      </c>
-      <c r="BD6" t="s">
+    </row>
+    <row r="60" spans="40:40">
+      <c r="AN60" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="7" spans="31:75">
-      <c r="AO7" t="s">
-        <v>355</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>367</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>380</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>407</v>
-      </c>
-      <c r="BD7" t="s">
+    <row r="61" spans="40:40">
+      <c r="AN61" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="8" spans="31:75">
-      <c r="AO8" t="s">
-        <v>356</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>368</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>381</v>
-      </c>
-      <c r="BD8" t="s">
+    <row r="62" spans="40:40">
+      <c r="AN62" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="9" spans="31:75">
-      <c r="AO9" t="s">
-        <v>357</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>382</v>
-      </c>
-      <c r="BD9" t="s">
+    <row r="63" spans="40:40">
+      <c r="AN63" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="10" spans="31:75">
-      <c r="AO10" t="s">
-        <v>358</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>369</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>383</v>
-      </c>
-      <c r="BD10" t="s">
+    <row r="64" spans="40:40">
+      <c r="AN64" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="11" spans="31:75">
-      <c r="AP11" t="s">
-        <v>370</v>
-      </c>
-      <c r="BD11" t="s">
+    <row r="65" spans="40:40">
+      <c r="AN65" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="12" spans="31:75">
-      <c r="AP12" t="s">
-        <v>371</v>
-      </c>
-      <c r="BD12" t="s">
+    <row r="66" spans="40:40">
+      <c r="AN66" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="13" spans="31:75">
-      <c r="BD13" t="s">
+    <row r="67" spans="40:40">
+      <c r="AN67" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="14" spans="31:75">
-      <c r="BD14" t="s">
+    <row r="68" spans="40:40">
+      <c r="AN68" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="15" spans="31:75">
-      <c r="BD15" t="s">
+    <row r="69" spans="40:40">
+      <c r="AN69" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="31:75">
-      <c r="BD16" t="s">
+    <row r="70" spans="40:40">
+      <c r="AN70" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="17" spans="56:56">
-      <c r="BD17" t="s">
+    <row r="71" spans="40:40">
+      <c r="AN71" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="18" spans="56:56">
-      <c r="BD18" t="s">
+    <row r="72" spans="40:40">
+      <c r="AN72" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="19" spans="56:56">
-      <c r="BD19" t="s">
+    <row r="73" spans="40:40">
+      <c r="AN73" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="20" spans="56:56">
-      <c r="BD20" t="s">
+    <row r="74" spans="40:40">
+      <c r="AN74" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="21" spans="56:56">
-      <c r="BD21" t="s">
+    <row r="75" spans="40:40">
+      <c r="AN75" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="22" spans="56:56">
-      <c r="BD22" t="s">
+    <row r="76" spans="40:40">
+      <c r="AN76" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="23" spans="56:56">
-      <c r="BD23" t="s">
+    <row r="77" spans="40:40">
+      <c r="AN77" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="24" spans="56:56">
-      <c r="BD24" t="s">
+    <row r="78" spans="40:40">
+      <c r="AN78" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="25" spans="56:56">
-      <c r="BD25" t="s">
+    <row r="79" spans="40:40">
+      <c r="AN79" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="26" spans="56:56">
-      <c r="BD26" t="s">
+    <row r="80" spans="40:40">
+      <c r="AN80" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="27" spans="56:56">
-      <c r="BD27" t="s">
+    <row r="81" spans="40:40">
+      <c r="AN81" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="28" spans="56:56">
-      <c r="BD28" t="s">
+    <row r="82" spans="40:40">
+      <c r="AN82" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="29" spans="56:56">
-      <c r="BD29" t="s">
+    <row r="83" spans="40:40">
+      <c r="AN83" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="30" spans="56:56">
-      <c r="BD30" t="s">
+    <row r="84" spans="40:40">
+      <c r="AN84" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="31" spans="56:56">
-      <c r="BD31" t="s">
+    <row r="85" spans="40:40">
+      <c r="AN85" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="32" spans="56:56">
-      <c r="BD32" t="s">
+    <row r="86" spans="40:40">
+      <c r="AN86" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="33" spans="56:56">
-      <c r="BD33" t="s">
+    <row r="87" spans="40:40">
+      <c r="AN87" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="34" spans="56:56">
-      <c r="BD34" t="s">
+    <row r="88" spans="40:40">
+      <c r="AN88" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="35" spans="56:56">
-      <c r="BD35" t="s">
+    <row r="89" spans="40:40">
+      <c r="AN89" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="36" spans="56:56">
-      <c r="BD36" t="s">
+    <row r="90" spans="40:40">
+      <c r="AN90" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="37" spans="56:56">
-      <c r="BD37" t="s">
+    <row r="91" spans="40:40">
+      <c r="AN91" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="38" spans="56:56">
-      <c r="BD38" t="s">
+    <row r="92" spans="40:40">
+      <c r="AN92" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="39" spans="56:56">
-      <c r="BD39" t="s">
+    <row r="93" spans="40:40">
+      <c r="AN93" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="40" spans="56:56">
-      <c r="BD40" t="s">
+    <row r="94" spans="40:40">
+      <c r="AN94" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="41" spans="56:56">
-      <c r="BD41" t="s">
+    <row r="95" spans="40:40">
+      <c r="AN95" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="42" spans="56:56">
-      <c r="BD42" t="s">
+    <row r="96" spans="40:40">
+      <c r="AN96" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="43" spans="56:56">
-      <c r="BD43" t="s">
+    <row r="97" spans="40:40">
+      <c r="AN97" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="44" spans="56:56">
-      <c r="BD44" t="s">
+    <row r="98" spans="40:40">
+      <c r="AN98" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="45" spans="56:56">
-      <c r="BD45" t="s">
+    <row r="99" spans="40:40">
+      <c r="AN99" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="46" spans="56:56">
-      <c r="BD46" t="s">
+    <row r="100" spans="40:40">
+      <c r="AN100" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="47" spans="56:56">
-      <c r="BD47" t="s">
+    <row r="101" spans="40:40">
+      <c r="AN101" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="48" spans="56:56">
-      <c r="BD48" t="s">
+    <row r="102" spans="40:40">
+      <c r="AN102" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="49" spans="56:56">
-      <c r="BD49" t="s">
+    <row r="103" spans="40:40">
+      <c r="AN103" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="50" spans="56:56">
-      <c r="BD50" t="s">
+    <row r="104" spans="40:40">
+      <c r="AN104" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="51" spans="56:56">
-      <c r="BD51" t="s">
+    <row r="105" spans="40:40">
+      <c r="AN105" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="52" spans="56:56">
-      <c r="BD52" t="s">
+    <row r="106" spans="40:40">
+      <c r="AN106" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="53" spans="56:56">
-      <c r="BD53" t="s">
+    <row r="107" spans="40:40">
+      <c r="AN107" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="54" spans="56:56">
-      <c r="BD54" t="s">
+    <row r="108" spans="40:40">
+      <c r="AN108" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="55" spans="56:56">
-      <c r="BD55" t="s">
+    <row r="109" spans="40:40">
+      <c r="AN109" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="56" spans="56:56">
-      <c r="BD56" t="s">
+    <row r="110" spans="40:40">
+      <c r="AN110" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="57" spans="56:56">
-      <c r="BD57" t="s">
+    <row r="111" spans="40:40">
+      <c r="AN111" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="58" spans="56:56">
-      <c r="BD58" t="s">
+    <row r="112" spans="40:40">
+      <c r="AN112" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="59" spans="56:56">
-      <c r="BD59" t="s">
+    <row r="113" spans="40:40">
+      <c r="AN113" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="60" spans="56:56">
-      <c r="BD60" t="s">
+    <row r="114" spans="40:40">
+      <c r="AN114" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="61" spans="56:56">
-      <c r="BD61" t="s">
+    <row r="115" spans="40:40">
+      <c r="AN115" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="62" spans="56:56">
-      <c r="BD62" t="s">
+    <row r="116" spans="40:40">
+      <c r="AN116" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="63" spans="56:56">
-      <c r="BD63" t="s">
+    <row r="117" spans="40:40">
+      <c r="AN117" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="64" spans="56:56">
-      <c r="BD64" t="s">
+    <row r="118" spans="40:40">
+      <c r="AN118" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="65" spans="56:56">
-      <c r="BD65" t="s">
+    <row r="119" spans="40:40">
+      <c r="AN119" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="66" spans="56:56">
-      <c r="BD66" t="s">
+    <row r="120" spans="40:40">
+      <c r="AN120" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="67" spans="56:56">
-      <c r="BD67" t="s">
+    <row r="121" spans="40:40">
+      <c r="AN121" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="68" spans="56:56">
-      <c r="BD68" t="s">
+    <row r="122" spans="40:40">
+      <c r="AN122" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="69" spans="56:56">
-      <c r="BD69" t="s">
+    <row r="123" spans="40:40">
+      <c r="AN123" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="70" spans="56:56">
-      <c r="BD70" t="s">
+    <row r="124" spans="40:40">
+      <c r="AN124" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="71" spans="56:56">
-      <c r="BD71" t="s">
+    <row r="125" spans="40:40">
+      <c r="AN125" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="72" spans="56:56">
-      <c r="BD72" t="s">
+    <row r="126" spans="40:40">
+      <c r="AN126" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="73" spans="56:56">
-      <c r="BD73" t="s">
+    <row r="127" spans="40:40">
+      <c r="AN127" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="74" spans="56:56">
-      <c r="BD74" t="s">
+    <row r="128" spans="40:40">
+      <c r="AN128" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="75" spans="56:56">
-      <c r="BD75" t="s">
+    <row r="129" spans="40:40">
+      <c r="AN129" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="76" spans="56:56">
-      <c r="BD76" t="s">
+    <row r="130" spans="40:40">
+      <c r="AN130" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="77" spans="56:56">
-      <c r="BD77" t="s">
+    <row r="131" spans="40:40">
+      <c r="AN131" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="78" spans="56:56">
-      <c r="BD78" t="s">
+    <row r="132" spans="40:40">
+      <c r="AN132" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="79" spans="56:56">
-      <c r="BD79" t="s">
+    <row r="133" spans="40:40">
+      <c r="AN133" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="80" spans="56:56">
-      <c r="BD80" t="s">
+    <row r="134" spans="40:40">
+      <c r="AN134" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="81" spans="56:56">
-      <c r="BD81" t="s">
+    <row r="135" spans="40:40">
+      <c r="AN135" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="82" spans="56:56">
-      <c r="BD82" t="s">
+    <row r="136" spans="40:40">
+      <c r="AN136" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="83" spans="56:56">
-      <c r="BD83" t="s">
+    <row r="137" spans="40:40">
+      <c r="AN137" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="84" spans="56:56">
-      <c r="BD84" t="s">
+    <row r="138" spans="40:40">
+      <c r="AN138" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="85" spans="56:56">
-      <c r="BD85" t="s">
+    <row r="139" spans="40:40">
+      <c r="AN139" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="86" spans="56:56">
-      <c r="BD86" t="s">
+    <row r="140" spans="40:40">
+      <c r="AN140" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="87" spans="56:56">
-      <c r="BD87" t="s">
+    <row r="141" spans="40:40">
+      <c r="AN141" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="88" spans="56:56">
-      <c r="BD88" t="s">
+    <row r="142" spans="40:40">
+      <c r="AN142" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="89" spans="56:56">
-      <c r="BD89" t="s">
+    <row r="143" spans="40:40">
+      <c r="AN143" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="90" spans="56:56">
-      <c r="BD90" t="s">
+    <row r="144" spans="40:40">
+      <c r="AN144" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="91" spans="56:56">
-      <c r="BD91" t="s">
+    <row r="145" spans="40:40">
+      <c r="AN145" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="92" spans="56:56">
-      <c r="BD92" t="s">
+    <row r="146" spans="40:40">
+      <c r="AN146" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="93" spans="56:56">
-      <c r="BD93" t="s">
+    <row r="147" spans="40:40">
+      <c r="AN147" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="94" spans="56:56">
-      <c r="BD94" t="s">
+    <row r="148" spans="40:40">
+      <c r="AN148" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="95" spans="56:56">
-      <c r="BD95" t="s">
+    <row r="149" spans="40:40">
+      <c r="AN149" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="96" spans="56:56">
-      <c r="BD96" t="s">
+    <row r="150" spans="40:40">
+      <c r="AN150" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="97" spans="56:56">
-      <c r="BD97" t="s">
+    <row r="151" spans="40:40">
+      <c r="AN151" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="98" spans="56:56">
-      <c r="BD98" t="s">
+    <row r="152" spans="40:40">
+      <c r="AN152" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="99" spans="56:56">
-      <c r="BD99" t="s">
+    <row r="153" spans="40:40">
+      <c r="AN153" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="100" spans="56:56">
-      <c r="BD100" t="s">
+    <row r="154" spans="40:40">
+      <c r="AN154" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="101" spans="56:56">
-      <c r="BD101" t="s">
+    <row r="155" spans="40:40">
+      <c r="AN155" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="102" spans="56:56">
-      <c r="BD102" t="s">
+    <row r="156" spans="40:40">
+      <c r="AN156" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="103" spans="56:56">
-      <c r="BD103" t="s">
+    <row r="157" spans="40:40">
+      <c r="AN157" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="104" spans="56:56">
-      <c r="BD104" t="s">
+    <row r="158" spans="40:40">
+      <c r="AN158" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="105" spans="56:56">
-      <c r="BD105" t="s">
+    <row r="159" spans="40:40">
+      <c r="AN159" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="106" spans="56:56">
-      <c r="BD106" t="s">
+    <row r="160" spans="40:40">
+      <c r="AN160" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="107" spans="56:56">
-      <c r="BD107" t="s">
+    <row r="161" spans="40:40">
+      <c r="AN161" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="108" spans="56:56">
-      <c r="BD108" t="s">
+    <row r="162" spans="40:40">
+      <c r="AN162" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="109" spans="56:56">
-      <c r="BD109" t="s">
+    <row r="163" spans="40:40">
+      <c r="AN163" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="110" spans="56:56">
-      <c r="BD110" t="s">
+    <row r="164" spans="40:40">
+      <c r="AN164" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="111" spans="56:56">
-      <c r="BD111" t="s">
+    <row r="165" spans="40:40">
+      <c r="AN165" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="112" spans="56:56">
-      <c r="BD112" t="s">
+    <row r="166" spans="40:40">
+      <c r="AN166" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="113" spans="56:56">
-      <c r="BD113" t="s">
+    <row r="167" spans="40:40">
+      <c r="AN167" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="114" spans="56:56">
-      <c r="BD114" t="s">
+    <row r="168" spans="40:40">
+      <c r="AN168" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="115" spans="56:56">
-      <c r="BD115" t="s">
+    <row r="169" spans="40:40">
+      <c r="AN169" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="116" spans="56:56">
-      <c r="BD116" t="s">
+    <row r="170" spans="40:40">
+      <c r="AN170" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="117" spans="56:56">
-      <c r="BD117" t="s">
+    <row r="171" spans="40:40">
+      <c r="AN171" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="118" spans="56:56">
-      <c r="BD118" t="s">
+    <row r="172" spans="40:40">
+      <c r="AN172" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="119" spans="56:56">
-      <c r="BD119" t="s">
+    <row r="173" spans="40:40">
+      <c r="AN173" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="120" spans="56:56">
-      <c r="BD120" t="s">
+    <row r="174" spans="40:40">
+      <c r="AN174" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="121" spans="56:56">
-      <c r="BD121" t="s">
+    <row r="175" spans="40:40">
+      <c r="AN175" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="122" spans="56:56">
-      <c r="BD122" t="s">
+    <row r="176" spans="40:40">
+      <c r="AN176" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="123" spans="56:56">
-      <c r="BD123" t="s">
+    <row r="177" spans="40:40">
+      <c r="AN177" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="124" spans="56:56">
-      <c r="BD124" t="s">
+    <row r="178" spans="40:40">
+      <c r="AN178" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="125" spans="56:56">
-      <c r="BD125" t="s">
+    <row r="179" spans="40:40">
+      <c r="AN179" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="126" spans="56:56">
-      <c r="BD126" t="s">
+    <row r="180" spans="40:40">
+      <c r="AN180" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="127" spans="56:56">
-      <c r="BD127" t="s">
+    <row r="181" spans="40:40">
+      <c r="AN181" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="128" spans="56:56">
-      <c r="BD128" t="s">
+    <row r="182" spans="40:40">
+      <c r="AN182" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="129" spans="56:56">
-      <c r="BD129" t="s">
+    <row r="183" spans="40:40">
+      <c r="AN183" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="130" spans="56:56">
-      <c r="BD130" t="s">
+    <row r="184" spans="40:40">
+      <c r="AN184" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="131" spans="56:56">
-      <c r="BD131" t="s">
+    <row r="185" spans="40:40">
+      <c r="AN185" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="132" spans="56:56">
-      <c r="BD132" t="s">
+    <row r="186" spans="40:40">
+      <c r="AN186" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="133" spans="56:56">
-      <c r="BD133" t="s">
+    <row r="187" spans="40:40">
+      <c r="AN187" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="134" spans="56:56">
-      <c r="BD134" t="s">
+    <row r="188" spans="40:40">
+      <c r="AN188" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="135" spans="56:56">
-      <c r="BD135" t="s">
+    <row r="189" spans="40:40">
+      <c r="AN189" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="136" spans="56:56">
-      <c r="BD136" t="s">
+    <row r="190" spans="40:40">
+      <c r="AN190" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="137" spans="56:56">
-      <c r="BD137" t="s">
+    <row r="191" spans="40:40">
+      <c r="AN191" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="138" spans="56:56">
-      <c r="BD138" t="s">
+    <row r="192" spans="40:40">
+      <c r="AN192" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="139" spans="56:56">
-      <c r="BD139" t="s">
+    <row r="193" spans="40:40">
+      <c r="AN193" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="140" spans="56:56">
-      <c r="BD140" t="s">
+    <row r="194" spans="40:40">
+      <c r="AN194" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="141" spans="56:56">
-      <c r="BD141" t="s">
+    <row r="195" spans="40:40">
+      <c r="AN195" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="142" spans="56:56">
-      <c r="BD142" t="s">
+    <row r="196" spans="40:40">
+      <c r="AN196" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="143" spans="56:56">
-      <c r="BD143" t="s">
+    <row r="197" spans="40:40">
+      <c r="AN197" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="144" spans="56:56">
-      <c r="BD144" t="s">
+    <row r="198" spans="40:40">
+      <c r="AN198" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="145" spans="56:56">
-      <c r="BD145" t="s">
+    <row r="199" spans="40:40">
+      <c r="AN199" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="146" spans="56:56">
-      <c r="BD146" t="s">
+    <row r="200" spans="40:40">
+      <c r="AN200" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="147" spans="56:56">
-      <c r="BD147" t="s">
+    <row r="201" spans="40:40">
+      <c r="AN201" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="148" spans="56:56">
-      <c r="BD148" t="s">
+    <row r="202" spans="40:40">
+      <c r="AN202" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="149" spans="56:56">
-      <c r="BD149" t="s">
+    <row r="203" spans="40:40">
+      <c r="AN203" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="150" spans="56:56">
-      <c r="BD150" t="s">
+    <row r="204" spans="40:40">
+      <c r="AN204" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="151" spans="56:56">
-      <c r="BD151" t="s">
+    <row r="205" spans="40:40">
+      <c r="AN205" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="152" spans="56:56">
-      <c r="BD152" t="s">
+    <row r="206" spans="40:40">
+      <c r="AN206" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="153" spans="56:56">
-      <c r="BD153" t="s">
+    <row r="207" spans="40:40">
+      <c r="AN207" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="154" spans="56:56">
-      <c r="BD154" t="s">
+    <row r="208" spans="40:40">
+      <c r="AN208" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="155" spans="56:56">
-      <c r="BD155" t="s">
+    <row r="209" spans="40:40">
+      <c r="AN209" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="156" spans="56:56">
-      <c r="BD156" t="s">
+    <row r="210" spans="40:40">
+      <c r="AN210" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="157" spans="56:56">
-      <c r="BD157" t="s">
+    <row r="211" spans="40:40">
+      <c r="AN211" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="158" spans="56:56">
-      <c r="BD158" t="s">
+    <row r="212" spans="40:40">
+      <c r="AN212" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="159" spans="56:56">
-      <c r="BD159" t="s">
+    <row r="213" spans="40:40">
+      <c r="AN213" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="160" spans="56:56">
-      <c r="BD160" t="s">
+    <row r="214" spans="40:40">
+      <c r="AN214" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="161" spans="56:56">
-      <c r="BD161" t="s">
+    <row r="215" spans="40:40">
+      <c r="AN215" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="162" spans="56:56">
-      <c r="BD162" t="s">
+    <row r="216" spans="40:40">
+      <c r="AN216" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="163" spans="56:56">
-      <c r="BD163" t="s">
+    <row r="217" spans="40:40">
+      <c r="AN217" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="164" spans="56:56">
-      <c r="BD164" t="s">
+    <row r="218" spans="40:40">
+      <c r="AN218" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="165" spans="56:56">
-      <c r="BD165" t="s">
+    <row r="219" spans="40:40">
+      <c r="AN219" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="166" spans="56:56">
-      <c r="BD166" t="s">
+    <row r="220" spans="40:40">
+      <c r="AN220" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="167" spans="56:56">
-      <c r="BD167" t="s">
+    <row r="221" spans="40:40">
+      <c r="AN221" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="168" spans="56:56">
-      <c r="BD168" t="s">
+    <row r="222" spans="40:40">
+      <c r="AN222" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="169" spans="56:56">
-      <c r="BD169" t="s">
+    <row r="223" spans="40:40">
+      <c r="AN223" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="170" spans="56:56">
-      <c r="BD170" t="s">
+    <row r="224" spans="40:40">
+      <c r="AN224" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="171" spans="56:56">
-      <c r="BD171" t="s">
+    <row r="225" spans="40:40">
+      <c r="AN225" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="172" spans="56:56">
-      <c r="BD172" t="s">
+    <row r="226" spans="40:40">
+      <c r="AN226" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="173" spans="56:56">
-      <c r="BD173" t="s">
+    <row r="227" spans="40:40">
+      <c r="AN227" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="174" spans="56:56">
-      <c r="BD174" t="s">
+    <row r="228" spans="40:40">
+      <c r="AN228" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="175" spans="56:56">
-      <c r="BD175" t="s">
+    <row r="229" spans="40:40">
+      <c r="AN229" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="176" spans="56:56">
-      <c r="BD176" t="s">
+    <row r="230" spans="40:40">
+      <c r="AN230" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="177" spans="56:56">
-      <c r="BD177" t="s">
+    <row r="231" spans="40:40">
+      <c r="AN231" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="178" spans="56:56">
-      <c r="BD178" t="s">
+    <row r="232" spans="40:40">
+      <c r="AN232" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="179" spans="56:56">
-      <c r="BD179" t="s">
+    <row r="233" spans="40:40">
+      <c r="AN233" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="180" spans="56:56">
-      <c r="BD180" t="s">
+    <row r="234" spans="40:40">
+      <c r="AN234" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="181" spans="56:56">
-      <c r="BD181" t="s">
+    <row r="235" spans="40:40">
+      <c r="AN235" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="182" spans="56:56">
-      <c r="BD182" t="s">
+    <row r="236" spans="40:40">
+      <c r="AN236" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="183" spans="56:56">
-      <c r="BD183" t="s">
+    <row r="237" spans="40:40">
+      <c r="AN237" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="184" spans="56:56">
-      <c r="BD184" t="s">
+    <row r="238" spans="40:40">
+      <c r="AN238" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="185" spans="56:56">
-      <c r="BD185" t="s">
+    <row r="239" spans="40:40">
+      <c r="AN239" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="186" spans="56:56">
-      <c r="BD186" t="s">
+    <row r="240" spans="40:40">
+      <c r="AN240" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="187" spans="56:56">
-      <c r="BD187" t="s">
+    <row r="241" spans="40:40">
+      <c r="AN241" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="188" spans="56:56">
-      <c r="BD188" t="s">
+    <row r="242" spans="40:40">
+      <c r="AN242" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="189" spans="56:56">
-      <c r="BD189" t="s">
+    <row r="243" spans="40:40">
+      <c r="AN243" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="190" spans="56:56">
-      <c r="BD190" t="s">
+    <row r="244" spans="40:40">
+      <c r="AN244" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="191" spans="56:56">
-      <c r="BD191" t="s">
+    <row r="245" spans="40:40">
+      <c r="AN245" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="192" spans="56:56">
-      <c r="BD192" t="s">
+    <row r="246" spans="40:40">
+      <c r="AN246" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="193" spans="56:56">
-      <c r="BD193" t="s">
+    <row r="247" spans="40:40">
+      <c r="AN247" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="194" spans="56:56">
-      <c r="BD194" t="s">
+    <row r="248" spans="40:40">
+      <c r="AN248" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="195" spans="56:56">
-      <c r="BD195" t="s">
+    <row r="249" spans="40:40">
+      <c r="AN249" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="196" spans="56:56">
-      <c r="BD196" t="s">
+    <row r="250" spans="40:40">
+      <c r="AN250" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="197" spans="56:56">
-      <c r="BD197" t="s">
+    <row r="251" spans="40:40">
+      <c r="AN251" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="198" spans="56:56">
-      <c r="BD198" t="s">
+    <row r="252" spans="40:40">
+      <c r="AN252" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="199" spans="56:56">
-      <c r="BD199" t="s">
+    <row r="253" spans="40:40">
+      <c r="AN253" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="200" spans="56:56">
-      <c r="BD200" t="s">
+    <row r="254" spans="40:40">
+      <c r="AN254" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="201" spans="56:56">
-      <c r="BD201" t="s">
+    <row r="255" spans="40:40">
+      <c r="AN255" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="202" spans="56:56">
-      <c r="BD202" t="s">
+    <row r="256" spans="40:40">
+      <c r="AN256" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="203" spans="56:56">
-      <c r="BD203" t="s">
+    <row r="257" spans="40:40">
+      <c r="AN257" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="204" spans="56:56">
-      <c r="BD204" t="s">
+    <row r="258" spans="40:40">
+      <c r="AN258" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="205" spans="56:56">
-      <c r="BD205" t="s">
+    <row r="259" spans="40:40">
+      <c r="AN259" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="206" spans="56:56">
-      <c r="BD206" t="s">
+    <row r="260" spans="40:40">
+      <c r="AN260" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="207" spans="56:56">
-      <c r="BD207" t="s">
+    <row r="261" spans="40:40">
+      <c r="AN261" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="208" spans="56:56">
-      <c r="BD208" t="s">
+    <row r="262" spans="40:40">
+      <c r="AN262" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="209" spans="56:56">
-      <c r="BD209" t="s">
+    <row r="263" spans="40:40">
+      <c r="AN263" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="210" spans="56:56">
-      <c r="BD210" t="s">
+    <row r="264" spans="40:40">
+      <c r="AN264" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="211" spans="56:56">
-      <c r="BD211" t="s">
+    <row r="265" spans="40:40">
+      <c r="AN265" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="212" spans="56:56">
-      <c r="BD212" t="s">
+    <row r="266" spans="40:40">
+      <c r="AN266" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="213" spans="56:56">
-      <c r="BD213" t="s">
+    <row r="267" spans="40:40">
+      <c r="AN267" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="214" spans="56:56">
-      <c r="BD214" t="s">
+    <row r="268" spans="40:40">
+      <c r="AN268" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="215" spans="56:56">
-      <c r="BD215" t="s">
+    <row r="269" spans="40:40">
+      <c r="AN269" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="216" spans="56:56">
-      <c r="BD216" t="s">
+    <row r="270" spans="40:40">
+      <c r="AN270" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="217" spans="56:56">
-      <c r="BD217" t="s">
+    <row r="271" spans="40:40">
+      <c r="AN271" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="218" spans="56:56">
-      <c r="BD218" t="s">
+    <row r="272" spans="40:40">
+      <c r="AN272" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="219" spans="56:56">
-      <c r="BD219" t="s">
+    <row r="273" spans="40:40">
+      <c r="AN273" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="220" spans="56:56">
-      <c r="BD220" t="s">
+    <row r="274" spans="40:40">
+      <c r="AN274" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="221" spans="56:56">
-      <c r="BD221" t="s">
+    <row r="275" spans="40:40">
+      <c r="AN275" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="222" spans="56:56">
-      <c r="BD222" t="s">
+    <row r="276" spans="40:40">
+      <c r="AN276" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="223" spans="56:56">
-      <c r="BD223" t="s">
+    <row r="277" spans="40:40">
+      <c r="AN277" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="224" spans="56:56">
-      <c r="BD224" t="s">
+    <row r="278" spans="40:40">
+      <c r="AN278" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="225" spans="56:56">
-      <c r="BD225" t="s">
+    <row r="279" spans="40:40">
+      <c r="AN279" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="226" spans="56:56">
-      <c r="BD226" t="s">
+    <row r="280" spans="40:40">
+      <c r="AN280" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="227" spans="56:56">
-      <c r="BD227" t="s">
+    <row r="281" spans="40:40">
+      <c r="AN281" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="228" spans="56:56">
-      <c r="BD228" t="s">
+    <row r="282" spans="40:40">
+      <c r="AN282" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="229" spans="56:56">
-      <c r="BD229" t="s">
+    <row r="283" spans="40:40">
+      <c r="AN283" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="230" spans="56:56">
-      <c r="BD230" t="s">
+    <row r="284" spans="40:40">
+      <c r="AN284" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="231" spans="56:56">
-      <c r="BD231" t="s">
+    <row r="285" spans="40:40">
+      <c r="AN285" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="232" spans="56:56">
-      <c r="BD232" t="s">
+    <row r="286" spans="40:40">
+      <c r="AN286" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="233" spans="56:56">
-      <c r="BD233" t="s">
+    <row r="287" spans="40:40">
+      <c r="AN287" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="234" spans="56:56">
-      <c r="BD234" t="s">
+    <row r="288" spans="40:40">
+      <c r="AN288" t="s">
         <v>656</v>
-      </c>
-    </row>
-    <row r="235" spans="56:56">
-      <c r="BD235" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="236" spans="56:56">
-      <c r="BD236" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="237" spans="56:56">
-      <c r="BD237" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="238" spans="56:56">
-      <c r="BD238" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="239" spans="56:56">
-      <c r="BD239" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="240" spans="56:56">
-      <c r="BD240" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="241" spans="56:56">
-      <c r="BD241" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="242" spans="56:56">
-      <c r="BD242" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="243" spans="56:56">
-      <c r="BD243" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="244" spans="56:56">
-      <c r="BD244" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="245" spans="56:56">
-      <c r="BD245" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="246" spans="56:56">
-      <c r="BD246" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="247" spans="56:56">
-      <c r="BD247" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="248" spans="56:56">
-      <c r="BD248" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="249" spans="56:56">
-      <c r="BD249" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="250" spans="56:56">
-      <c r="BD250" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="251" spans="56:56">
-      <c r="BD251" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="252" spans="56:56">
-      <c r="BD252" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="253" spans="56:56">
-      <c r="BD253" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="254" spans="56:56">
-      <c r="BD254" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="255" spans="56:56">
-      <c r="BD255" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="256" spans="56:56">
-      <c r="BD256" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="257" spans="56:56">
-      <c r="BD257" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="258" spans="56:56">
-      <c r="BD258" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="259" spans="56:56">
-      <c r="BD259" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="260" spans="56:56">
-      <c r="BD260" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="261" spans="56:56">
-      <c r="BD261" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="262" spans="56:56">
-      <c r="BD262" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="263" spans="56:56">
-      <c r="BD263" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="264" spans="56:56">
-      <c r="BD264" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="265" spans="56:56">
-      <c r="BD265" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="266" spans="56:56">
-      <c r="BD266" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="267" spans="56:56">
-      <c r="BD267" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="268" spans="56:56">
-      <c r="BD268" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="269" spans="56:56">
-      <c r="BD269" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="270" spans="56:56">
-      <c r="BD270" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="271" spans="56:56">
-      <c r="BD271" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="272" spans="56:56">
-      <c r="BD272" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="273" spans="56:56">
-      <c r="BD273" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="274" spans="56:56">
-      <c r="BD274" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="275" spans="56:56">
-      <c r="BD275" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="276" spans="56:56">
-      <c r="BD276" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="277" spans="56:56">
-      <c r="BD277" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="278" spans="56:56">
-      <c r="BD278" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="279" spans="56:56">
-      <c r="BD279" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="280" spans="56:56">
-      <c r="BD280" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="281" spans="56:56">
-      <c r="BD281" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="282" spans="56:56">
-      <c r="BD282" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="283" spans="56:56">
-      <c r="BD283" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="284" spans="56:56">
-      <c r="BD284" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="285" spans="56:56">
-      <c r="BD285" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="286" spans="56:56">
-      <c r="BD286" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="287" spans="56:56">
-      <c r="BD287" t="s">
-        <v>709</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000049/metadata_template_ERC000049.xlsx
+++ b/templates/ERC000049/metadata_template_ERC000049.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="754">
   <si>
     <t>alias</t>
   </si>
@@ -1344,12 +1344,12 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
   </si>
   <si>
-    <t>Czechia</t>
-  </si>
-  <si>
     <t>Democratic Republic of the Congo</t>
   </si>
   <si>
@@ -2299,12 +2299,6 @@
   </si>
   <si>
     <t>(Optional) Adapters provide priming sequences for both amplification and sequencing of the sample-library fragments. both adapters should be reported; in uppercase letters</t>
-  </si>
-  <si>
-    <t>sequencing method</t>
-  </si>
-  <si>
-    <t>(Optional) Sequencing machine used. where possible the term should be taken from the obi list of dna sequencers (http://purl.obolibrary.org/obo/obi_0400103).</t>
   </si>
   <si>
     <t>depth</t>
@@ -3824,7 +3818,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BW2"/>
+  <dimension ref="A1:BV2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3833,7 +3827,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75">
+    <row r="1" spans="1:74">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4056,11 +4050,8 @@
       <c r="BV1" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="BW1" s="1" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="2" spans="1:75" ht="150" customHeight="1">
+    </row>
+    <row r="2" spans="1:74" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>229</v>
       </c>
@@ -4282,9 +4273,6 @@
       </c>
       <c r="BV2" s="2" t="s">
         <v>753</v>
-      </c>
-      <c r="BW2" s="2" t="s">
-        <v>755</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000049/metadata_template_ERC000049.xlsx
+++ b/templates/ERC000049/metadata_template_ERC000049.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="755">
   <si>
     <t>alias</t>
   </si>
@@ -823,6 +823,9 @@
   </si>
   <si>
     <t>(Mandatory) The run data file model.</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
   </si>
   <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
@@ -3835,444 +3838,444 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="2" spans="1:74" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
   </sheetData>
@@ -4331,176 +4334,176 @@
   <sheetData>
     <row r="1" spans="5:72">
       <c r="E1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="X1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AB1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AD1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AE1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AJ1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AZ1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="BG1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BQ1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BS1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BT1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="2" spans="5:72">
       <c r="E2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="X2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AB2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AD2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AE2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AJ2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AZ2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="BG2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="BQ2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BS2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BT2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="3" spans="5:72">
       <c r="E3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AB3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AD3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AJ3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AZ3" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="BG3" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BS3" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BT3" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="4" spans="5:72">
       <c r="E4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AB4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AC4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AZ4" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="BG4" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BS4" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BT4" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="5" spans="5:72">
       <c r="E5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AB5" t="s">
         <v>116</v>
       </c>
       <c r="AC5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AZ5" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="BS5" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BT5" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="6" spans="5:72">
       <c r="AB6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AC6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AN6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AZ6" t="s">
         <v>116</v>
@@ -4509,49 +4512,49 @@
         <v>116</v>
       </c>
       <c r="BT6" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="7" spans="5:72">
       <c r="AB7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AC7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AZ7" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="BT7" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="8" spans="5:72">
       <c r="AB8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AC8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="BT8" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="9" spans="5:72">
       <c r="AB9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BT9" t="s">
         <v>116</v>
@@ -4559,1412 +4562,1412 @@
     </row>
     <row r="10" spans="5:72">
       <c r="AB10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AC10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="BT10" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="11" spans="5:72">
       <c r="AN11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="BT11" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="12" spans="5:72">
       <c r="AN12" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="BT12" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="13" spans="5:72">
       <c r="AN13" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="5:72">
       <c r="AN14" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="5:72">
       <c r="AN15" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="5:72">
       <c r="AN16" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="40:40">
       <c r="AN17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="40:40">
       <c r="AN18" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="40:40">
       <c r="AN19" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="40:40">
       <c r="AN20" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="40:40">
       <c r="AN21" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="22" spans="40:40">
       <c r="AN22" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="40:40">
       <c r="AN23" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="40:40">
       <c r="AN24" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="40:40">
       <c r="AN25" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="40:40">
       <c r="AN26" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="40:40">
       <c r="AN27" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="40:40">
       <c r="AN28" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="40:40">
       <c r="AN29" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="40:40">
       <c r="AN30" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="31" spans="40:40">
       <c r="AN31" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" spans="40:40">
       <c r="AN32" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="40:40">
       <c r="AN33" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="34" spans="40:40">
       <c r="AN34" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35" spans="40:40">
       <c r="AN35" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="36" spans="40:40">
       <c r="AN36" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="37" spans="40:40">
       <c r="AN37" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="38" spans="40:40">
       <c r="AN38" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="39" spans="40:40">
       <c r="AN39" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="40" spans="40:40">
       <c r="AN40" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="41" spans="40:40">
       <c r="AN41" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="42" spans="40:40">
       <c r="AN42" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="43" spans="40:40">
       <c r="AN43" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="44" spans="40:40">
       <c r="AN44" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45" spans="40:40">
       <c r="AN45" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="46" spans="40:40">
       <c r="AN46" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="47" spans="40:40">
       <c r="AN47" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="48" spans="40:40">
       <c r="AN48" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49" spans="40:40">
       <c r="AN49" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="50" spans="40:40">
       <c r="AN50" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="51" spans="40:40">
       <c r="AN51" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="52" spans="40:40">
       <c r="AN52" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="53" spans="40:40">
       <c r="AN53" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="54" spans="40:40">
       <c r="AN54" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="55" spans="40:40">
       <c r="AN55" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="56" spans="40:40">
       <c r="AN56" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57" spans="40:40">
       <c r="AN57" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="58" spans="40:40">
       <c r="AN58" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="59" spans="40:40">
       <c r="AN59" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="60" spans="40:40">
       <c r="AN60" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="61" spans="40:40">
       <c r="AN61" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="62" spans="40:40">
       <c r="AN62" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="63" spans="40:40">
       <c r="AN63" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="64" spans="40:40">
       <c r="AN64" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="65" spans="40:40">
       <c r="AN65" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="66" spans="40:40">
       <c r="AN66" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="67" spans="40:40">
       <c r="AN67" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="68" spans="40:40">
       <c r="AN68" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="69" spans="40:40">
       <c r="AN69" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="70" spans="40:40">
       <c r="AN70" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="71" spans="40:40">
       <c r="AN71" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="72" spans="40:40">
       <c r="AN72" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="73" spans="40:40">
       <c r="AN73" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="74" spans="40:40">
       <c r="AN74" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="75" spans="40:40">
       <c r="AN75" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="76" spans="40:40">
       <c r="AN76" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="40:40">
       <c r="AN77" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="78" spans="40:40">
       <c r="AN78" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="79" spans="40:40">
       <c r="AN79" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="80" spans="40:40">
       <c r="AN80" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="81" spans="40:40">
       <c r="AN81" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="82" spans="40:40">
       <c r="AN82" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="83" spans="40:40">
       <c r="AN83" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="84" spans="40:40">
       <c r="AN84" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="85" spans="40:40">
       <c r="AN85" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="86" spans="40:40">
       <c r="AN86" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="87" spans="40:40">
       <c r="AN87" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="88" spans="40:40">
       <c r="AN88" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="89" spans="40:40">
       <c r="AN89" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="90" spans="40:40">
       <c r="AN90" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="91" spans="40:40">
       <c r="AN91" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="92" spans="40:40">
       <c r="AN92" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="93" spans="40:40">
       <c r="AN93" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="94" spans="40:40">
       <c r="AN94" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="95" spans="40:40">
       <c r="AN95" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="96" spans="40:40">
       <c r="AN96" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="97" spans="40:40">
       <c r="AN97" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="98" spans="40:40">
       <c r="AN98" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="99" spans="40:40">
       <c r="AN99" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="100" spans="40:40">
       <c r="AN100" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="101" spans="40:40">
       <c r="AN101" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="102" spans="40:40">
       <c r="AN102" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="103" spans="40:40">
       <c r="AN103" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="104" spans="40:40">
       <c r="AN104" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="105" spans="40:40">
       <c r="AN105" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="106" spans="40:40">
       <c r="AN106" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="107" spans="40:40">
       <c r="AN107" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="108" spans="40:40">
       <c r="AN108" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="109" spans="40:40">
       <c r="AN109" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="110" spans="40:40">
       <c r="AN110" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="111" spans="40:40">
       <c r="AN111" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="112" spans="40:40">
       <c r="AN112" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="113" spans="40:40">
       <c r="AN113" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="114" spans="40:40">
       <c r="AN114" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="115" spans="40:40">
       <c r="AN115" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="116" spans="40:40">
       <c r="AN116" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="117" spans="40:40">
       <c r="AN117" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="118" spans="40:40">
       <c r="AN118" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="119" spans="40:40">
       <c r="AN119" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="120" spans="40:40">
       <c r="AN120" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="121" spans="40:40">
       <c r="AN121" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="122" spans="40:40">
       <c r="AN122" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="123" spans="40:40">
       <c r="AN123" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="124" spans="40:40">
       <c r="AN124" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="125" spans="40:40">
       <c r="AN125" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="126" spans="40:40">
       <c r="AN126" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="127" spans="40:40">
       <c r="AN127" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="128" spans="40:40">
       <c r="AN128" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="129" spans="40:40">
       <c r="AN129" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="130" spans="40:40">
       <c r="AN130" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="131" spans="40:40">
       <c r="AN131" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="132" spans="40:40">
       <c r="AN132" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="133" spans="40:40">
       <c r="AN133" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="134" spans="40:40">
       <c r="AN134" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="135" spans="40:40">
       <c r="AN135" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="136" spans="40:40">
       <c r="AN136" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="137" spans="40:40">
       <c r="AN137" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="138" spans="40:40">
       <c r="AN138" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="139" spans="40:40">
       <c r="AN139" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="140" spans="40:40">
       <c r="AN140" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="141" spans="40:40">
       <c r="AN141" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="142" spans="40:40">
       <c r="AN142" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="143" spans="40:40">
       <c r="AN143" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="144" spans="40:40">
       <c r="AN144" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="145" spans="40:40">
       <c r="AN145" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="146" spans="40:40">
       <c r="AN146" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="147" spans="40:40">
       <c r="AN147" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="148" spans="40:40">
       <c r="AN148" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="149" spans="40:40">
       <c r="AN149" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="150" spans="40:40">
       <c r="AN150" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="151" spans="40:40">
       <c r="AN151" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="152" spans="40:40">
       <c r="AN152" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="153" spans="40:40">
       <c r="AN153" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="154" spans="40:40">
       <c r="AN154" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="155" spans="40:40">
       <c r="AN155" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="156" spans="40:40">
       <c r="AN156" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="157" spans="40:40">
       <c r="AN157" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="158" spans="40:40">
       <c r="AN158" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="159" spans="40:40">
       <c r="AN159" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="160" spans="40:40">
       <c r="AN160" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="161" spans="40:40">
       <c r="AN161" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="162" spans="40:40">
       <c r="AN162" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="163" spans="40:40">
       <c r="AN163" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="164" spans="40:40">
       <c r="AN164" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="165" spans="40:40">
       <c r="AN165" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="166" spans="40:40">
       <c r="AN166" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="167" spans="40:40">
       <c r="AN167" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="168" spans="40:40">
       <c r="AN168" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="169" spans="40:40">
       <c r="AN169" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="170" spans="40:40">
       <c r="AN170" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="171" spans="40:40">
       <c r="AN171" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="172" spans="40:40">
       <c r="AN172" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="173" spans="40:40">
       <c r="AN173" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="174" spans="40:40">
       <c r="AN174" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="175" spans="40:40">
       <c r="AN175" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="176" spans="40:40">
       <c r="AN176" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="177" spans="40:40">
       <c r="AN177" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="178" spans="40:40">
       <c r="AN178" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="179" spans="40:40">
       <c r="AN179" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="180" spans="40:40">
       <c r="AN180" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="181" spans="40:40">
       <c r="AN181" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="182" spans="40:40">
       <c r="AN182" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="183" spans="40:40">
       <c r="AN183" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="184" spans="40:40">
       <c r="AN184" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="185" spans="40:40">
       <c r="AN185" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="186" spans="40:40">
       <c r="AN186" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="187" spans="40:40">
       <c r="AN187" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="188" spans="40:40">
       <c r="AN188" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="189" spans="40:40">
       <c r="AN189" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="190" spans="40:40">
       <c r="AN190" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="191" spans="40:40">
       <c r="AN191" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="192" spans="40:40">
       <c r="AN192" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="193" spans="40:40">
       <c r="AN193" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="194" spans="40:40">
       <c r="AN194" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="195" spans="40:40">
       <c r="AN195" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="196" spans="40:40">
       <c r="AN196" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="197" spans="40:40">
       <c r="AN197" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="198" spans="40:40">
       <c r="AN198" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="199" spans="40:40">
       <c r="AN199" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="200" spans="40:40">
       <c r="AN200" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="201" spans="40:40">
       <c r="AN201" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="202" spans="40:40">
       <c r="AN202" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="203" spans="40:40">
       <c r="AN203" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="204" spans="40:40">
       <c r="AN204" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="205" spans="40:40">
       <c r="AN205" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="206" spans="40:40">
       <c r="AN206" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="207" spans="40:40">
       <c r="AN207" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="208" spans="40:40">
       <c r="AN208" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="209" spans="40:40">
       <c r="AN209" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="210" spans="40:40">
       <c r="AN210" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="211" spans="40:40">
       <c r="AN211" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="212" spans="40:40">
       <c r="AN212" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="213" spans="40:40">
       <c r="AN213" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="214" spans="40:40">
       <c r="AN214" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="215" spans="40:40">
       <c r="AN215" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="216" spans="40:40">
       <c r="AN216" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="217" spans="40:40">
       <c r="AN217" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="218" spans="40:40">
       <c r="AN218" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="219" spans="40:40">
       <c r="AN219" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="220" spans="40:40">
       <c r="AN220" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="221" spans="40:40">
       <c r="AN221" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="222" spans="40:40">
       <c r="AN222" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="223" spans="40:40">
       <c r="AN223" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="224" spans="40:40">
       <c r="AN224" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="225" spans="40:40">
       <c r="AN225" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="226" spans="40:40">
       <c r="AN226" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="227" spans="40:40">
       <c r="AN227" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="228" spans="40:40">
       <c r="AN228" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="229" spans="40:40">
       <c r="AN229" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="230" spans="40:40">
       <c r="AN230" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="231" spans="40:40">
       <c r="AN231" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="232" spans="40:40">
       <c r="AN232" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="233" spans="40:40">
       <c r="AN233" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="234" spans="40:40">
       <c r="AN234" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="235" spans="40:40">
       <c r="AN235" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="236" spans="40:40">
       <c r="AN236" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="237" spans="40:40">
       <c r="AN237" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="238" spans="40:40">
       <c r="AN238" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="239" spans="40:40">
       <c r="AN239" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="240" spans="40:40">
       <c r="AN240" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="241" spans="40:40">
       <c r="AN241" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="242" spans="40:40">
       <c r="AN242" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="243" spans="40:40">
       <c r="AN243" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="244" spans="40:40">
       <c r="AN244" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="245" spans="40:40">
       <c r="AN245" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="246" spans="40:40">
       <c r="AN246" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="247" spans="40:40">
       <c r="AN247" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="248" spans="40:40">
       <c r="AN248" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="249" spans="40:40">
       <c r="AN249" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="250" spans="40:40">
       <c r="AN250" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="251" spans="40:40">
       <c r="AN251" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="252" spans="40:40">
       <c r="AN252" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="253" spans="40:40">
       <c r="AN253" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="254" spans="40:40">
       <c r="AN254" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="255" spans="40:40">
       <c r="AN255" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="256" spans="40:40">
       <c r="AN256" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="257" spans="40:40">
       <c r="AN257" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="258" spans="40:40">
       <c r="AN258" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="259" spans="40:40">
       <c r="AN259" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="260" spans="40:40">
       <c r="AN260" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="261" spans="40:40">
       <c r="AN261" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="262" spans="40:40">
       <c r="AN262" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="263" spans="40:40">
       <c r="AN263" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="264" spans="40:40">
       <c r="AN264" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="265" spans="40:40">
       <c r="AN265" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="266" spans="40:40">
       <c r="AN266" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="267" spans="40:40">
       <c r="AN267" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="268" spans="40:40">
       <c r="AN268" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="269" spans="40:40">
       <c r="AN269" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="270" spans="40:40">
       <c r="AN270" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="271" spans="40:40">
       <c r="AN271" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="272" spans="40:40">
       <c r="AN272" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="273" spans="40:40">
       <c r="AN273" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="274" spans="40:40">
       <c r="AN274" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="275" spans="40:40">
       <c r="AN275" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="276" spans="40:40">
       <c r="AN276" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="277" spans="40:40">
       <c r="AN277" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="278" spans="40:40">
       <c r="AN278" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="279" spans="40:40">
       <c r="AN279" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="280" spans="40:40">
       <c r="AN280" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="281" spans="40:40">
       <c r="AN281" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="282" spans="40:40">
       <c r="AN282" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="283" spans="40:40">
       <c r="AN283" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="284" spans="40:40">
       <c r="AN284" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="285" spans="40:40">
       <c r="AN285" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="286" spans="40:40">
       <c r="AN286" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="287" spans="40:40">
       <c r="AN287" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="288" spans="40:40">
       <c r="AN288" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000049/metadata_template_ERC000049.xlsx
+++ b/templates/ERC000049/metadata_template_ERC000049.xlsx
@@ -123,7 +123,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -141,7 +141,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000049/metadata_template_ERC000049.xlsx
+++ b/templates/ERC000049/metadata_template_ERC000049.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="detectiontype">'cv_sample'!$AE$1:$AE$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AN$1:$AN$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AW$1:$AW$289</definedName>
     <definedName name="hostpredictionapproach">'cv_sample'!$AZ$1:$AZ$7</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="756">
   <si>
     <t>alias</t>
   </si>
@@ -1155,6 +1155,60 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
+    <t>geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
+    <t>broad-scale environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>local environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>environmental medium</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
+  </si>
+  <si>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>size fraction selected</t>
+  </si>
+  <si>
+    <t>(Optional) Filtering pore size used in sample preparation e.g. 0-0.22 micrometer</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -1983,6 +2037,9 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -2023,60 +2080,6 @@
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
-  </si>
-  <si>
-    <t>broad-scale environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>local environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>environmental medium</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
-  </si>
-  <si>
-    <t>elevation</t>
-  </si>
-  <si>
-    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
-  </si>
-  <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>size fraction selected</t>
-  </si>
-  <si>
-    <t>(Optional) Filtering pore size used in sample preparation e.g. 0-0.22 micrometer</t>
   </si>
   <si>
     <t>host scientific name</t>
@@ -3949,109 +3952,109 @@
         <v>368</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>658</v>
+        <v>370</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>660</v>
+        <v>372</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>662</v>
+        <v>374</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>664</v>
+        <v>376</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>666</v>
+        <v>378</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>668</v>
+        <v>380</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>670</v>
+        <v>382</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>672</v>
+        <v>384</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>674</v>
+        <v>386</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="2" spans="1:74" ht="150" customHeight="1">
@@ -4173,109 +4176,109 @@
         <v>369</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>659</v>
+        <v>371</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>661</v>
+        <v>373</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>663</v>
+        <v>375</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>665</v>
+        <v>377</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>667</v>
+        <v>379</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>669</v>
+        <v>381</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>671</v>
+        <v>383</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>673</v>
+        <v>385</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>675</v>
+        <v>387</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
   </sheetData>
@@ -4301,7 +4304,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ3:AJ101">
       <formula1>UViGassemblyquality</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN3:AN101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW3:AW101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ3:AZ101">
@@ -4326,7 +4329,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:BT288"/>
+  <dimension ref="E1:BT289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4354,23 +4357,23 @@
       <c r="AJ1" t="s">
         <v>359</v>
       </c>
-      <c r="AN1" t="s">
-        <v>370</v>
+      <c r="AW1" t="s">
+        <v>388</v>
       </c>
       <c r="AZ1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="BG1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BQ1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BS1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BT1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="2" spans="5:72">
@@ -4395,23 +4398,23 @@
       <c r="AJ2" t="s">
         <v>360</v>
       </c>
-      <c r="AN2" t="s">
-        <v>371</v>
+      <c r="AW2" t="s">
+        <v>389</v>
       </c>
       <c r="AZ2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="BG2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="BQ2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BS2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BT2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="3" spans="5:72">
@@ -4430,20 +4433,20 @@
       <c r="AJ3" t="s">
         <v>361</v>
       </c>
-      <c r="AN3" t="s">
-        <v>372</v>
+      <c r="AW3" t="s">
+        <v>390</v>
       </c>
       <c r="AZ3" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="BG3" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BS3" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BT3" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="4" spans="5:72">
@@ -4456,20 +4459,20 @@
       <c r="AC4" t="s">
         <v>333</v>
       </c>
-      <c r="AN4" t="s">
-        <v>373</v>
+      <c r="AW4" t="s">
+        <v>391</v>
       </c>
       <c r="AZ4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="BG4" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BS4" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BT4" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="5" spans="5:72">
@@ -4482,17 +4485,17 @@
       <c r="AC5" t="s">
         <v>334</v>
       </c>
-      <c r="AN5" t="s">
-        <v>374</v>
+      <c r="AW5" t="s">
+        <v>392</v>
       </c>
       <c r="AZ5" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="BS5" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BT5" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="6" spans="5:72">
@@ -4502,8 +4505,8 @@
       <c r="AC6" t="s">
         <v>335</v>
       </c>
-      <c r="AN6" t="s">
-        <v>375</v>
+      <c r="AW6" t="s">
+        <v>393</v>
       </c>
       <c r="AZ6" t="s">
         <v>116</v>
@@ -4512,7 +4515,7 @@
         <v>116</v>
       </c>
       <c r="BT6" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="7" spans="5:72">
@@ -4522,14 +4525,14 @@
       <c r="AC7" t="s">
         <v>336</v>
       </c>
-      <c r="AN7" t="s">
-        <v>376</v>
+      <c r="AW7" t="s">
+        <v>394</v>
       </c>
       <c r="AZ7" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="BT7" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="8" spans="5:72">
@@ -4539,11 +4542,11 @@
       <c r="AC8" t="s">
         <v>337</v>
       </c>
-      <c r="AN8" t="s">
-        <v>377</v>
+      <c r="AW8" t="s">
+        <v>395</v>
       </c>
       <c r="BT8" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="9" spans="5:72">
@@ -4553,8 +4556,8 @@
       <c r="AC9" t="s">
         <v>338</v>
       </c>
-      <c r="AN9" t="s">
-        <v>378</v>
+      <c r="AW9" t="s">
+        <v>396</v>
       </c>
       <c r="BT9" t="s">
         <v>116</v>
@@ -4567,1407 +4570,1412 @@
       <c r="AC10" t="s">
         <v>339</v>
       </c>
-      <c r="AN10" t="s">
-        <v>379</v>
+      <c r="AW10" t="s">
+        <v>397</v>
       </c>
       <c r="BT10" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="11" spans="5:72">
-      <c r="AN11" t="s">
-        <v>380</v>
+      <c r="AW11" t="s">
+        <v>398</v>
       </c>
       <c r="BT11" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="12" spans="5:72">
-      <c r="AN12" t="s">
-        <v>381</v>
+      <c r="AW12" t="s">
+        <v>399</v>
       </c>
       <c r="BT12" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="13" spans="5:72">
-      <c r="AN13" t="s">
-        <v>382</v>
+      <c r="AW13" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="5:72">
-      <c r="AN14" t="s">
-        <v>383</v>
+      <c r="AW14" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="5:72">
-      <c r="AN15" t="s">
-        <v>384</v>
+      <c r="AW15" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="5:72">
-      <c r="AN16" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="17" spans="40:40">
-      <c r="AN17" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="18" spans="40:40">
-      <c r="AN18" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="19" spans="40:40">
-      <c r="AN19" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="20" spans="40:40">
-      <c r="AN20" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="21" spans="40:40">
-      <c r="AN21" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="22" spans="40:40">
-      <c r="AN22" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="23" spans="40:40">
-      <c r="AN23" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="24" spans="40:40">
-      <c r="AN24" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="25" spans="40:40">
-      <c r="AN25" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="26" spans="40:40">
-      <c r="AN26" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="27" spans="40:40">
-      <c r="AN27" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="28" spans="40:40">
-      <c r="AN28" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="29" spans="40:40">
-      <c r="AN29" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="30" spans="40:40">
-      <c r="AN30" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="31" spans="40:40">
-      <c r="AN31" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="32" spans="40:40">
-      <c r="AN32" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="33" spans="40:40">
-      <c r="AN33" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="34" spans="40:40">
-      <c r="AN34" t="s">
+      <c r="AW16" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="35" spans="40:40">
-      <c r="AN35" t="s">
+    <row r="17" spans="49:49">
+      <c r="AW17" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="36" spans="40:40">
-      <c r="AN36" t="s">
+    <row r="18" spans="49:49">
+      <c r="AW18" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="37" spans="40:40">
-      <c r="AN37" t="s">
+    <row r="19" spans="49:49">
+      <c r="AW19" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="38" spans="40:40">
-      <c r="AN38" t="s">
+    <row r="20" spans="49:49">
+      <c r="AW20" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="39" spans="40:40">
-      <c r="AN39" t="s">
+    <row r="21" spans="49:49">
+      <c r="AW21" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="40" spans="40:40">
-      <c r="AN40" t="s">
+    <row r="22" spans="49:49">
+      <c r="AW22" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="41" spans="40:40">
-      <c r="AN41" t="s">
+    <row r="23" spans="49:49">
+      <c r="AW23" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="42" spans="40:40">
-      <c r="AN42" t="s">
+    <row r="24" spans="49:49">
+      <c r="AW24" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="40:40">
-      <c r="AN43" t="s">
+    <row r="25" spans="49:49">
+      <c r="AW25" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="44" spans="40:40">
-      <c r="AN44" t="s">
+    <row r="26" spans="49:49">
+      <c r="AW26" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="45" spans="40:40">
-      <c r="AN45" t="s">
+    <row r="27" spans="49:49">
+      <c r="AW27" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="46" spans="40:40">
-      <c r="AN46" t="s">
+    <row r="28" spans="49:49">
+      <c r="AW28" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="47" spans="40:40">
-      <c r="AN47" t="s">
+    <row r="29" spans="49:49">
+      <c r="AW29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="48" spans="40:40">
-      <c r="AN48" t="s">
+    <row r="30" spans="49:49">
+      <c r="AW30" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="49" spans="40:40">
-      <c r="AN49" t="s">
+    <row r="31" spans="49:49">
+      <c r="AW31" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="50" spans="40:40">
-      <c r="AN50" t="s">
+    <row r="32" spans="49:49">
+      <c r="AW32" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="51" spans="40:40">
-      <c r="AN51" t="s">
+    <row r="33" spans="49:49">
+      <c r="AW33" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="52" spans="40:40">
-      <c r="AN52" t="s">
+    <row r="34" spans="49:49">
+      <c r="AW34" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="53" spans="40:40">
-      <c r="AN53" t="s">
+    <row r="35" spans="49:49">
+      <c r="AW35" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="54" spans="40:40">
-      <c r="AN54" t="s">
+    <row r="36" spans="49:49">
+      <c r="AW36" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="55" spans="40:40">
-      <c r="AN55" t="s">
+    <row r="37" spans="49:49">
+      <c r="AW37" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="56" spans="40:40">
-      <c r="AN56" t="s">
+    <row r="38" spans="49:49">
+      <c r="AW38" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="57" spans="40:40">
-      <c r="AN57" t="s">
+    <row r="39" spans="49:49">
+      <c r="AW39" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="58" spans="40:40">
-      <c r="AN58" t="s">
+    <row r="40" spans="49:49">
+      <c r="AW40" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="59" spans="40:40">
-      <c r="AN59" t="s">
+    <row r="41" spans="49:49">
+      <c r="AW41" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="60" spans="40:40">
-      <c r="AN60" t="s">
+    <row r="42" spans="49:49">
+      <c r="AW42" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="61" spans="40:40">
-      <c r="AN61" t="s">
+    <row r="43" spans="49:49">
+      <c r="AW43" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="62" spans="40:40">
-      <c r="AN62" t="s">
+    <row r="44" spans="49:49">
+      <c r="AW44" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="63" spans="40:40">
-      <c r="AN63" t="s">
+    <row r="45" spans="49:49">
+      <c r="AW45" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="64" spans="40:40">
-      <c r="AN64" t="s">
+    <row r="46" spans="49:49">
+      <c r="AW46" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="65" spans="40:40">
-      <c r="AN65" t="s">
+    <row r="47" spans="49:49">
+      <c r="AW47" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="66" spans="40:40">
-      <c r="AN66" t="s">
+    <row r="48" spans="49:49">
+      <c r="AW48" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="67" spans="40:40">
-      <c r="AN67" t="s">
+    <row r="49" spans="49:49">
+      <c r="AW49" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="68" spans="40:40">
-      <c r="AN68" t="s">
+    <row r="50" spans="49:49">
+      <c r="AW50" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="69" spans="40:40">
-      <c r="AN69" t="s">
+    <row r="51" spans="49:49">
+      <c r="AW51" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="70" spans="40:40">
-      <c r="AN70" t="s">
+    <row r="52" spans="49:49">
+      <c r="AW52" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="71" spans="40:40">
-      <c r="AN71" t="s">
+    <row r="53" spans="49:49">
+      <c r="AW53" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="72" spans="40:40">
-      <c r="AN72" t="s">
+    <row r="54" spans="49:49">
+      <c r="AW54" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="73" spans="40:40">
-      <c r="AN73" t="s">
+    <row r="55" spans="49:49">
+      <c r="AW55" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="74" spans="40:40">
-      <c r="AN74" t="s">
+    <row r="56" spans="49:49">
+      <c r="AW56" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="75" spans="40:40">
-      <c r="AN75" t="s">
+    <row r="57" spans="49:49">
+      <c r="AW57" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="76" spans="40:40">
-      <c r="AN76" t="s">
+    <row r="58" spans="49:49">
+      <c r="AW58" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="77" spans="40:40">
-      <c r="AN77" t="s">
+    <row r="59" spans="49:49">
+      <c r="AW59" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="78" spans="40:40">
-      <c r="AN78" t="s">
+    <row r="60" spans="49:49">
+      <c r="AW60" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="79" spans="40:40">
-      <c r="AN79" t="s">
+    <row r="61" spans="49:49">
+      <c r="AW61" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="80" spans="40:40">
-      <c r="AN80" t="s">
+    <row r="62" spans="49:49">
+      <c r="AW62" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="81" spans="40:40">
-      <c r="AN81" t="s">
+    <row r="63" spans="49:49">
+      <c r="AW63" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="82" spans="40:40">
-      <c r="AN82" t="s">
+    <row r="64" spans="49:49">
+      <c r="AW64" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="83" spans="40:40">
-      <c r="AN83" t="s">
+    <row r="65" spans="49:49">
+      <c r="AW65" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="84" spans="40:40">
-      <c r="AN84" t="s">
+    <row r="66" spans="49:49">
+      <c r="AW66" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="85" spans="40:40">
-      <c r="AN85" t="s">
+    <row r="67" spans="49:49">
+      <c r="AW67" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="86" spans="40:40">
-      <c r="AN86" t="s">
+    <row r="68" spans="49:49">
+      <c r="AW68" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="87" spans="40:40">
-      <c r="AN87" t="s">
+    <row r="69" spans="49:49">
+      <c r="AW69" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="88" spans="40:40">
-      <c r="AN88" t="s">
+    <row r="70" spans="49:49">
+      <c r="AW70" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="89" spans="40:40">
-      <c r="AN89" t="s">
+    <row r="71" spans="49:49">
+      <c r="AW71" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="90" spans="40:40">
-      <c r="AN90" t="s">
+    <row r="72" spans="49:49">
+      <c r="AW72" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="91" spans="40:40">
-      <c r="AN91" t="s">
+    <row r="73" spans="49:49">
+      <c r="AW73" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="92" spans="40:40">
-      <c r="AN92" t="s">
+    <row r="74" spans="49:49">
+      <c r="AW74" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="93" spans="40:40">
-      <c r="AN93" t="s">
+    <row r="75" spans="49:49">
+      <c r="AW75" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="94" spans="40:40">
-      <c r="AN94" t="s">
+    <row r="76" spans="49:49">
+      <c r="AW76" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="95" spans="40:40">
-      <c r="AN95" t="s">
+    <row r="77" spans="49:49">
+      <c r="AW77" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="96" spans="40:40">
-      <c r="AN96" t="s">
+    <row r="78" spans="49:49">
+      <c r="AW78" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="97" spans="40:40">
-      <c r="AN97" t="s">
+    <row r="79" spans="49:49">
+      <c r="AW79" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="98" spans="40:40">
-      <c r="AN98" t="s">
+    <row r="80" spans="49:49">
+      <c r="AW80" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="99" spans="40:40">
-      <c r="AN99" t="s">
+    <row r="81" spans="49:49">
+      <c r="AW81" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="100" spans="40:40">
-      <c r="AN100" t="s">
+    <row r="82" spans="49:49">
+      <c r="AW82" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="101" spans="40:40">
-      <c r="AN101" t="s">
+    <row r="83" spans="49:49">
+      <c r="AW83" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="102" spans="40:40">
-      <c r="AN102" t="s">
+    <row r="84" spans="49:49">
+      <c r="AW84" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="103" spans="40:40">
-      <c r="AN103" t="s">
+    <row r="85" spans="49:49">
+      <c r="AW85" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="104" spans="40:40">
-      <c r="AN104" t="s">
+    <row r="86" spans="49:49">
+      <c r="AW86" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="105" spans="40:40">
-      <c r="AN105" t="s">
+    <row r="87" spans="49:49">
+      <c r="AW87" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="106" spans="40:40">
-      <c r="AN106" t="s">
+    <row r="88" spans="49:49">
+      <c r="AW88" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="107" spans="40:40">
-      <c r="AN107" t="s">
+    <row r="89" spans="49:49">
+      <c r="AW89" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="108" spans="40:40">
-      <c r="AN108" t="s">
+    <row r="90" spans="49:49">
+      <c r="AW90" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="109" spans="40:40">
-      <c r="AN109" t="s">
+    <row r="91" spans="49:49">
+      <c r="AW91" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="110" spans="40:40">
-      <c r="AN110" t="s">
+    <row r="92" spans="49:49">
+      <c r="AW92" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="111" spans="40:40">
-      <c r="AN111" t="s">
+    <row r="93" spans="49:49">
+      <c r="AW93" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="112" spans="40:40">
-      <c r="AN112" t="s">
+    <row r="94" spans="49:49">
+      <c r="AW94" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="113" spans="40:40">
-      <c r="AN113" t="s">
+    <row r="95" spans="49:49">
+      <c r="AW95" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="114" spans="40:40">
-      <c r="AN114" t="s">
+    <row r="96" spans="49:49">
+      <c r="AW96" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="115" spans="40:40">
-      <c r="AN115" t="s">
+    <row r="97" spans="49:49">
+      <c r="AW97" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="116" spans="40:40">
-      <c r="AN116" t="s">
+    <row r="98" spans="49:49">
+      <c r="AW98" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="117" spans="40:40">
-      <c r="AN117" t="s">
+    <row r="99" spans="49:49">
+      <c r="AW99" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="118" spans="40:40">
-      <c r="AN118" t="s">
+    <row r="100" spans="49:49">
+      <c r="AW100" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="119" spans="40:40">
-      <c r="AN119" t="s">
+    <row r="101" spans="49:49">
+      <c r="AW101" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="120" spans="40:40">
-      <c r="AN120" t="s">
+    <row r="102" spans="49:49">
+      <c r="AW102" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="121" spans="40:40">
-      <c r="AN121" t="s">
+    <row r="103" spans="49:49">
+      <c r="AW103" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="122" spans="40:40">
-      <c r="AN122" t="s">
+    <row r="104" spans="49:49">
+      <c r="AW104" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="123" spans="40:40">
-      <c r="AN123" t="s">
+    <row r="105" spans="49:49">
+      <c r="AW105" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="124" spans="40:40">
-      <c r="AN124" t="s">
+    <row r="106" spans="49:49">
+      <c r="AW106" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="125" spans="40:40">
-      <c r="AN125" t="s">
+    <row r="107" spans="49:49">
+      <c r="AW107" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="126" spans="40:40">
-      <c r="AN126" t="s">
+    <row r="108" spans="49:49">
+      <c r="AW108" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="127" spans="40:40">
-      <c r="AN127" t="s">
+    <row r="109" spans="49:49">
+      <c r="AW109" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="128" spans="40:40">
-      <c r="AN128" t="s">
+    <row r="110" spans="49:49">
+      <c r="AW110" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="129" spans="40:40">
-      <c r="AN129" t="s">
+    <row r="111" spans="49:49">
+      <c r="AW111" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="130" spans="40:40">
-      <c r="AN130" t="s">
+    <row r="112" spans="49:49">
+      <c r="AW112" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="131" spans="40:40">
-      <c r="AN131" t="s">
+    <row r="113" spans="49:49">
+      <c r="AW113" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="132" spans="40:40">
-      <c r="AN132" t="s">
+    <row r="114" spans="49:49">
+      <c r="AW114" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="133" spans="40:40">
-      <c r="AN133" t="s">
+    <row r="115" spans="49:49">
+      <c r="AW115" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="134" spans="40:40">
-      <c r="AN134" t="s">
+    <row r="116" spans="49:49">
+      <c r="AW116" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="135" spans="40:40">
-      <c r="AN135" t="s">
+    <row r="117" spans="49:49">
+      <c r="AW117" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="136" spans="40:40">
-      <c r="AN136" t="s">
+    <row r="118" spans="49:49">
+      <c r="AW118" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="137" spans="40:40">
-      <c r="AN137" t="s">
+    <row r="119" spans="49:49">
+      <c r="AW119" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="138" spans="40:40">
-      <c r="AN138" t="s">
+    <row r="120" spans="49:49">
+      <c r="AW120" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="139" spans="40:40">
-      <c r="AN139" t="s">
+    <row r="121" spans="49:49">
+      <c r="AW121" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="140" spans="40:40">
-      <c r="AN140" t="s">
+    <row r="122" spans="49:49">
+      <c r="AW122" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="141" spans="40:40">
-      <c r="AN141" t="s">
+    <row r="123" spans="49:49">
+      <c r="AW123" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="142" spans="40:40">
-      <c r="AN142" t="s">
+    <row r="124" spans="49:49">
+      <c r="AW124" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="143" spans="40:40">
-      <c r="AN143" t="s">
+    <row r="125" spans="49:49">
+      <c r="AW125" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="144" spans="40:40">
-      <c r="AN144" t="s">
+    <row r="126" spans="49:49">
+      <c r="AW126" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="145" spans="40:40">
-      <c r="AN145" t="s">
+    <row r="127" spans="49:49">
+      <c r="AW127" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="146" spans="40:40">
-      <c r="AN146" t="s">
+    <row r="128" spans="49:49">
+      <c r="AW128" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="147" spans="40:40">
-      <c r="AN147" t="s">
+    <row r="129" spans="49:49">
+      <c r="AW129" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="148" spans="40:40">
-      <c r="AN148" t="s">
+    <row r="130" spans="49:49">
+      <c r="AW130" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="149" spans="40:40">
-      <c r="AN149" t="s">
+    <row r="131" spans="49:49">
+      <c r="AW131" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="150" spans="40:40">
-      <c r="AN150" t="s">
+    <row r="132" spans="49:49">
+      <c r="AW132" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="151" spans="40:40">
-      <c r="AN151" t="s">
+    <row r="133" spans="49:49">
+      <c r="AW133" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="152" spans="40:40">
-      <c r="AN152" t="s">
+    <row r="134" spans="49:49">
+      <c r="AW134" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="153" spans="40:40">
-      <c r="AN153" t="s">
+    <row r="135" spans="49:49">
+      <c r="AW135" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="154" spans="40:40">
-      <c r="AN154" t="s">
+    <row r="136" spans="49:49">
+      <c r="AW136" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="155" spans="40:40">
-      <c r="AN155" t="s">
+    <row r="137" spans="49:49">
+      <c r="AW137" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="156" spans="40:40">
-      <c r="AN156" t="s">
+    <row r="138" spans="49:49">
+      <c r="AW138" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="157" spans="40:40">
-      <c r="AN157" t="s">
+    <row r="139" spans="49:49">
+      <c r="AW139" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="158" spans="40:40">
-      <c r="AN158" t="s">
+    <row r="140" spans="49:49">
+      <c r="AW140" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="159" spans="40:40">
-      <c r="AN159" t="s">
+    <row r="141" spans="49:49">
+      <c r="AW141" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="160" spans="40:40">
-      <c r="AN160" t="s">
+    <row r="142" spans="49:49">
+      <c r="AW142" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="161" spans="40:40">
-      <c r="AN161" t="s">
+    <row r="143" spans="49:49">
+      <c r="AW143" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="162" spans="40:40">
-      <c r="AN162" t="s">
+    <row r="144" spans="49:49">
+      <c r="AW144" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="163" spans="40:40">
-      <c r="AN163" t="s">
+    <row r="145" spans="49:49">
+      <c r="AW145" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="164" spans="40:40">
-      <c r="AN164" t="s">
+    <row r="146" spans="49:49">
+      <c r="AW146" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="165" spans="40:40">
-      <c r="AN165" t="s">
+    <row r="147" spans="49:49">
+      <c r="AW147" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="166" spans="40:40">
-      <c r="AN166" t="s">
+    <row r="148" spans="49:49">
+      <c r="AW148" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="167" spans="40:40">
-      <c r="AN167" t="s">
+    <row r="149" spans="49:49">
+      <c r="AW149" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="168" spans="40:40">
-      <c r="AN168" t="s">
+    <row r="150" spans="49:49">
+      <c r="AW150" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="169" spans="40:40">
-      <c r="AN169" t="s">
+    <row r="151" spans="49:49">
+      <c r="AW151" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="170" spans="40:40">
-      <c r="AN170" t="s">
+    <row r="152" spans="49:49">
+      <c r="AW152" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="171" spans="40:40">
-      <c r="AN171" t="s">
+    <row r="153" spans="49:49">
+      <c r="AW153" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="172" spans="40:40">
-      <c r="AN172" t="s">
+    <row r="154" spans="49:49">
+      <c r="AW154" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="173" spans="40:40">
-      <c r="AN173" t="s">
+    <row r="155" spans="49:49">
+      <c r="AW155" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="174" spans="40:40">
-      <c r="AN174" t="s">
+    <row r="156" spans="49:49">
+      <c r="AW156" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="175" spans="40:40">
-      <c r="AN175" t="s">
+    <row r="157" spans="49:49">
+      <c r="AW157" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="176" spans="40:40">
-      <c r="AN176" t="s">
+    <row r="158" spans="49:49">
+      <c r="AW158" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="177" spans="40:40">
-      <c r="AN177" t="s">
+    <row r="159" spans="49:49">
+      <c r="AW159" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="178" spans="40:40">
-      <c r="AN178" t="s">
+    <row r="160" spans="49:49">
+      <c r="AW160" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="179" spans="40:40">
-      <c r="AN179" t="s">
+    <row r="161" spans="49:49">
+      <c r="AW161" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="180" spans="40:40">
-      <c r="AN180" t="s">
+    <row r="162" spans="49:49">
+      <c r="AW162" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="181" spans="40:40">
-      <c r="AN181" t="s">
+    <row r="163" spans="49:49">
+      <c r="AW163" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="182" spans="40:40">
-      <c r="AN182" t="s">
+    <row r="164" spans="49:49">
+      <c r="AW164" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="183" spans="40:40">
-      <c r="AN183" t="s">
+    <row r="165" spans="49:49">
+      <c r="AW165" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="184" spans="40:40">
-      <c r="AN184" t="s">
+    <row r="166" spans="49:49">
+      <c r="AW166" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="185" spans="40:40">
-      <c r="AN185" t="s">
+    <row r="167" spans="49:49">
+      <c r="AW167" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="186" spans="40:40">
-      <c r="AN186" t="s">
+    <row r="168" spans="49:49">
+      <c r="AW168" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="187" spans="40:40">
-      <c r="AN187" t="s">
+    <row r="169" spans="49:49">
+      <c r="AW169" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="188" spans="40:40">
-      <c r="AN188" t="s">
+    <row r="170" spans="49:49">
+      <c r="AW170" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="189" spans="40:40">
-      <c r="AN189" t="s">
+    <row r="171" spans="49:49">
+      <c r="AW171" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="190" spans="40:40">
-      <c r="AN190" t="s">
+    <row r="172" spans="49:49">
+      <c r="AW172" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="191" spans="40:40">
-      <c r="AN191" t="s">
+    <row r="173" spans="49:49">
+      <c r="AW173" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="192" spans="40:40">
-      <c r="AN192" t="s">
+    <row r="174" spans="49:49">
+      <c r="AW174" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="193" spans="40:40">
-      <c r="AN193" t="s">
+    <row r="175" spans="49:49">
+      <c r="AW175" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="194" spans="40:40">
-      <c r="AN194" t="s">
+    <row r="176" spans="49:49">
+      <c r="AW176" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="195" spans="40:40">
-      <c r="AN195" t="s">
+    <row r="177" spans="49:49">
+      <c r="AW177" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="196" spans="40:40">
-      <c r="AN196" t="s">
+    <row r="178" spans="49:49">
+      <c r="AW178" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="197" spans="40:40">
-      <c r="AN197" t="s">
+    <row r="179" spans="49:49">
+      <c r="AW179" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="198" spans="40:40">
-      <c r="AN198" t="s">
+    <row r="180" spans="49:49">
+      <c r="AW180" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="199" spans="40:40">
-      <c r="AN199" t="s">
+    <row r="181" spans="49:49">
+      <c r="AW181" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="200" spans="40:40">
-      <c r="AN200" t="s">
+    <row r="182" spans="49:49">
+      <c r="AW182" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="201" spans="40:40">
-      <c r="AN201" t="s">
+    <row r="183" spans="49:49">
+      <c r="AW183" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="202" spans="40:40">
-      <c r="AN202" t="s">
+    <row r="184" spans="49:49">
+      <c r="AW184" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="203" spans="40:40">
-      <c r="AN203" t="s">
+    <row r="185" spans="49:49">
+      <c r="AW185" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="204" spans="40:40">
-      <c r="AN204" t="s">
+    <row r="186" spans="49:49">
+      <c r="AW186" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="205" spans="40:40">
-      <c r="AN205" t="s">
+    <row r="187" spans="49:49">
+      <c r="AW187" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="206" spans="40:40">
-      <c r="AN206" t="s">
+    <row r="188" spans="49:49">
+      <c r="AW188" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="207" spans="40:40">
-      <c r="AN207" t="s">
+    <row r="189" spans="49:49">
+      <c r="AW189" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="208" spans="40:40">
-      <c r="AN208" t="s">
+    <row r="190" spans="49:49">
+      <c r="AW190" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="209" spans="40:40">
-      <c r="AN209" t="s">
+    <row r="191" spans="49:49">
+      <c r="AW191" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="210" spans="40:40">
-      <c r="AN210" t="s">
+    <row r="192" spans="49:49">
+      <c r="AW192" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="211" spans="40:40">
-      <c r="AN211" t="s">
+    <row r="193" spans="49:49">
+      <c r="AW193" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="212" spans="40:40">
-      <c r="AN212" t="s">
+    <row r="194" spans="49:49">
+      <c r="AW194" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="213" spans="40:40">
-      <c r="AN213" t="s">
+    <row r="195" spans="49:49">
+      <c r="AW195" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="214" spans="40:40">
-      <c r="AN214" t="s">
+    <row r="196" spans="49:49">
+      <c r="AW196" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="215" spans="40:40">
-      <c r="AN215" t="s">
+    <row r="197" spans="49:49">
+      <c r="AW197" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="216" spans="40:40">
-      <c r="AN216" t="s">
+    <row r="198" spans="49:49">
+      <c r="AW198" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="217" spans="40:40">
-      <c r="AN217" t="s">
+    <row r="199" spans="49:49">
+      <c r="AW199" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="218" spans="40:40">
-      <c r="AN218" t="s">
+    <row r="200" spans="49:49">
+      <c r="AW200" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="219" spans="40:40">
-      <c r="AN219" t="s">
+    <row r="201" spans="49:49">
+      <c r="AW201" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="220" spans="40:40">
-      <c r="AN220" t="s">
+    <row r="202" spans="49:49">
+      <c r="AW202" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="221" spans="40:40">
-      <c r="AN221" t="s">
+    <row r="203" spans="49:49">
+      <c r="AW203" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="222" spans="40:40">
-      <c r="AN222" t="s">
+    <row r="204" spans="49:49">
+      <c r="AW204" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="223" spans="40:40">
-      <c r="AN223" t="s">
+    <row r="205" spans="49:49">
+      <c r="AW205" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="224" spans="40:40">
-      <c r="AN224" t="s">
+    <row r="206" spans="49:49">
+      <c r="AW206" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="225" spans="40:40">
-      <c r="AN225" t="s">
+    <row r="207" spans="49:49">
+      <c r="AW207" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="226" spans="40:40">
-      <c r="AN226" t="s">
+    <row r="208" spans="49:49">
+      <c r="AW208" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="227" spans="40:40">
-      <c r="AN227" t="s">
+    <row r="209" spans="49:49">
+      <c r="AW209" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="228" spans="40:40">
-      <c r="AN228" t="s">
+    <row r="210" spans="49:49">
+      <c r="AW210" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="229" spans="40:40">
-      <c r="AN229" t="s">
+    <row r="211" spans="49:49">
+      <c r="AW211" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="230" spans="40:40">
-      <c r="AN230" t="s">
+    <row r="212" spans="49:49">
+      <c r="AW212" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="231" spans="40:40">
-      <c r="AN231" t="s">
+    <row r="213" spans="49:49">
+      <c r="AW213" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="232" spans="40:40">
-      <c r="AN232" t="s">
+    <row r="214" spans="49:49">
+      <c r="AW214" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="233" spans="40:40">
-      <c r="AN233" t="s">
+    <row r="215" spans="49:49">
+      <c r="AW215" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="234" spans="40:40">
-      <c r="AN234" t="s">
+    <row r="216" spans="49:49">
+      <c r="AW216" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="235" spans="40:40">
-      <c r="AN235" t="s">
+    <row r="217" spans="49:49">
+      <c r="AW217" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="236" spans="40:40">
-      <c r="AN236" t="s">
+    <row r="218" spans="49:49">
+      <c r="AW218" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="237" spans="40:40">
-      <c r="AN237" t="s">
+    <row r="219" spans="49:49">
+      <c r="AW219" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="238" spans="40:40">
-      <c r="AN238" t="s">
+    <row r="220" spans="49:49">
+      <c r="AW220" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="239" spans="40:40">
-      <c r="AN239" t="s">
+    <row r="221" spans="49:49">
+      <c r="AW221" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="240" spans="40:40">
-      <c r="AN240" t="s">
+    <row r="222" spans="49:49">
+      <c r="AW222" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="241" spans="40:40">
-      <c r="AN241" t="s">
+    <row r="223" spans="49:49">
+      <c r="AW223" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="242" spans="40:40">
-      <c r="AN242" t="s">
+    <row r="224" spans="49:49">
+      <c r="AW224" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="243" spans="40:40">
-      <c r="AN243" t="s">
+    <row r="225" spans="49:49">
+      <c r="AW225" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="244" spans="40:40">
-      <c r="AN244" t="s">
+    <row r="226" spans="49:49">
+      <c r="AW226" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="245" spans="40:40">
-      <c r="AN245" t="s">
+    <row r="227" spans="49:49">
+      <c r="AW227" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="246" spans="40:40">
-      <c r="AN246" t="s">
+    <row r="228" spans="49:49">
+      <c r="AW228" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="247" spans="40:40">
-      <c r="AN247" t="s">
+    <row r="229" spans="49:49">
+      <c r="AW229" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="248" spans="40:40">
-      <c r="AN248" t="s">
+    <row r="230" spans="49:49">
+      <c r="AW230" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="249" spans="40:40">
-      <c r="AN249" t="s">
+    <row r="231" spans="49:49">
+      <c r="AW231" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="250" spans="40:40">
-      <c r="AN250" t="s">
+    <row r="232" spans="49:49">
+      <c r="AW232" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="251" spans="40:40">
-      <c r="AN251" t="s">
+    <row r="233" spans="49:49">
+      <c r="AW233" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="252" spans="40:40">
-      <c r="AN252" t="s">
+    <row r="234" spans="49:49">
+      <c r="AW234" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="253" spans="40:40">
-      <c r="AN253" t="s">
+    <row r="235" spans="49:49">
+      <c r="AW235" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="254" spans="40:40">
-      <c r="AN254" t="s">
+    <row r="236" spans="49:49">
+      <c r="AW236" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="255" spans="40:40">
-      <c r="AN255" t="s">
+    <row r="237" spans="49:49">
+      <c r="AW237" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="256" spans="40:40">
-      <c r="AN256" t="s">
+    <row r="238" spans="49:49">
+      <c r="AW238" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="257" spans="40:40">
-      <c r="AN257" t="s">
+    <row r="239" spans="49:49">
+      <c r="AW239" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="258" spans="40:40">
-      <c r="AN258" t="s">
+    <row r="240" spans="49:49">
+      <c r="AW240" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="259" spans="40:40">
-      <c r="AN259" t="s">
+    <row r="241" spans="49:49">
+      <c r="AW241" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="260" spans="40:40">
-      <c r="AN260" t="s">
+    <row r="242" spans="49:49">
+      <c r="AW242" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="261" spans="40:40">
-      <c r="AN261" t="s">
+    <row r="243" spans="49:49">
+      <c r="AW243" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="262" spans="40:40">
-      <c r="AN262" t="s">
+    <row r="244" spans="49:49">
+      <c r="AW244" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="263" spans="40:40">
-      <c r="AN263" t="s">
+    <row r="245" spans="49:49">
+      <c r="AW245" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="264" spans="40:40">
-      <c r="AN264" t="s">
+    <row r="246" spans="49:49">
+      <c r="AW246" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="265" spans="40:40">
-      <c r="AN265" t="s">
+    <row r="247" spans="49:49">
+      <c r="AW247" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="266" spans="40:40">
-      <c r="AN266" t="s">
+    <row r="248" spans="49:49">
+      <c r="AW248" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="267" spans="40:40">
-      <c r="AN267" t="s">
+    <row r="249" spans="49:49">
+      <c r="AW249" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="268" spans="40:40">
-      <c r="AN268" t="s">
+    <row r="250" spans="49:49">
+      <c r="AW250" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="269" spans="40:40">
-      <c r="AN269" t="s">
+    <row r="251" spans="49:49">
+      <c r="AW251" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="270" spans="40:40">
-      <c r="AN270" t="s">
+    <row r="252" spans="49:49">
+      <c r="AW252" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="271" spans="40:40">
-      <c r="AN271" t="s">
+    <row r="253" spans="49:49">
+      <c r="AW253" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="272" spans="40:40">
-      <c r="AN272" t="s">
+    <row r="254" spans="49:49">
+      <c r="AW254" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="273" spans="40:40">
-      <c r="AN273" t="s">
+    <row r="255" spans="49:49">
+      <c r="AW255" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="274" spans="40:40">
-      <c r="AN274" t="s">
+    <row r="256" spans="49:49">
+      <c r="AW256" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="275" spans="40:40">
-      <c r="AN275" t="s">
+    <row r="257" spans="49:49">
+      <c r="AW257" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="276" spans="40:40">
-      <c r="AN276" t="s">
+    <row r="258" spans="49:49">
+      <c r="AW258" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="277" spans="40:40">
-      <c r="AN277" t="s">
+    <row r="259" spans="49:49">
+      <c r="AW259" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="278" spans="40:40">
-      <c r="AN278" t="s">
+    <row r="260" spans="49:49">
+      <c r="AW260" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="279" spans="40:40">
-      <c r="AN279" t="s">
+    <row r="261" spans="49:49">
+      <c r="AW261" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="280" spans="40:40">
-      <c r="AN280" t="s">
+    <row r="262" spans="49:49">
+      <c r="AW262" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="281" spans="40:40">
-      <c r="AN281" t="s">
+    <row r="263" spans="49:49">
+      <c r="AW263" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="282" spans="40:40">
-      <c r="AN282" t="s">
+    <row r="264" spans="49:49">
+      <c r="AW264" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="283" spans="40:40">
-      <c r="AN283" t="s">
+    <row r="265" spans="49:49">
+      <c r="AW265" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="284" spans="40:40">
-      <c r="AN284" t="s">
+    <row r="266" spans="49:49">
+      <c r="AW266" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="285" spans="40:40">
-      <c r="AN285" t="s">
+    <row r="267" spans="49:49">
+      <c r="AW267" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="286" spans="40:40">
-      <c r="AN286" t="s">
+    <row r="268" spans="49:49">
+      <c r="AW268" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="287" spans="40:40">
-      <c r="AN287" t="s">
+    <row r="269" spans="49:49">
+      <c r="AW269" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="288" spans="40:40">
-      <c r="AN288" t="s">
+    <row r="270" spans="49:49">
+      <c r="AW270" t="s">
         <v>657</v>
+      </c>
+    </row>
+    <row r="271" spans="49:49">
+      <c r="AW271" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="272" spans="49:49">
+      <c r="AW272" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="273" spans="49:49">
+      <c r="AW273" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="274" spans="49:49">
+      <c r="AW274" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="275" spans="49:49">
+      <c r="AW275" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="276" spans="49:49">
+      <c r="AW276" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="277" spans="49:49">
+      <c r="AW277" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="278" spans="49:49">
+      <c r="AW278" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="279" spans="49:49">
+      <c r="AW279" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="280" spans="49:49">
+      <c r="AW280" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="281" spans="49:49">
+      <c r="AW281" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="282" spans="49:49">
+      <c r="AW282" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="283" spans="49:49">
+      <c r="AW283" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="284" spans="49:49">
+      <c r="AW284" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="285" spans="49:49">
+      <c r="AW285" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="286" spans="49:49">
+      <c r="AW286" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="287" spans="49:49">
+      <c r="AW287" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="288" spans="49:49">
+      <c r="AW288" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="289" spans="49:49">
+      <c r="AW289" t="s">
+        <v>676</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000049/metadata_template_ERC000049.xlsx
+++ b/templates/ERC000049/metadata_template_ERC000049.xlsx
@@ -21,7 +21,7 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AW$1:$AW$289</definedName>
     <definedName name="hostpredictionapproach">'cv_sample'!$AZ$1:$AZ$7</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="757">
   <si>
     <t>alias</t>
   </si>
@@ -646,6 +646,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -2849,7 +2852,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2893,7 +2896,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2920,7 +2923,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3632,6 +3635,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3656,27 +3664,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3699,122 +3707,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3841,444 +3849,444 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="2" spans="1:74" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
   </sheetData>
@@ -4337,176 +4345,176 @@
   <sheetData>
     <row r="1" spans="5:72">
       <c r="E1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="X1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AB1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AD1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AE1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AJ1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AW1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AZ1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="BG1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BQ1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BS1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BT1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="2" spans="5:72">
       <c r="E2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="X2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AB2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AD2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AE2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AJ2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AW2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AZ2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="BG2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="BQ2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BS2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BT2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="3" spans="5:72">
       <c r="E3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AB3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AC3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AD3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AJ3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AW3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AZ3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="BG3" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BS3" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BT3" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="4" spans="5:72">
       <c r="E4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AB4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AC4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AW4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AZ4" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="BG4" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BS4" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BT4" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="5" spans="5:72">
       <c r="E5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AB5" t="s">
         <v>116</v>
       </c>
       <c r="AC5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AW5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AZ5" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="BS5" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BT5" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="6" spans="5:72">
       <c r="AB6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AC6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AW6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AZ6" t="s">
         <v>116</v>
@@ -4515,49 +4523,49 @@
         <v>116</v>
       </c>
       <c r="BT6" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="7" spans="5:72">
       <c r="AB7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AC7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AW7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AZ7" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="BT7" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="8" spans="5:72">
       <c r="AB8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AW8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="BT8" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="9" spans="5:72">
       <c r="AB9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AC9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AW9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="BT9" t="s">
         <v>116</v>
@@ -4565,1417 +4573,1417 @@
     </row>
     <row r="10" spans="5:72">
       <c r="AB10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AC10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AW10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="BT10" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="11" spans="5:72">
       <c r="AW11" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="BT11" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="12" spans="5:72">
       <c r="AW12" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="BT12" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="13" spans="5:72">
       <c r="AW13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="5:72">
       <c r="AW14" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="5:72">
       <c r="AW15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="5:72">
       <c r="AW16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="49:49">
       <c r="AW17" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="49:49">
       <c r="AW18" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="49:49">
       <c r="AW19" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="49:49">
       <c r="AW20" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="49:49">
       <c r="AW21" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="49:49">
       <c r="AW22" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="49:49">
       <c r="AW23" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="49:49">
       <c r="AW24" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="49:49">
       <c r="AW25" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="26" spans="49:49">
       <c r="AW26" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="49:49">
       <c r="AW27" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="28" spans="49:49">
       <c r="AW28" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="29" spans="49:49">
       <c r="AW29" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="30" spans="49:49">
       <c r="AW30" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="31" spans="49:49">
       <c r="AW31" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="32" spans="49:49">
       <c r="AW32" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="49:49">
       <c r="AW33" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="34" spans="49:49">
       <c r="AW34" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="35" spans="49:49">
       <c r="AW35" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="36" spans="49:49">
       <c r="AW36" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="37" spans="49:49">
       <c r="AW37" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="38" spans="49:49">
       <c r="AW38" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="39" spans="49:49">
       <c r="AW39" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="40" spans="49:49">
       <c r="AW40" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="41" spans="49:49">
       <c r="AW41" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="42" spans="49:49">
       <c r="AW42" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="43" spans="49:49">
       <c r="AW43" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="44" spans="49:49">
       <c r="AW44" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="45" spans="49:49">
       <c r="AW45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="46" spans="49:49">
       <c r="AW46" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="47" spans="49:49">
       <c r="AW47" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="48" spans="49:49">
       <c r="AW48" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="49" spans="49:49">
       <c r="AW49" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="50" spans="49:49">
       <c r="AW50" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="51" spans="49:49">
       <c r="AW51" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="52" spans="49:49">
       <c r="AW52" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="53" spans="49:49">
       <c r="AW53" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="54" spans="49:49">
       <c r="AW54" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="55" spans="49:49">
       <c r="AW55" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="56" spans="49:49">
       <c r="AW56" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57" spans="49:49">
       <c r="AW57" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="58" spans="49:49">
       <c r="AW58" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="59" spans="49:49">
       <c r="AW59" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="60" spans="49:49">
       <c r="AW60" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="61" spans="49:49">
       <c r="AW61" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="62" spans="49:49">
       <c r="AW62" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="63" spans="49:49">
       <c r="AW63" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="64" spans="49:49">
       <c r="AW64" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="65" spans="49:49">
       <c r="AW65" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="66" spans="49:49">
       <c r="AW66" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="67" spans="49:49">
       <c r="AW67" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="68" spans="49:49">
       <c r="AW68" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="69" spans="49:49">
       <c r="AW69" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="70" spans="49:49">
       <c r="AW70" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="71" spans="49:49">
       <c r="AW71" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="72" spans="49:49">
       <c r="AW72" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="73" spans="49:49">
       <c r="AW73" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="74" spans="49:49">
       <c r="AW74" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="75" spans="49:49">
       <c r="AW75" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="76" spans="49:49">
       <c r="AW76" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="77" spans="49:49">
       <c r="AW77" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78" spans="49:49">
       <c r="AW78" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="79" spans="49:49">
       <c r="AW79" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="80" spans="49:49">
       <c r="AW80" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="81" spans="49:49">
       <c r="AW81" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="82" spans="49:49">
       <c r="AW82" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="83" spans="49:49">
       <c r="AW83" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="84" spans="49:49">
       <c r="AW84" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="85" spans="49:49">
       <c r="AW85" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="86" spans="49:49">
       <c r="AW86" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="87" spans="49:49">
       <c r="AW87" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="88" spans="49:49">
       <c r="AW88" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="89" spans="49:49">
       <c r="AW89" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="90" spans="49:49">
       <c r="AW90" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="91" spans="49:49">
       <c r="AW91" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="92" spans="49:49">
       <c r="AW92" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="93" spans="49:49">
       <c r="AW93" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="94" spans="49:49">
       <c r="AW94" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="95" spans="49:49">
       <c r="AW95" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="96" spans="49:49">
       <c r="AW96" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="97" spans="49:49">
       <c r="AW97" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="98" spans="49:49">
       <c r="AW98" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="99" spans="49:49">
       <c r="AW99" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="100" spans="49:49">
       <c r="AW100" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="101" spans="49:49">
       <c r="AW101" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="102" spans="49:49">
       <c r="AW102" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="103" spans="49:49">
       <c r="AW103" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="104" spans="49:49">
       <c r="AW104" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="105" spans="49:49">
       <c r="AW105" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="106" spans="49:49">
       <c r="AW106" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="107" spans="49:49">
       <c r="AW107" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="108" spans="49:49">
       <c r="AW108" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="109" spans="49:49">
       <c r="AW109" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="110" spans="49:49">
       <c r="AW110" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="111" spans="49:49">
       <c r="AW111" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="112" spans="49:49">
       <c r="AW112" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="113" spans="49:49">
       <c r="AW113" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="114" spans="49:49">
       <c r="AW114" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="115" spans="49:49">
       <c r="AW115" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="116" spans="49:49">
       <c r="AW116" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="117" spans="49:49">
       <c r="AW117" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="118" spans="49:49">
       <c r="AW118" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="119" spans="49:49">
       <c r="AW119" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="120" spans="49:49">
       <c r="AW120" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="121" spans="49:49">
       <c r="AW121" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="122" spans="49:49">
       <c r="AW122" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="123" spans="49:49">
       <c r="AW123" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="124" spans="49:49">
       <c r="AW124" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="125" spans="49:49">
       <c r="AW125" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="126" spans="49:49">
       <c r="AW126" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="127" spans="49:49">
       <c r="AW127" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="128" spans="49:49">
       <c r="AW128" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="129" spans="49:49">
       <c r="AW129" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="130" spans="49:49">
       <c r="AW130" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="131" spans="49:49">
       <c r="AW131" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="132" spans="49:49">
       <c r="AW132" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="133" spans="49:49">
       <c r="AW133" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="134" spans="49:49">
       <c r="AW134" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="135" spans="49:49">
       <c r="AW135" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="136" spans="49:49">
       <c r="AW136" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="137" spans="49:49">
       <c r="AW137" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="138" spans="49:49">
       <c r="AW138" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="139" spans="49:49">
       <c r="AW139" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="140" spans="49:49">
       <c r="AW140" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="141" spans="49:49">
       <c r="AW141" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="142" spans="49:49">
       <c r="AW142" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="143" spans="49:49">
       <c r="AW143" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="144" spans="49:49">
       <c r="AW144" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="145" spans="49:49">
       <c r="AW145" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="146" spans="49:49">
       <c r="AW146" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="147" spans="49:49">
       <c r="AW147" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="148" spans="49:49">
       <c r="AW148" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="149" spans="49:49">
       <c r="AW149" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="150" spans="49:49">
       <c r="AW150" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="151" spans="49:49">
       <c r="AW151" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="152" spans="49:49">
       <c r="AW152" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="153" spans="49:49">
       <c r="AW153" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="154" spans="49:49">
       <c r="AW154" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="155" spans="49:49">
       <c r="AW155" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="156" spans="49:49">
       <c r="AW156" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="157" spans="49:49">
       <c r="AW157" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="158" spans="49:49">
       <c r="AW158" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="159" spans="49:49">
       <c r="AW159" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="160" spans="49:49">
       <c r="AW160" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="161" spans="49:49">
       <c r="AW161" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="162" spans="49:49">
       <c r="AW162" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="163" spans="49:49">
       <c r="AW163" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="164" spans="49:49">
       <c r="AW164" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="165" spans="49:49">
       <c r="AW165" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="166" spans="49:49">
       <c r="AW166" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="167" spans="49:49">
       <c r="AW167" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="168" spans="49:49">
       <c r="AW168" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="169" spans="49:49">
       <c r="AW169" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="170" spans="49:49">
       <c r="AW170" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="171" spans="49:49">
       <c r="AW171" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="172" spans="49:49">
       <c r="AW172" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="173" spans="49:49">
       <c r="AW173" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="174" spans="49:49">
       <c r="AW174" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="175" spans="49:49">
       <c r="AW175" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="176" spans="49:49">
       <c r="AW176" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="177" spans="49:49">
       <c r="AW177" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="178" spans="49:49">
       <c r="AW178" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="179" spans="49:49">
       <c r="AW179" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="180" spans="49:49">
       <c r="AW180" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="181" spans="49:49">
       <c r="AW181" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="182" spans="49:49">
       <c r="AW182" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="183" spans="49:49">
       <c r="AW183" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="184" spans="49:49">
       <c r="AW184" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="185" spans="49:49">
       <c r="AW185" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="186" spans="49:49">
       <c r="AW186" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="187" spans="49:49">
       <c r="AW187" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="188" spans="49:49">
       <c r="AW188" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="189" spans="49:49">
       <c r="AW189" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="190" spans="49:49">
       <c r="AW190" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="191" spans="49:49">
       <c r="AW191" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="192" spans="49:49">
       <c r="AW192" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="193" spans="49:49">
       <c r="AW193" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="194" spans="49:49">
       <c r="AW194" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="195" spans="49:49">
       <c r="AW195" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="196" spans="49:49">
       <c r="AW196" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="197" spans="49:49">
       <c r="AW197" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="198" spans="49:49">
       <c r="AW198" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="199" spans="49:49">
       <c r="AW199" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="200" spans="49:49">
       <c r="AW200" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="201" spans="49:49">
       <c r="AW201" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="202" spans="49:49">
       <c r="AW202" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="203" spans="49:49">
       <c r="AW203" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="204" spans="49:49">
       <c r="AW204" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="205" spans="49:49">
       <c r="AW205" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="206" spans="49:49">
       <c r="AW206" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="207" spans="49:49">
       <c r="AW207" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="208" spans="49:49">
       <c r="AW208" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="209" spans="49:49">
       <c r="AW209" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="210" spans="49:49">
       <c r="AW210" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="211" spans="49:49">
       <c r="AW211" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="212" spans="49:49">
       <c r="AW212" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="213" spans="49:49">
       <c r="AW213" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="214" spans="49:49">
       <c r="AW214" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="215" spans="49:49">
       <c r="AW215" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="216" spans="49:49">
       <c r="AW216" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="217" spans="49:49">
       <c r="AW217" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="218" spans="49:49">
       <c r="AW218" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="219" spans="49:49">
       <c r="AW219" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="220" spans="49:49">
       <c r="AW220" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="221" spans="49:49">
       <c r="AW221" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="222" spans="49:49">
       <c r="AW222" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="223" spans="49:49">
       <c r="AW223" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="224" spans="49:49">
       <c r="AW224" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="225" spans="49:49">
       <c r="AW225" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="226" spans="49:49">
       <c r="AW226" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="227" spans="49:49">
       <c r="AW227" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="228" spans="49:49">
       <c r="AW228" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="229" spans="49:49">
       <c r="AW229" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="230" spans="49:49">
       <c r="AW230" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="231" spans="49:49">
       <c r="AW231" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="232" spans="49:49">
       <c r="AW232" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="233" spans="49:49">
       <c r="AW233" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="234" spans="49:49">
       <c r="AW234" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="235" spans="49:49">
       <c r="AW235" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="236" spans="49:49">
       <c r="AW236" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="237" spans="49:49">
       <c r="AW237" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="238" spans="49:49">
       <c r="AW238" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="239" spans="49:49">
       <c r="AW239" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="240" spans="49:49">
       <c r="AW240" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="241" spans="49:49">
       <c r="AW241" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="242" spans="49:49">
       <c r="AW242" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="243" spans="49:49">
       <c r="AW243" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="244" spans="49:49">
       <c r="AW244" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="245" spans="49:49">
       <c r="AW245" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="246" spans="49:49">
       <c r="AW246" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="247" spans="49:49">
       <c r="AW247" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="248" spans="49:49">
       <c r="AW248" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="249" spans="49:49">
       <c r="AW249" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="250" spans="49:49">
       <c r="AW250" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="251" spans="49:49">
       <c r="AW251" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="252" spans="49:49">
       <c r="AW252" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="253" spans="49:49">
       <c r="AW253" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="254" spans="49:49">
       <c r="AW254" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="255" spans="49:49">
       <c r="AW255" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="256" spans="49:49">
       <c r="AW256" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="257" spans="49:49">
       <c r="AW257" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="258" spans="49:49">
       <c r="AW258" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="259" spans="49:49">
       <c r="AW259" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="260" spans="49:49">
       <c r="AW260" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="261" spans="49:49">
       <c r="AW261" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="262" spans="49:49">
       <c r="AW262" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="263" spans="49:49">
       <c r="AW263" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="264" spans="49:49">
       <c r="AW264" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="265" spans="49:49">
       <c r="AW265" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="266" spans="49:49">
       <c r="AW266" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="267" spans="49:49">
       <c r="AW267" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="268" spans="49:49">
       <c r="AW268" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="269" spans="49:49">
       <c r="AW269" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="270" spans="49:49">
       <c r="AW270" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="271" spans="49:49">
       <c r="AW271" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="272" spans="49:49">
       <c r="AW272" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="273" spans="49:49">
       <c r="AW273" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="274" spans="49:49">
       <c r="AW274" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="275" spans="49:49">
       <c r="AW275" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="276" spans="49:49">
       <c r="AW276" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="277" spans="49:49">
       <c r="AW277" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="278" spans="49:49">
       <c r="AW278" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="279" spans="49:49">
       <c r="AW279" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="280" spans="49:49">
       <c r="AW280" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="281" spans="49:49">
       <c r="AW281" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="282" spans="49:49">
       <c r="AW282" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="283" spans="49:49">
       <c r="AW283" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="284" spans="49:49">
       <c r="AW284" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="285" spans="49:49">
       <c r="AW285" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="286" spans="49:49">
       <c r="AW286" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="287" spans="49:49">
       <c r="AW287" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="288" spans="49:49">
       <c r="AW288" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="289" spans="49:49">
       <c r="AW289" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000049/metadata_template_ERC000049.xlsx
+++ b/templates/ERC000049/metadata_template_ERC000049.xlsx
@@ -21,7 +21,7 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AW$1:$AW$289</definedName>
     <definedName name="hostpredictionapproach">'cv_sample'!$AZ$1:$AZ$7</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="758">
   <si>
     <t>alias</t>
   </si>
@@ -565,6 +565,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -2852,7 +2855,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2896,7 +2899,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2923,7 +2926,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3640,6 +3643,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3664,27 +3672,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3707,122 +3715,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3849,444 +3857,444 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="2" spans="1:74" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -4345,176 +4353,176 @@
   <sheetData>
     <row r="1" spans="5:72">
       <c r="E1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="X1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AB1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AD1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AE1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AJ1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AW1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AZ1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="BG1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BQ1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BS1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BT1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="2" spans="5:72">
       <c r="E2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="X2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AB2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AC2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AD2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AE2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AJ2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AW2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AZ2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="BG2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="BQ2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BS2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BT2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="3" spans="5:72">
       <c r="E3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AB3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AC3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AD3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AJ3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AW3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AZ3" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="BG3" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BS3" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BT3" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="4" spans="5:72">
       <c r="E4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AB4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AC4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AW4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AZ4" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="BG4" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BS4" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BT4" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="5" spans="5:72">
       <c r="E5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AB5" t="s">
         <v>116</v>
       </c>
       <c r="AC5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AW5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AZ5" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="BS5" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BT5" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="6" spans="5:72">
       <c r="AB6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AC6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AW6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AZ6" t="s">
         <v>116</v>
@@ -4523,49 +4531,49 @@
         <v>116</v>
       </c>
       <c r="BT6" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="7" spans="5:72">
       <c r="AB7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AW7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AZ7" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="BT7" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="8" spans="5:72">
       <c r="AB8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AC8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AW8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="BT8" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="9" spans="5:72">
       <c r="AB9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AC9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AW9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="BT9" t="s">
         <v>116</v>
@@ -4573,1417 +4581,1417 @@
     </row>
     <row r="10" spans="5:72">
       <c r="AB10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AC10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AW10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="BT10" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="11" spans="5:72">
       <c r="AW11" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="BT11" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="12" spans="5:72">
       <c r="AW12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="BT12" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="13" spans="5:72">
       <c r="AW13" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="5:72">
       <c r="AW14" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="5:72">
       <c r="AW15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16" spans="5:72">
       <c r="AW16" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="49:49">
       <c r="AW17" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="49:49">
       <c r="AW18" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="19" spans="49:49">
       <c r="AW19" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="49:49">
       <c r="AW20" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="49:49">
       <c r="AW21" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="49:49">
       <c r="AW22" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="49:49">
       <c r="AW23" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="49:49">
       <c r="AW24" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="25" spans="49:49">
       <c r="AW25" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="49:49">
       <c r="AW26" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="27" spans="49:49">
       <c r="AW27" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="28" spans="49:49">
       <c r="AW28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29" spans="49:49">
       <c r="AW29" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="30" spans="49:49">
       <c r="AW30" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="31" spans="49:49">
       <c r="AW31" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="49:49">
       <c r="AW32" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="33" spans="49:49">
       <c r="AW33" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="34" spans="49:49">
       <c r="AW34" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="35" spans="49:49">
       <c r="AW35" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="36" spans="49:49">
       <c r="AW36" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="37" spans="49:49">
       <c r="AW37" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="38" spans="49:49">
       <c r="AW38" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="39" spans="49:49">
       <c r="AW39" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="40" spans="49:49">
       <c r="AW40" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="41" spans="49:49">
       <c r="AW41" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="42" spans="49:49">
       <c r="AW42" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="43" spans="49:49">
       <c r="AW43" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="44" spans="49:49">
       <c r="AW44" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="45" spans="49:49">
       <c r="AW45" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="46" spans="49:49">
       <c r="AW46" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47" spans="49:49">
       <c r="AW47" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="48" spans="49:49">
       <c r="AW48" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="49" spans="49:49">
       <c r="AW49" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="50" spans="49:49">
       <c r="AW50" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="51" spans="49:49">
       <c r="AW51" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="52" spans="49:49">
       <c r="AW52" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="53" spans="49:49">
       <c r="AW53" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="54" spans="49:49">
       <c r="AW54" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="55" spans="49:49">
       <c r="AW55" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="56" spans="49:49">
       <c r="AW56" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="57" spans="49:49">
       <c r="AW57" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="58" spans="49:49">
       <c r="AW58" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="59" spans="49:49">
       <c r="AW59" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="60" spans="49:49">
       <c r="AW60" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="61" spans="49:49">
       <c r="AW61" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="62" spans="49:49">
       <c r="AW62" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="63" spans="49:49">
       <c r="AW63" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="64" spans="49:49">
       <c r="AW64" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="65" spans="49:49">
       <c r="AW65" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="66" spans="49:49">
       <c r="AW66" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="67" spans="49:49">
       <c r="AW67" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="68" spans="49:49">
       <c r="AW68" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="69" spans="49:49">
       <c r="AW69" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="70" spans="49:49">
       <c r="AW70" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="71" spans="49:49">
       <c r="AW71" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="72" spans="49:49">
       <c r="AW72" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="73" spans="49:49">
       <c r="AW73" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="74" spans="49:49">
       <c r="AW74" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="75" spans="49:49">
       <c r="AW75" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="76" spans="49:49">
       <c r="AW76" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="77" spans="49:49">
       <c r="AW77" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="78" spans="49:49">
       <c r="AW78" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="79" spans="49:49">
       <c r="AW79" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="80" spans="49:49">
       <c r="AW80" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="81" spans="49:49">
       <c r="AW81" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="82" spans="49:49">
       <c r="AW82" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="83" spans="49:49">
       <c r="AW83" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="84" spans="49:49">
       <c r="AW84" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="85" spans="49:49">
       <c r="AW85" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="86" spans="49:49">
       <c r="AW86" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="87" spans="49:49">
       <c r="AW87" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="88" spans="49:49">
       <c r="AW88" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="89" spans="49:49">
       <c r="AW89" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="90" spans="49:49">
       <c r="AW90" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="91" spans="49:49">
       <c r="AW91" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="92" spans="49:49">
       <c r="AW92" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="93" spans="49:49">
       <c r="AW93" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="94" spans="49:49">
       <c r="AW94" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="95" spans="49:49">
       <c r="AW95" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="96" spans="49:49">
       <c r="AW96" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="97" spans="49:49">
       <c r="AW97" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="98" spans="49:49">
       <c r="AW98" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="99" spans="49:49">
       <c r="AW99" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="100" spans="49:49">
       <c r="AW100" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="101" spans="49:49">
       <c r="AW101" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="102" spans="49:49">
       <c r="AW102" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="103" spans="49:49">
       <c r="AW103" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="104" spans="49:49">
       <c r="AW104" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="105" spans="49:49">
       <c r="AW105" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="106" spans="49:49">
       <c r="AW106" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="107" spans="49:49">
       <c r="AW107" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="108" spans="49:49">
       <c r="AW108" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="109" spans="49:49">
       <c r="AW109" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="110" spans="49:49">
       <c r="AW110" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="111" spans="49:49">
       <c r="AW111" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="112" spans="49:49">
       <c r="AW112" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="113" spans="49:49">
       <c r="AW113" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="114" spans="49:49">
       <c r="AW114" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="115" spans="49:49">
       <c r="AW115" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="116" spans="49:49">
       <c r="AW116" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="117" spans="49:49">
       <c r="AW117" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="118" spans="49:49">
       <c r="AW118" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="119" spans="49:49">
       <c r="AW119" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="120" spans="49:49">
       <c r="AW120" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="121" spans="49:49">
       <c r="AW121" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="122" spans="49:49">
       <c r="AW122" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="123" spans="49:49">
       <c r="AW123" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="124" spans="49:49">
       <c r="AW124" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="125" spans="49:49">
       <c r="AW125" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="126" spans="49:49">
       <c r="AW126" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="127" spans="49:49">
       <c r="AW127" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="128" spans="49:49">
       <c r="AW128" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="129" spans="49:49">
       <c r="AW129" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="130" spans="49:49">
       <c r="AW130" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="131" spans="49:49">
       <c r="AW131" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="132" spans="49:49">
       <c r="AW132" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="133" spans="49:49">
       <c r="AW133" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="134" spans="49:49">
       <c r="AW134" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="135" spans="49:49">
       <c r="AW135" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="136" spans="49:49">
       <c r="AW136" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="137" spans="49:49">
       <c r="AW137" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="138" spans="49:49">
       <c r="AW138" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="139" spans="49:49">
       <c r="AW139" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="140" spans="49:49">
       <c r="AW140" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="141" spans="49:49">
       <c r="AW141" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="142" spans="49:49">
       <c r="AW142" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="143" spans="49:49">
       <c r="AW143" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="144" spans="49:49">
       <c r="AW144" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="145" spans="49:49">
       <c r="AW145" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="146" spans="49:49">
       <c r="AW146" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="147" spans="49:49">
       <c r="AW147" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="148" spans="49:49">
       <c r="AW148" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="149" spans="49:49">
       <c r="AW149" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="150" spans="49:49">
       <c r="AW150" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="151" spans="49:49">
       <c r="AW151" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="152" spans="49:49">
       <c r="AW152" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="153" spans="49:49">
       <c r="AW153" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="154" spans="49:49">
       <c r="AW154" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="155" spans="49:49">
       <c r="AW155" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="156" spans="49:49">
       <c r="AW156" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="157" spans="49:49">
       <c r="AW157" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="158" spans="49:49">
       <c r="AW158" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="159" spans="49:49">
       <c r="AW159" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="160" spans="49:49">
       <c r="AW160" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="161" spans="49:49">
       <c r="AW161" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="162" spans="49:49">
       <c r="AW162" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="163" spans="49:49">
       <c r="AW163" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="164" spans="49:49">
       <c r="AW164" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="165" spans="49:49">
       <c r="AW165" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="166" spans="49:49">
       <c r="AW166" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="167" spans="49:49">
       <c r="AW167" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="168" spans="49:49">
       <c r="AW168" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="169" spans="49:49">
       <c r="AW169" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="170" spans="49:49">
       <c r="AW170" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="171" spans="49:49">
       <c r="AW171" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="172" spans="49:49">
       <c r="AW172" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="173" spans="49:49">
       <c r="AW173" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="174" spans="49:49">
       <c r="AW174" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="175" spans="49:49">
       <c r="AW175" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="176" spans="49:49">
       <c r="AW176" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="177" spans="49:49">
       <c r="AW177" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="178" spans="49:49">
       <c r="AW178" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="179" spans="49:49">
       <c r="AW179" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="180" spans="49:49">
       <c r="AW180" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="181" spans="49:49">
       <c r="AW181" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="182" spans="49:49">
       <c r="AW182" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="183" spans="49:49">
       <c r="AW183" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="184" spans="49:49">
       <c r="AW184" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="185" spans="49:49">
       <c r="AW185" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="186" spans="49:49">
       <c r="AW186" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="187" spans="49:49">
       <c r="AW187" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="188" spans="49:49">
       <c r="AW188" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="189" spans="49:49">
       <c r="AW189" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="190" spans="49:49">
       <c r="AW190" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="191" spans="49:49">
       <c r="AW191" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="192" spans="49:49">
       <c r="AW192" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="193" spans="49:49">
       <c r="AW193" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="194" spans="49:49">
       <c r="AW194" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="195" spans="49:49">
       <c r="AW195" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="196" spans="49:49">
       <c r="AW196" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="197" spans="49:49">
       <c r="AW197" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="198" spans="49:49">
       <c r="AW198" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="199" spans="49:49">
       <c r="AW199" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="200" spans="49:49">
       <c r="AW200" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="201" spans="49:49">
       <c r="AW201" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="202" spans="49:49">
       <c r="AW202" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="203" spans="49:49">
       <c r="AW203" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="204" spans="49:49">
       <c r="AW204" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="205" spans="49:49">
       <c r="AW205" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="206" spans="49:49">
       <c r="AW206" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="207" spans="49:49">
       <c r="AW207" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="208" spans="49:49">
       <c r="AW208" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="209" spans="49:49">
       <c r="AW209" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="210" spans="49:49">
       <c r="AW210" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="211" spans="49:49">
       <c r="AW211" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="212" spans="49:49">
       <c r="AW212" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="213" spans="49:49">
       <c r="AW213" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="214" spans="49:49">
       <c r="AW214" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="215" spans="49:49">
       <c r="AW215" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="216" spans="49:49">
       <c r="AW216" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="217" spans="49:49">
       <c r="AW217" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="218" spans="49:49">
       <c r="AW218" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="219" spans="49:49">
       <c r="AW219" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="220" spans="49:49">
       <c r="AW220" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="221" spans="49:49">
       <c r="AW221" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="222" spans="49:49">
       <c r="AW222" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="223" spans="49:49">
       <c r="AW223" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="224" spans="49:49">
       <c r="AW224" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="225" spans="49:49">
       <c r="AW225" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="226" spans="49:49">
       <c r="AW226" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="227" spans="49:49">
       <c r="AW227" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="228" spans="49:49">
       <c r="AW228" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="229" spans="49:49">
       <c r="AW229" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="230" spans="49:49">
       <c r="AW230" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="231" spans="49:49">
       <c r="AW231" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="232" spans="49:49">
       <c r="AW232" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="233" spans="49:49">
       <c r="AW233" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="234" spans="49:49">
       <c r="AW234" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="235" spans="49:49">
       <c r="AW235" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="236" spans="49:49">
       <c r="AW236" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="237" spans="49:49">
       <c r="AW237" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="238" spans="49:49">
       <c r="AW238" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="239" spans="49:49">
       <c r="AW239" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="240" spans="49:49">
       <c r="AW240" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="241" spans="49:49">
       <c r="AW241" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="242" spans="49:49">
       <c r="AW242" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="243" spans="49:49">
       <c r="AW243" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="244" spans="49:49">
       <c r="AW244" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="245" spans="49:49">
       <c r="AW245" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="246" spans="49:49">
       <c r="AW246" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="247" spans="49:49">
       <c r="AW247" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="248" spans="49:49">
       <c r="AW248" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="249" spans="49:49">
       <c r="AW249" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="250" spans="49:49">
       <c r="AW250" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="251" spans="49:49">
       <c r="AW251" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="252" spans="49:49">
       <c r="AW252" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="253" spans="49:49">
       <c r="AW253" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="254" spans="49:49">
       <c r="AW254" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="255" spans="49:49">
       <c r="AW255" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="256" spans="49:49">
       <c r="AW256" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="257" spans="49:49">
       <c r="AW257" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="258" spans="49:49">
       <c r="AW258" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="259" spans="49:49">
       <c r="AW259" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="260" spans="49:49">
       <c r="AW260" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="261" spans="49:49">
       <c r="AW261" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="262" spans="49:49">
       <c r="AW262" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="263" spans="49:49">
       <c r="AW263" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="264" spans="49:49">
       <c r="AW264" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="265" spans="49:49">
       <c r="AW265" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="266" spans="49:49">
       <c r="AW266" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="267" spans="49:49">
       <c r="AW267" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="268" spans="49:49">
       <c r="AW268" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="269" spans="49:49">
       <c r="AW269" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="270" spans="49:49">
       <c r="AW270" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="271" spans="49:49">
       <c r="AW271" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="272" spans="49:49">
       <c r="AW272" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="273" spans="49:49">
       <c r="AW273" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="274" spans="49:49">
       <c r="AW274" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="275" spans="49:49">
       <c r="AW275" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="276" spans="49:49">
       <c r="AW276" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="277" spans="49:49">
       <c r="AW277" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="278" spans="49:49">
       <c r="AW278" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="279" spans="49:49">
       <c r="AW279" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="280" spans="49:49">
       <c r="AW280" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="281" spans="49:49">
       <c r="AW281" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="282" spans="49:49">
       <c r="AW282" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="283" spans="49:49">
       <c r="AW283" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="284" spans="49:49">
       <c r="AW284" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="285" spans="49:49">
       <c r="AW285" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="286" spans="49:49">
       <c r="AW286" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="287" spans="49:49">
       <c r="AW287" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="288" spans="49:49">
       <c r="AW288" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="289" spans="49:49">
       <c r="AW289" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000049/metadata_template_ERC000049.xlsx
+++ b/templates/ERC000049/metadata_template_ERC000049.xlsx
@@ -21,7 +21,7 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AW$1:$AW$289</definedName>
     <definedName name="hostpredictionapproach">'cv_sample'!$AZ$1:$AZ$7</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="759">
   <si>
     <t>alias</t>
   </si>
@@ -730,6 +730,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -2855,7 +2858,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2899,7 +2902,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2926,7 +2929,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3648,6 +3651,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3672,27 +3680,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3715,122 +3723,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3857,444 +3865,444 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="2" spans="1:74" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
   </sheetData>
@@ -4353,176 +4361,176 @@
   <sheetData>
     <row r="1" spans="5:72">
       <c r="E1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="X1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AB1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AC1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AD1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AE1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AJ1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AW1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AZ1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="BG1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BQ1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BS1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BT1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="2" spans="5:72">
       <c r="E2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="X2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AB2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AC2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AD2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AE2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AJ2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AW2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AZ2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="BG2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="BQ2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BS2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BT2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="3" spans="5:72">
       <c r="E3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AB3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AC3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AD3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AJ3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AW3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AZ3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="BG3" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BS3" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BT3" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="4" spans="5:72">
       <c r="E4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AB4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AC4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AW4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AZ4" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="BG4" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BS4" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BT4" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="5" spans="5:72">
       <c r="E5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AB5" t="s">
         <v>116</v>
       </c>
       <c r="AC5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AW5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AZ5" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="BS5" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BT5" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="6" spans="5:72">
       <c r="AB6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AW6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AZ6" t="s">
         <v>116</v>
@@ -4531,49 +4539,49 @@
         <v>116</v>
       </c>
       <c r="BT6" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="7" spans="5:72">
       <c r="AB7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AC7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AW7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AZ7" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="BT7" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="8" spans="5:72">
       <c r="AB8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AC8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AW8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="BT8" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="9" spans="5:72">
       <c r="AB9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AC9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AW9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="BT9" t="s">
         <v>116</v>
@@ -4581,1417 +4589,1417 @@
     </row>
     <row r="10" spans="5:72">
       <c r="AB10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AC10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AW10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="BT10" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="11" spans="5:72">
       <c r="AW11" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="BT11" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="12" spans="5:72">
       <c r="AW12" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="BT12" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="13" spans="5:72">
       <c r="AW13" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="5:72">
       <c r="AW14" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="5:72">
       <c r="AW15" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="5:72">
       <c r="AW16" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="49:49">
       <c r="AW17" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="49:49">
       <c r="AW18" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="49:49">
       <c r="AW19" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="49:49">
       <c r="AW20" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="49:49">
       <c r="AW21" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="49:49">
       <c r="AW22" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="49:49">
       <c r="AW23" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="49:49">
       <c r="AW24" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="25" spans="49:49">
       <c r="AW25" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="49:49">
       <c r="AW26" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="27" spans="49:49">
       <c r="AW27" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="28" spans="49:49">
       <c r="AW28" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="49:49">
       <c r="AW29" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="49:49">
       <c r="AW30" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="49:49">
       <c r="AW31" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="32" spans="49:49">
       <c r="AW32" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" spans="49:49">
       <c r="AW33" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="34" spans="49:49">
       <c r="AW34" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="35" spans="49:49">
       <c r="AW35" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="36" spans="49:49">
       <c r="AW36" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="37" spans="49:49">
       <c r="AW37" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="38" spans="49:49">
       <c r="AW38" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="39" spans="49:49">
       <c r="AW39" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="40" spans="49:49">
       <c r="AW40" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="41" spans="49:49">
       <c r="AW41" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="42" spans="49:49">
       <c r="AW42" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="43" spans="49:49">
       <c r="AW43" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="44" spans="49:49">
       <c r="AW44" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="45" spans="49:49">
       <c r="AW45" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="46" spans="49:49">
       <c r="AW46" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="47" spans="49:49">
       <c r="AW47" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="48" spans="49:49">
       <c r="AW48" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="49" spans="49:49">
       <c r="AW49" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50" spans="49:49">
       <c r="AW50" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="51" spans="49:49">
       <c r="AW51" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="52" spans="49:49">
       <c r="AW52" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="53" spans="49:49">
       <c r="AW53" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="54" spans="49:49">
       <c r="AW54" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="55" spans="49:49">
       <c r="AW55" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="56" spans="49:49">
       <c r="AW56" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="57" spans="49:49">
       <c r="AW57" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="58" spans="49:49">
       <c r="AW58" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="59" spans="49:49">
       <c r="AW59" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="60" spans="49:49">
       <c r="AW60" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="61" spans="49:49">
       <c r="AW61" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="62" spans="49:49">
       <c r="AW62" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="63" spans="49:49">
       <c r="AW63" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="64" spans="49:49">
       <c r="AW64" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="65" spans="49:49">
       <c r="AW65" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="66" spans="49:49">
       <c r="AW66" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="67" spans="49:49">
       <c r="AW67" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="68" spans="49:49">
       <c r="AW68" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="69" spans="49:49">
       <c r="AW69" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="70" spans="49:49">
       <c r="AW70" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="71" spans="49:49">
       <c r="AW71" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="72" spans="49:49">
       <c r="AW72" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="73" spans="49:49">
       <c r="AW73" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="74" spans="49:49">
       <c r="AW74" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="75" spans="49:49">
       <c r="AW75" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="76" spans="49:49">
       <c r="AW76" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="77" spans="49:49">
       <c r="AW77" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="78" spans="49:49">
       <c r="AW78" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="79" spans="49:49">
       <c r="AW79" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="80" spans="49:49">
       <c r="AW80" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="81" spans="49:49">
       <c r="AW81" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="82" spans="49:49">
       <c r="AW82" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="83" spans="49:49">
       <c r="AW83" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="84" spans="49:49">
       <c r="AW84" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="85" spans="49:49">
       <c r="AW85" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="86" spans="49:49">
       <c r="AW86" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="87" spans="49:49">
       <c r="AW87" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="88" spans="49:49">
       <c r="AW88" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="89" spans="49:49">
       <c r="AW89" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="90" spans="49:49">
       <c r="AW90" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="91" spans="49:49">
       <c r="AW91" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="92" spans="49:49">
       <c r="AW92" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="93" spans="49:49">
       <c r="AW93" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="94" spans="49:49">
       <c r="AW94" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="95" spans="49:49">
       <c r="AW95" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="96" spans="49:49">
       <c r="AW96" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="97" spans="49:49">
       <c r="AW97" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="98" spans="49:49">
       <c r="AW98" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="99" spans="49:49">
       <c r="AW99" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="100" spans="49:49">
       <c r="AW100" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="101" spans="49:49">
       <c r="AW101" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="102" spans="49:49">
       <c r="AW102" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="103" spans="49:49">
       <c r="AW103" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="104" spans="49:49">
       <c r="AW104" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="105" spans="49:49">
       <c r="AW105" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="106" spans="49:49">
       <c r="AW106" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="107" spans="49:49">
       <c r="AW107" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="108" spans="49:49">
       <c r="AW108" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="109" spans="49:49">
       <c r="AW109" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="110" spans="49:49">
       <c r="AW110" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="111" spans="49:49">
       <c r="AW111" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="112" spans="49:49">
       <c r="AW112" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="113" spans="49:49">
       <c r="AW113" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="114" spans="49:49">
       <c r="AW114" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="115" spans="49:49">
       <c r="AW115" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="116" spans="49:49">
       <c r="AW116" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="117" spans="49:49">
       <c r="AW117" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="118" spans="49:49">
       <c r="AW118" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="119" spans="49:49">
       <c r="AW119" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="120" spans="49:49">
       <c r="AW120" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="121" spans="49:49">
       <c r="AW121" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="122" spans="49:49">
       <c r="AW122" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="123" spans="49:49">
       <c r="AW123" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="124" spans="49:49">
       <c r="AW124" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="125" spans="49:49">
       <c r="AW125" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="126" spans="49:49">
       <c r="AW126" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="127" spans="49:49">
       <c r="AW127" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="128" spans="49:49">
       <c r="AW128" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="129" spans="49:49">
       <c r="AW129" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="130" spans="49:49">
       <c r="AW130" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="131" spans="49:49">
       <c r="AW131" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="132" spans="49:49">
       <c r="AW132" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="133" spans="49:49">
       <c r="AW133" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="134" spans="49:49">
       <c r="AW134" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="135" spans="49:49">
       <c r="AW135" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="136" spans="49:49">
       <c r="AW136" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="137" spans="49:49">
       <c r="AW137" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="138" spans="49:49">
       <c r="AW138" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="139" spans="49:49">
       <c r="AW139" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="140" spans="49:49">
       <c r="AW140" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="141" spans="49:49">
       <c r="AW141" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="142" spans="49:49">
       <c r="AW142" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="143" spans="49:49">
       <c r="AW143" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="144" spans="49:49">
       <c r="AW144" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="145" spans="49:49">
       <c r="AW145" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="146" spans="49:49">
       <c r="AW146" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="147" spans="49:49">
       <c r="AW147" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="148" spans="49:49">
       <c r="AW148" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="149" spans="49:49">
       <c r="AW149" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="150" spans="49:49">
       <c r="AW150" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="151" spans="49:49">
       <c r="AW151" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="152" spans="49:49">
       <c r="AW152" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="153" spans="49:49">
       <c r="AW153" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="154" spans="49:49">
       <c r="AW154" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="155" spans="49:49">
       <c r="AW155" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="156" spans="49:49">
       <c r="AW156" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="157" spans="49:49">
       <c r="AW157" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="158" spans="49:49">
       <c r="AW158" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="159" spans="49:49">
       <c r="AW159" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="160" spans="49:49">
       <c r="AW160" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="161" spans="49:49">
       <c r="AW161" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="162" spans="49:49">
       <c r="AW162" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="163" spans="49:49">
       <c r="AW163" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="164" spans="49:49">
       <c r="AW164" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="165" spans="49:49">
       <c r="AW165" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="166" spans="49:49">
       <c r="AW166" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="167" spans="49:49">
       <c r="AW167" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="168" spans="49:49">
       <c r="AW168" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="169" spans="49:49">
       <c r="AW169" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="170" spans="49:49">
       <c r="AW170" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="171" spans="49:49">
       <c r="AW171" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="172" spans="49:49">
       <c r="AW172" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="173" spans="49:49">
       <c r="AW173" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="174" spans="49:49">
       <c r="AW174" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="175" spans="49:49">
       <c r="AW175" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="176" spans="49:49">
       <c r="AW176" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="177" spans="49:49">
       <c r="AW177" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="178" spans="49:49">
       <c r="AW178" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="179" spans="49:49">
       <c r="AW179" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="180" spans="49:49">
       <c r="AW180" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="181" spans="49:49">
       <c r="AW181" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="182" spans="49:49">
       <c r="AW182" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="183" spans="49:49">
       <c r="AW183" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="184" spans="49:49">
       <c r="AW184" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="185" spans="49:49">
       <c r="AW185" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="186" spans="49:49">
       <c r="AW186" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="187" spans="49:49">
       <c r="AW187" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="188" spans="49:49">
       <c r="AW188" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="189" spans="49:49">
       <c r="AW189" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="190" spans="49:49">
       <c r="AW190" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="191" spans="49:49">
       <c r="AW191" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="192" spans="49:49">
       <c r="AW192" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="193" spans="49:49">
       <c r="AW193" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="194" spans="49:49">
       <c r="AW194" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="195" spans="49:49">
       <c r="AW195" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="196" spans="49:49">
       <c r="AW196" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="197" spans="49:49">
       <c r="AW197" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="198" spans="49:49">
       <c r="AW198" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="199" spans="49:49">
       <c r="AW199" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="200" spans="49:49">
       <c r="AW200" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="201" spans="49:49">
       <c r="AW201" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="202" spans="49:49">
       <c r="AW202" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="203" spans="49:49">
       <c r="AW203" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="204" spans="49:49">
       <c r="AW204" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="205" spans="49:49">
       <c r="AW205" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="206" spans="49:49">
       <c r="AW206" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="207" spans="49:49">
       <c r="AW207" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="208" spans="49:49">
       <c r="AW208" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="209" spans="49:49">
       <c r="AW209" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="210" spans="49:49">
       <c r="AW210" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="211" spans="49:49">
       <c r="AW211" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="212" spans="49:49">
       <c r="AW212" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="213" spans="49:49">
       <c r="AW213" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="214" spans="49:49">
       <c r="AW214" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="215" spans="49:49">
       <c r="AW215" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="216" spans="49:49">
       <c r="AW216" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="217" spans="49:49">
       <c r="AW217" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="218" spans="49:49">
       <c r="AW218" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="219" spans="49:49">
       <c r="AW219" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="220" spans="49:49">
       <c r="AW220" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="221" spans="49:49">
       <c r="AW221" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="222" spans="49:49">
       <c r="AW222" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="223" spans="49:49">
       <c r="AW223" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="224" spans="49:49">
       <c r="AW224" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="225" spans="49:49">
       <c r="AW225" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="226" spans="49:49">
       <c r="AW226" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="227" spans="49:49">
       <c r="AW227" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="228" spans="49:49">
       <c r="AW228" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="229" spans="49:49">
       <c r="AW229" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="230" spans="49:49">
       <c r="AW230" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="231" spans="49:49">
       <c r="AW231" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="232" spans="49:49">
       <c r="AW232" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="233" spans="49:49">
       <c r="AW233" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="234" spans="49:49">
       <c r="AW234" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="235" spans="49:49">
       <c r="AW235" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="236" spans="49:49">
       <c r="AW236" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="237" spans="49:49">
       <c r="AW237" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="238" spans="49:49">
       <c r="AW238" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="239" spans="49:49">
       <c r="AW239" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="240" spans="49:49">
       <c r="AW240" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="241" spans="49:49">
       <c r="AW241" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="242" spans="49:49">
       <c r="AW242" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="243" spans="49:49">
       <c r="AW243" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="244" spans="49:49">
       <c r="AW244" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="245" spans="49:49">
       <c r="AW245" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="246" spans="49:49">
       <c r="AW246" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="247" spans="49:49">
       <c r="AW247" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="248" spans="49:49">
       <c r="AW248" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="249" spans="49:49">
       <c r="AW249" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="250" spans="49:49">
       <c r="AW250" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="251" spans="49:49">
       <c r="AW251" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="252" spans="49:49">
       <c r="AW252" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="253" spans="49:49">
       <c r="AW253" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="254" spans="49:49">
       <c r="AW254" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="255" spans="49:49">
       <c r="AW255" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="256" spans="49:49">
       <c r="AW256" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="257" spans="49:49">
       <c r="AW257" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="258" spans="49:49">
       <c r="AW258" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="259" spans="49:49">
       <c r="AW259" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="260" spans="49:49">
       <c r="AW260" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="261" spans="49:49">
       <c r="AW261" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="262" spans="49:49">
       <c r="AW262" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="263" spans="49:49">
       <c r="AW263" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="264" spans="49:49">
       <c r="AW264" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="265" spans="49:49">
       <c r="AW265" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="266" spans="49:49">
       <c r="AW266" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="267" spans="49:49">
       <c r="AW267" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="268" spans="49:49">
       <c r="AW268" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="269" spans="49:49">
       <c r="AW269" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="270" spans="49:49">
       <c r="AW270" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="271" spans="49:49">
       <c r="AW271" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="272" spans="49:49">
       <c r="AW272" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="273" spans="49:49">
       <c r="AW273" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="274" spans="49:49">
       <c r="AW274" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="275" spans="49:49">
       <c r="AW275" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="276" spans="49:49">
       <c r="AW276" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="277" spans="49:49">
       <c r="AW277" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="278" spans="49:49">
       <c r="AW278" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="279" spans="49:49">
       <c r="AW279" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="280" spans="49:49">
       <c r="AW280" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="281" spans="49:49">
       <c r="AW281" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="282" spans="49:49">
       <c r="AW282" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="283" spans="49:49">
       <c r="AW283" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="284" spans="49:49">
       <c r="AW284" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="285" spans="49:49">
       <c r="AW285" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="286" spans="49:49">
       <c r="AW286" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="287" spans="49:49">
       <c r="AW287" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="288" spans="49:49">
       <c r="AW288" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="289" spans="49:49">
       <c r="AW289" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000049/metadata_template_ERC000049.xlsx
+++ b/templates/ERC000049/metadata_template_ERC000049.xlsx
@@ -21,7 +21,7 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AW$1:$AW$289</definedName>
     <definedName name="hostpredictionapproach">'cv_sample'!$AZ$1:$AZ$7</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="760">
   <si>
     <t>alias</t>
   </si>
@@ -565,6 +565,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -2858,7 +2861,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2902,7 +2905,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2929,7 +2932,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3656,6 +3659,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3680,27 +3688,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3723,122 +3731,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3865,444 +3873,444 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:74" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
   </sheetData>
@@ -4361,176 +4369,176 @@
   <sheetData>
     <row r="1" spans="5:72">
       <c r="E1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="X1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AB1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AC1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AD1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AE1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AJ1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AW1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AZ1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="BG1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BQ1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BS1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BT1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="2" spans="5:72">
       <c r="E2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="X2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AB2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AC2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AD2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AE2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AJ2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AW2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AZ2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="BG2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="BQ2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BS2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BT2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="3" spans="5:72">
       <c r="E3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AB3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AC3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AD3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AJ3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AW3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AZ3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="BG3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BS3" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BT3" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="4" spans="5:72">
       <c r="E4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AB4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AW4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AZ4" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="BG4" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BS4" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BT4" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="5" spans="5:72">
       <c r="E5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AB5" t="s">
         <v>116</v>
       </c>
       <c r="AC5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AW5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AZ5" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="BS5" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BT5" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="6" spans="5:72">
       <c r="AB6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AC6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AW6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AZ6" t="s">
         <v>116</v>
@@ -4539,49 +4547,49 @@
         <v>116</v>
       </c>
       <c r="BT6" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="7" spans="5:72">
       <c r="AB7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AC7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AW7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AZ7" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="BT7" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="8" spans="5:72">
       <c r="AB8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AC8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AW8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="BT8" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="9" spans="5:72">
       <c r="AB9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AC9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AW9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="BT9" t="s">
         <v>116</v>
@@ -4589,1417 +4597,1417 @@
     </row>
     <row r="10" spans="5:72">
       <c r="AB10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AC10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AW10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="BT10" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="11" spans="5:72">
       <c r="AW11" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="BT11" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="12" spans="5:72">
       <c r="AW12" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="BT12" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="13" spans="5:72">
       <c r="AW13" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="5:72">
       <c r="AW14" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="5:72">
       <c r="AW15" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="5:72">
       <c r="AW16" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="49:49">
       <c r="AW17" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="49:49">
       <c r="AW18" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="49:49">
       <c r="AW19" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="49:49">
       <c r="AW20" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="49:49">
       <c r="AW21" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="49:49">
       <c r="AW22" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="49:49">
       <c r="AW23" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="49:49">
       <c r="AW24" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="25" spans="49:49">
       <c r="AW25" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="49:49">
       <c r="AW26" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="49:49">
       <c r="AW27" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="49:49">
       <c r="AW28" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="29" spans="49:49">
       <c r="AW29" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="49:49">
       <c r="AW30" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="31" spans="49:49">
       <c r="AW31" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="49:49">
       <c r="AW32" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="49:49">
       <c r="AW33" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="34" spans="49:49">
       <c r="AW34" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="49:49">
       <c r="AW35" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="36" spans="49:49">
       <c r="AW36" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="37" spans="49:49">
       <c r="AW37" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="38" spans="49:49">
       <c r="AW38" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="39" spans="49:49">
       <c r="AW39" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="40" spans="49:49">
       <c r="AW40" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="41" spans="49:49">
       <c r="AW41" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="42" spans="49:49">
       <c r="AW42" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="43" spans="49:49">
       <c r="AW43" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44" spans="49:49">
       <c r="AW44" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="45" spans="49:49">
       <c r="AW45" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="46" spans="49:49">
       <c r="AW46" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="47" spans="49:49">
       <c r="AW47" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="48" spans="49:49">
       <c r="AW48" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="49" spans="49:49">
       <c r="AW49" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50" spans="49:49">
       <c r="AW50" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="51" spans="49:49">
       <c r="AW51" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52" spans="49:49">
       <c r="AW52" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="53" spans="49:49">
       <c r="AW53" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="54" spans="49:49">
       <c r="AW54" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="55" spans="49:49">
       <c r="AW55" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="56" spans="49:49">
       <c r="AW56" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="57" spans="49:49">
       <c r="AW57" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="58" spans="49:49">
       <c r="AW58" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="59" spans="49:49">
       <c r="AW59" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="60" spans="49:49">
       <c r="AW60" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="61" spans="49:49">
       <c r="AW61" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="62" spans="49:49">
       <c r="AW62" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="63" spans="49:49">
       <c r="AW63" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="64" spans="49:49">
       <c r="AW64" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="65" spans="49:49">
       <c r="AW65" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="66" spans="49:49">
       <c r="AW66" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="67" spans="49:49">
       <c r="AW67" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="68" spans="49:49">
       <c r="AW68" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="69" spans="49:49">
       <c r="AW69" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="70" spans="49:49">
       <c r="AW70" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="71" spans="49:49">
       <c r="AW71" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="72" spans="49:49">
       <c r="AW72" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="73" spans="49:49">
       <c r="AW73" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="74" spans="49:49">
       <c r="AW74" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="75" spans="49:49">
       <c r="AW75" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="76" spans="49:49">
       <c r="AW76" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="77" spans="49:49">
       <c r="AW77" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="78" spans="49:49">
       <c r="AW78" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="79" spans="49:49">
       <c r="AW79" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="80" spans="49:49">
       <c r="AW80" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="81" spans="49:49">
       <c r="AW81" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="82" spans="49:49">
       <c r="AW82" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="83" spans="49:49">
       <c r="AW83" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="84" spans="49:49">
       <c r="AW84" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="85" spans="49:49">
       <c r="AW85" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="86" spans="49:49">
       <c r="AW86" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="87" spans="49:49">
       <c r="AW87" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="88" spans="49:49">
       <c r="AW88" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="89" spans="49:49">
       <c r="AW89" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="90" spans="49:49">
       <c r="AW90" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="91" spans="49:49">
       <c r="AW91" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="92" spans="49:49">
       <c r="AW92" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="93" spans="49:49">
       <c r="AW93" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="94" spans="49:49">
       <c r="AW94" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="95" spans="49:49">
       <c r="AW95" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="96" spans="49:49">
       <c r="AW96" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="97" spans="49:49">
       <c r="AW97" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="98" spans="49:49">
       <c r="AW98" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="99" spans="49:49">
       <c r="AW99" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="100" spans="49:49">
       <c r="AW100" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="101" spans="49:49">
       <c r="AW101" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="102" spans="49:49">
       <c r="AW102" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="103" spans="49:49">
       <c r="AW103" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="104" spans="49:49">
       <c r="AW104" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="105" spans="49:49">
       <c r="AW105" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="106" spans="49:49">
       <c r="AW106" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="107" spans="49:49">
       <c r="AW107" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="108" spans="49:49">
       <c r="AW108" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="109" spans="49:49">
       <c r="AW109" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="110" spans="49:49">
       <c r="AW110" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="111" spans="49:49">
       <c r="AW111" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="112" spans="49:49">
       <c r="AW112" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="113" spans="49:49">
       <c r="AW113" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="114" spans="49:49">
       <c r="AW114" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="115" spans="49:49">
       <c r="AW115" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="116" spans="49:49">
       <c r="AW116" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="117" spans="49:49">
       <c r="AW117" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="118" spans="49:49">
       <c r="AW118" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="119" spans="49:49">
       <c r="AW119" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="120" spans="49:49">
       <c r="AW120" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="121" spans="49:49">
       <c r="AW121" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="122" spans="49:49">
       <c r="AW122" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="123" spans="49:49">
       <c r="AW123" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="124" spans="49:49">
       <c r="AW124" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="125" spans="49:49">
       <c r="AW125" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="126" spans="49:49">
       <c r="AW126" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="127" spans="49:49">
       <c r="AW127" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="128" spans="49:49">
       <c r="AW128" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="129" spans="49:49">
       <c r="AW129" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="130" spans="49:49">
       <c r="AW130" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="131" spans="49:49">
       <c r="AW131" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="132" spans="49:49">
       <c r="AW132" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="133" spans="49:49">
       <c r="AW133" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="134" spans="49:49">
       <c r="AW134" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="135" spans="49:49">
       <c r="AW135" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="136" spans="49:49">
       <c r="AW136" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="137" spans="49:49">
       <c r="AW137" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="138" spans="49:49">
       <c r="AW138" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="139" spans="49:49">
       <c r="AW139" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="140" spans="49:49">
       <c r="AW140" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="141" spans="49:49">
       <c r="AW141" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="142" spans="49:49">
       <c r="AW142" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="143" spans="49:49">
       <c r="AW143" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="144" spans="49:49">
       <c r="AW144" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="145" spans="49:49">
       <c r="AW145" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="146" spans="49:49">
       <c r="AW146" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="147" spans="49:49">
       <c r="AW147" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="148" spans="49:49">
       <c r="AW148" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="149" spans="49:49">
       <c r="AW149" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="150" spans="49:49">
       <c r="AW150" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="151" spans="49:49">
       <c r="AW151" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="152" spans="49:49">
       <c r="AW152" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="153" spans="49:49">
       <c r="AW153" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="154" spans="49:49">
       <c r="AW154" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="155" spans="49:49">
       <c r="AW155" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="156" spans="49:49">
       <c r="AW156" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="157" spans="49:49">
       <c r="AW157" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="158" spans="49:49">
       <c r="AW158" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="159" spans="49:49">
       <c r="AW159" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="160" spans="49:49">
       <c r="AW160" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="161" spans="49:49">
       <c r="AW161" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="162" spans="49:49">
       <c r="AW162" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="163" spans="49:49">
       <c r="AW163" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="164" spans="49:49">
       <c r="AW164" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="165" spans="49:49">
       <c r="AW165" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="166" spans="49:49">
       <c r="AW166" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="167" spans="49:49">
       <c r="AW167" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="168" spans="49:49">
       <c r="AW168" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="169" spans="49:49">
       <c r="AW169" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="170" spans="49:49">
       <c r="AW170" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="171" spans="49:49">
       <c r="AW171" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="172" spans="49:49">
       <c r="AW172" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="173" spans="49:49">
       <c r="AW173" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="174" spans="49:49">
       <c r="AW174" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="175" spans="49:49">
       <c r="AW175" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="176" spans="49:49">
       <c r="AW176" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="177" spans="49:49">
       <c r="AW177" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="178" spans="49:49">
       <c r="AW178" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="179" spans="49:49">
       <c r="AW179" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="180" spans="49:49">
       <c r="AW180" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="181" spans="49:49">
       <c r="AW181" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="182" spans="49:49">
       <c r="AW182" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="183" spans="49:49">
       <c r="AW183" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="184" spans="49:49">
       <c r="AW184" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="185" spans="49:49">
       <c r="AW185" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="186" spans="49:49">
       <c r="AW186" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="187" spans="49:49">
       <c r="AW187" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="188" spans="49:49">
       <c r="AW188" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="189" spans="49:49">
       <c r="AW189" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="190" spans="49:49">
       <c r="AW190" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="191" spans="49:49">
       <c r="AW191" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="192" spans="49:49">
       <c r="AW192" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="193" spans="49:49">
       <c r="AW193" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="194" spans="49:49">
       <c r="AW194" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="195" spans="49:49">
       <c r="AW195" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="196" spans="49:49">
       <c r="AW196" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="197" spans="49:49">
       <c r="AW197" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="198" spans="49:49">
       <c r="AW198" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="199" spans="49:49">
       <c r="AW199" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="200" spans="49:49">
       <c r="AW200" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="201" spans="49:49">
       <c r="AW201" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="202" spans="49:49">
       <c r="AW202" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="203" spans="49:49">
       <c r="AW203" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="204" spans="49:49">
       <c r="AW204" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="205" spans="49:49">
       <c r="AW205" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="206" spans="49:49">
       <c r="AW206" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="207" spans="49:49">
       <c r="AW207" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="208" spans="49:49">
       <c r="AW208" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="209" spans="49:49">
       <c r="AW209" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="210" spans="49:49">
       <c r="AW210" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="211" spans="49:49">
       <c r="AW211" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="212" spans="49:49">
       <c r="AW212" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="213" spans="49:49">
       <c r="AW213" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="214" spans="49:49">
       <c r="AW214" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="215" spans="49:49">
       <c r="AW215" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="216" spans="49:49">
       <c r="AW216" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="217" spans="49:49">
       <c r="AW217" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="218" spans="49:49">
       <c r="AW218" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="219" spans="49:49">
       <c r="AW219" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="220" spans="49:49">
       <c r="AW220" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="221" spans="49:49">
       <c r="AW221" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="222" spans="49:49">
       <c r="AW222" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="223" spans="49:49">
       <c r="AW223" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="224" spans="49:49">
       <c r="AW224" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="225" spans="49:49">
       <c r="AW225" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="226" spans="49:49">
       <c r="AW226" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="227" spans="49:49">
       <c r="AW227" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="228" spans="49:49">
       <c r="AW228" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="229" spans="49:49">
       <c r="AW229" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="230" spans="49:49">
       <c r="AW230" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="231" spans="49:49">
       <c r="AW231" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="232" spans="49:49">
       <c r="AW232" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="233" spans="49:49">
       <c r="AW233" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="234" spans="49:49">
       <c r="AW234" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="235" spans="49:49">
       <c r="AW235" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="236" spans="49:49">
       <c r="AW236" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="237" spans="49:49">
       <c r="AW237" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="238" spans="49:49">
       <c r="AW238" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="239" spans="49:49">
       <c r="AW239" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="240" spans="49:49">
       <c r="AW240" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="241" spans="49:49">
       <c r="AW241" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="242" spans="49:49">
       <c r="AW242" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="243" spans="49:49">
       <c r="AW243" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="244" spans="49:49">
       <c r="AW244" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="245" spans="49:49">
       <c r="AW245" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="246" spans="49:49">
       <c r="AW246" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="247" spans="49:49">
       <c r="AW247" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="248" spans="49:49">
       <c r="AW248" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="249" spans="49:49">
       <c r="AW249" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="250" spans="49:49">
       <c r="AW250" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="251" spans="49:49">
       <c r="AW251" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="252" spans="49:49">
       <c r="AW252" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="253" spans="49:49">
       <c r="AW253" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="254" spans="49:49">
       <c r="AW254" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="255" spans="49:49">
       <c r="AW255" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="256" spans="49:49">
       <c r="AW256" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="257" spans="49:49">
       <c r="AW257" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="258" spans="49:49">
       <c r="AW258" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="259" spans="49:49">
       <c r="AW259" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="260" spans="49:49">
       <c r="AW260" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="261" spans="49:49">
       <c r="AW261" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="262" spans="49:49">
       <c r="AW262" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="263" spans="49:49">
       <c r="AW263" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="264" spans="49:49">
       <c r="AW264" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="265" spans="49:49">
       <c r="AW265" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="266" spans="49:49">
       <c r="AW266" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="267" spans="49:49">
       <c r="AW267" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="268" spans="49:49">
       <c r="AW268" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="269" spans="49:49">
       <c r="AW269" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="270" spans="49:49">
       <c r="AW270" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="271" spans="49:49">
       <c r="AW271" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="272" spans="49:49">
       <c r="AW272" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="273" spans="49:49">
       <c r="AW273" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="274" spans="49:49">
       <c r="AW274" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="275" spans="49:49">
       <c r="AW275" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="276" spans="49:49">
       <c r="AW276" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="277" spans="49:49">
       <c r="AW277" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="278" spans="49:49">
       <c r="AW278" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="279" spans="49:49">
       <c r="AW279" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="280" spans="49:49">
       <c r="AW280" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="281" spans="49:49">
       <c r="AW281" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="282" spans="49:49">
       <c r="AW282" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="283" spans="49:49">
       <c r="AW283" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="284" spans="49:49">
       <c r="AW284" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="285" spans="49:49">
       <c r="AW285" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="286" spans="49:49">
       <c r="AW286" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="287" spans="49:49">
       <c r="AW287" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="288" spans="49:49">
       <c r="AW288" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="289" spans="49:49">
       <c r="AW289" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000049/metadata_template_ERC000049.xlsx
+++ b/templates/ERC000049/metadata_template_ERC000049.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="detectiontype">'cv_sample'!$AE$1:$AE$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AW$1:$AW$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AW$1:$AW$294</definedName>
     <definedName name="hostpredictionapproach">'cv_sample'!$AZ$1:$AZ$7</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
@@ -32,18 +32,18 @@
     <definedName name="reassemblypostbinning">'cv_sample'!$X$1:$X$2</definedName>
     <definedName name="singlecellorviralparticlelysisapproach">'cv_sample'!$BG$1:$BG$4</definedName>
     <definedName name="sortingtechnology">'cv_sample'!$BS$1:$BS$6</definedName>
-    <definedName name="sourceofUViGs">'cv_sample'!$AB$1:$AB$10</definedName>
+    <definedName name="sourceofuvigs">'cv_sample'!$AB$1:$AB$10</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
-    <definedName name="UViGassemblyquality">'cv_sample'!$AJ$1:$AJ$3</definedName>
+    <definedName name="uvigassemblyquality">'cv_sample'!$AJ$1:$AJ$3</definedName>
     <definedName name="virusenrichmentapproach">'cv_sample'!$BT$1:$BT$12</definedName>
-    <definedName name="WGAamplificationapproach">'cv_sample'!$BQ$1:$BQ$2</definedName>
+    <definedName name="wgaamplificationapproach">'cv_sample'!$BQ$1:$BQ$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="765">
   <si>
     <t>alias</t>
   </si>
@@ -870,115 +870,115 @@
     <t>symbiont</t>
   </si>
   <si>
-    <t>observed biotic relationship</t>
+    <t>observed_biotic_relationship</t>
   </si>
   <si>
     <t>(Optional) Description of relationship(s) between the subject organism and other organism(s) it is associated with. e.g., parasite on species x; mutualist with species y. the target organism is the subject of the relationship, and the other organism(s) is the object.</t>
   </si>
   <si>
-    <t>known pathogenicity</t>
+    <t>known_pathogenicity</t>
   </si>
   <si>
     <t>(Optional) To what is the entity pathogenic, for instance plant, fungi, bacteria</t>
   </si>
   <si>
-    <t>sample collection device</t>
+    <t>sample_collection_device</t>
   </si>
   <si>
     <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
   </si>
   <si>
-    <t>sample collection method</t>
+    <t>sample_collection_method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>metagenomic source</t>
+    <t>metagenomic_source</t>
   </si>
   <si>
     <t>(Mandatory) The metagenomic source of the sample. this value should contain “metagenome” and be in the taxonomy database e.g. wastewater metagenome or human gut metagenome. please note “metagenome” alone will not be accepted. check here for more details on metagenome taxonomy: https://ena-docs.readthedocs.io/en/latest/faq_taxonomy.html#environmental-taxonomic-classifications</t>
   </si>
   <si>
-    <t>sample derived from</t>
+    <t>sample_derived_from</t>
   </si>
   <si>
     <t>(Mandatory) Reference to parental sample(s) or original run(s) that the assembly is derived from. the referenced samples or runs should already be registered in insdc. this should be formatted as one of the following. a single sample/run e.g. ersxxxxxx or a comma separated list e.g. ersxxxxxx,ersxxxxxx or a range e.g. ersxxxxxx-ersxxxxxx</t>
   </si>
   <si>
-    <t>project name</t>
+    <t>project_name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
   </si>
   <si>
-    <t>estimated size</t>
+    <t>estimated_size</t>
   </si>
   <si>
     <t>(Optional) The estimated size of the genome (in bp) prior to sequencing. of particular importance in the sequencing of (eukaryotic) genome which could remain in draft form for a long or unspecified period. mandatory for migs of eukaryotes.</t>
   </si>
   <si>
-    <t>multiplex identifiers</t>
+    <t>multiplex_identifiers</t>
   </si>
   <si>
     <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
   </si>
   <si>
-    <t>relevant electronic resources</t>
+    <t>relevant_electronic_resources</t>
   </si>
   <si>
     <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>relevant standard operating procedures</t>
+    <t>relevant_standard_operating_procedures</t>
   </si>
   <si>
     <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>number of standard tRNAs extracted</t>
+    <t>number_of_standard_trnas_extracted</t>
   </si>
   <si>
     <t>(Optional) The total number of trnas identified from the bin, sag or mag</t>
   </si>
   <si>
-    <t>feature prediction</t>
+    <t>feature_prediction</t>
   </si>
   <si>
     <t>(Optional) Method used to predict uvigs features such as orfs, integration site, etc. add names and versions of software(s), parameters used</t>
   </si>
   <si>
-    <t>similarity search method</t>
+    <t>similarity_search_method</t>
   </si>
   <si>
     <t>(Optional) Tool used to compare orfs with database, along with version and cutoffs used. add names and versions of software(s), parameters used</t>
   </si>
   <si>
-    <t>tRNA extraction software</t>
+    <t>trna_extraction_software</t>
   </si>
   <si>
     <t>(Optional) Tools used for trna identification. add names and versions of software(s), parameters used</t>
   </si>
   <si>
-    <t>completeness score</t>
+    <t>completeness_score</t>
   </si>
   <si>
     <t>(Optional) Completeness score is typically based on either the fraction of markers found as compared to a database or the percent of a genome found as compared to a closely related reference genome. completeness score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. mandatory for all samples directly linked with sags or mags. (Units: %)</t>
   </si>
   <si>
-    <t>completeness software</t>
+    <t>completeness_software</t>
   </si>
   <si>
     <t>(Optional) Tools used for completion estimate, i.e. checkm, anvi'o, busco. mandatory for all samples directly linked with sags or mags.</t>
   </si>
   <si>
-    <t>completeness approach</t>
+    <t>completeness_approach</t>
   </si>
   <si>
     <t>(Optional) The approach used to determine the completeness of a given bin, sag or mag, which would typically make use of a set of conserved marker genes or a closely related reference genome. for uvig completeness, include reference genome or group used, and contig feature suggesting a complete genome</t>
   </si>
   <si>
-    <t>binning software</t>
+    <t>binning_software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used for the extraction of genomes from metagenomic datasets, where possible include a product id (pid) of the tool(s) used. e.g. metacluster-ta (rrid:scr_004599) or maxbin (biotools:maxbin)</t>
@@ -990,25 +990,25 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>reassembly post binning</t>
+    <t>reassembly_post_binning</t>
   </si>
   <si>
     <t>(Optional) Has an assembly been performed on a genome bin extracted from a metagenomic assembly? (Units: Yes)</t>
   </si>
   <si>
-    <t>MAG coverage software</t>
+    <t>mag_coverage_software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used to determine the genome coverage if coverage is used as a binning parameter in the extraction of genomes from metagenomic datasets e.g. bwa, bbmap, bowtie, other</t>
   </si>
   <si>
-    <t>binning parameters</t>
+    <t>binning_parameters</t>
   </si>
   <si>
     <t>(Optional) The parameters that have been applied during the extraction of genomes from metagenomic datasets e.g. coverage and kmer</t>
   </si>
   <si>
-    <t>taxonomic identity marker</t>
+    <t>taxonomic_identity_marker</t>
   </si>
   <si>
     <t>(Optional) The phylogenetic marker(s) used to assign an organism name to the bin, sag or mag. examples are 16s gene, multi-marker approach or other e.g. rpob gene. mandatory for all samples directly linked with sags or mags.</t>
@@ -1041,7 +1041,7 @@
     <t>viral single amplified genome (vSAG)</t>
   </si>
   <si>
-    <t>source of UViGs</t>
+    <t>source_of_uvigs</t>
   </si>
   <si>
     <t>(Mandatory) Type of dataset from which the uvig was obtained</t>
@@ -1077,7 +1077,7 @@
     <t>uncharacterized</t>
   </si>
   <si>
-    <t>predicted genome type</t>
+    <t>predicted_genome_type</t>
   </si>
   <si>
     <t>(Mandatory) Type of genome predicted for the uvig</t>
@@ -1092,7 +1092,7 @@
     <t>undetermined</t>
   </si>
   <si>
-    <t>predicted genome structure</t>
+    <t>predicted_genome_structure</t>
   </si>
   <si>
     <t>(Mandatory) Expected structure of the viral genome</t>
@@ -1104,31 +1104,31 @@
     <t>provirus (UpViG)</t>
   </si>
   <si>
-    <t>detection type</t>
+    <t>detection_type</t>
   </si>
   <si>
     <t>(Mandatory) Type of uvig detection</t>
   </si>
   <si>
-    <t>viral identification software</t>
+    <t>viral_identification_software</t>
   </si>
   <si>
     <t>(Mandatory) Tool(s) used for the identification of uvig as a viral genome, software or protocol name including version number, parameters, and cutoffs used formatted {software};{version};{parameters} e.g. virsorter; 1.0.4; virome database, category 2</t>
   </si>
   <si>
-    <t>OTU classification approach</t>
+    <t>otu_classification_approach</t>
   </si>
   <si>
     <t>(Optional) Cutoffs and approach used when clustering “species-level” otus. note that results from standard 95% ani / 85% af clustering should be provided alongside otus defined from another set of thresholds, even if the latter are the ones primarily used during the analysis. this should be formatted {ani cutoff};{af cutoff};{clustering method} e.g. 95% ani;85% af; greedy incremental clustering</t>
   </si>
   <si>
-    <t>OTU sequence comparison approach</t>
+    <t>otu_sequence_comparison_approach</t>
   </si>
   <si>
     <t>(Optional) Tool and thresholds used to compare sequences when computing "species-level" otus formatted: {software};{version};{parameters} e.g. gblastn;2.6.0+;e-value cutoff: 0.001</t>
   </si>
   <si>
-    <t>OTU database</t>
+    <t>otu_database</t>
   </si>
   <si>
     <t>(Optional) Reference database (i.e. sequences not generated as part of the current study) used to cluster new genomes in "species-level" otus, if any. this should be formatted: {database};{version} e.g. ncbi viral refseq;83</t>
@@ -1143,7 +1143,7 @@
     <t>Single, validated, contiguous sequence per replicon without gaps or ambiguities, with extensive manual review and editing to annotate putative gene functions and transcriptional units</t>
   </si>
   <si>
-    <t>UViG assembly quality</t>
+    <t>uvig_assembly_quality</t>
   </si>
   <si>
     <t>(Mandatory) Uvig assembly quality is one of 3 attributes which in combination reflect the standard quality of a uvig, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html.</t>
@@ -1155,7 +1155,7 @@
     <t>(Mandatory) Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -1167,37 +1167,37 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic location (latitude)</t>
+    <t>geographic_location_latitude</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (longitude)</t>
+    <t>geographic_location_longitude</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (region and locality)</t>
+    <t>geographic_location_region_and_locality</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>broad-scale environmental context</t>
+    <t>broadscale_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local environmental context</t>
+    <t>local_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental medium</t>
+    <t>environmental_medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
@@ -1209,13 +1209,13 @@
     <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>size fraction selected</t>
+    <t>amount_or_size_of_sample_collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
+  </si>
+  <si>
+    <t>size_fraction_selected</t>
   </si>
   <si>
     <t>(Optional) Filtering pore size used in sample preparation e.g. 0-0.22 micrometer</t>
@@ -1434,9 +1434,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1455,6 +1452,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1656,6 +1656,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1665,9 +1668,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1707,7 +1707,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1776,6 +1776,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1851,6 +1854,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1872,6 +1878,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1917,6 +1926,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1929,6 +1941,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1938,9 +1953,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1965,6 +1977,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2025,12 +2040,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2088,19 +2103,19 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>host scientific name</t>
+    <t>host_scientific_name</t>
   </si>
   <si>
     <t>(Optional) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
   </si>
   <si>
-    <t>source material identifiers</t>
+    <t>source_material_identifiers</t>
   </si>
   <si>
     <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
@@ -2124,43 +2139,43 @@
     <t>provirus</t>
   </si>
   <si>
-    <t>host prediction approach</t>
+    <t>host_prediction_approach</t>
   </si>
   <si>
     <t>(Optional) Tool or approach used for host prediction</t>
   </si>
   <si>
-    <t>host prediction estimated accuracy</t>
+    <t>host_prediction_estimated_accuracy</t>
   </si>
   <si>
     <t>(Optional) For each tool or approach used for host prediction, estimated false discovery rates should be included, either computed de novo or from the literature</t>
   </si>
   <si>
-    <t>experimental factor</t>
+    <t>experimental_factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
-    <t>taxonomic classification</t>
+    <t>taxonomic_classification</t>
   </si>
   <si>
     <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
   </si>
   <si>
-    <t>annotation source</t>
+    <t>annotation_source</t>
   </si>
   <si>
     <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
   </si>
   <si>
-    <t>reference for biomaterial</t>
+    <t>reference_for_biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>reference database(s)</t>
+    <t>reference_databases</t>
   </si>
   <si>
     <t>(Optional) List of database(s) used for orf annotation, along with version number and reference to website or publication</t>
@@ -2175,61 +2190,61 @@
     <t>physical</t>
   </si>
   <si>
-    <t>single cell or viral particle lysis approach</t>
+    <t>single_cell_or_viral_particle_lysis_approach</t>
   </si>
   <si>
     <t>(Optional) Method used to free dna from interior of the cell(s) or particle(s)</t>
   </si>
   <si>
-    <t>single cell or viral particle lysis kit protocol</t>
+    <t>single_cell_or_viral_particle_lysis_kit_protocol</t>
   </si>
   <si>
     <t>(Optional) Name of the kit or standard protocol used for cell(s) or particle(s) lysis</t>
   </si>
   <si>
-    <t>sample material processing</t>
+    <t>sample_material_processing</t>
   </si>
   <si>
     <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
-    <t>nucleic acid extraction</t>
+    <t>nucleic_acid_extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>nucleic acid amplification</t>
+    <t>nucleic_acid_amplification</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the enzymatic amplification (pcr, tma, nasba) of specific nucleic acids</t>
   </si>
   <si>
-    <t>library size</t>
+    <t>library_size</t>
   </si>
   <si>
     <t>(Optional) Total number of clones in the library prepared for the project</t>
   </si>
   <si>
-    <t>library reads sequenced</t>
+    <t>library_reads_sequenced</t>
   </si>
   <si>
     <t>(Optional) Total number of clones sequenced from the library</t>
   </si>
   <si>
-    <t>library vector</t>
+    <t>library_vector</t>
   </si>
   <si>
     <t>(Optional) Cloning vector type(s) used in construction of libraries</t>
   </si>
   <si>
-    <t>library screening strategy</t>
+    <t>library_screening_strategy</t>
   </si>
   <si>
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>assembly software</t>
+    <t>assembly_software</t>
   </si>
   <si>
     <t>(Mandatory) Tool(s) used for assembly, including version number and parameters in the format {software};{version};{parameters} e.g. metaspades;3.11.0;kmer set 21,33,55,77,99,121, default parameters otherwise</t>
@@ -2241,13 +2256,13 @@
     <t>pcr based</t>
   </si>
   <si>
-    <t>WGA amplification approach</t>
+    <t>wga_amplification_approach</t>
   </si>
   <si>
     <t>(Optional) Method used to amplify genomic dna in preparation for sequencing</t>
   </si>
   <si>
-    <t>WGA amplification kit</t>
+    <t>wga_amplification_kit</t>
   </si>
   <si>
     <t>(Optional) Kit used to amplify genomic dna in preparation for sequencing</t>
@@ -2268,7 +2283,7 @@
     <t>optical manipulation</t>
   </si>
   <si>
-    <t>sorting technology</t>
+    <t>sorting_technology</t>
   </si>
   <si>
     <t>(Optional) Method used to sort/isolate cells or particles of interest</t>
@@ -2307,7 +2322,7 @@
     <t>ultrafiltration</t>
   </si>
   <si>
-    <t>virus enrichment approach</t>
+    <t>virus_enrichment_approach</t>
   </si>
   <si>
     <t>(Mandatory) List of approaches used to enrich the sample for viruses, if any</t>
@@ -2322,7 +2337,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
 </sst>
 </file>
@@ -4011,82 +4026,82 @@
         <v>390</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
     </row>
     <row r="2" spans="1:74" ht="150" customHeight="1">
@@ -4235,82 +4250,82 @@
         <v>391</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>
@@ -4322,7 +4337,7 @@
       <formula1>reassemblypostbinning</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB101">
-      <formula1>sourceofUViGs</formula1>
+      <formula1>sourceofuvigs</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC101">
       <formula1>predictedgenometype</formula1>
@@ -4334,7 +4349,7 @@
       <formula1>detectiontype</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ3:AJ101">
-      <formula1>UViGassemblyquality</formula1>
+      <formula1>uvigassemblyquality</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW3:AW101">
       <formula1>geographiclocationcountryandorsea</formula1>
@@ -4346,7 +4361,7 @@
       <formula1>singlecellorviralparticlelysisapproach</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BQ3:BQ101">
-      <formula1>WGAamplificationapproach</formula1>
+      <formula1>wgaamplificationapproach</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS3:BS101">
       <formula1>sortingtechnology</formula1>
@@ -4361,7 +4376,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:BT289"/>
+  <dimension ref="E1:BT294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4393,19 +4408,19 @@
         <v>392</v>
       </c>
       <c r="AZ1" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="BG1" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="BQ1" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BS1" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BT1" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
     </row>
     <row r="2" spans="5:72">
@@ -4434,19 +4449,19 @@
         <v>393</v>
       </c>
       <c r="AZ2" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="BG2" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="BQ2" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BS2" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BT2" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
     </row>
     <row r="3" spans="5:72">
@@ -4469,16 +4484,16 @@
         <v>394</v>
       </c>
       <c r="AZ3" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="BG3" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="BS3" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BT3" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4" spans="5:72">
@@ -4495,16 +4510,16 @@
         <v>395</v>
       </c>
       <c r="AZ4" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="BG4" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="BS4" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BT4" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
     </row>
     <row r="5" spans="5:72">
@@ -4521,13 +4536,13 @@
         <v>396</v>
       </c>
       <c r="AZ5" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="BS5" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BT5" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
     </row>
     <row r="6" spans="5:72">
@@ -4547,7 +4562,7 @@
         <v>116</v>
       </c>
       <c r="BT6" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
     </row>
     <row r="7" spans="5:72">
@@ -4561,10 +4576,10 @@
         <v>398</v>
       </c>
       <c r="AZ7" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="BT7" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
     </row>
     <row r="8" spans="5:72">
@@ -4578,7 +4593,7 @@
         <v>399</v>
       </c>
       <c r="BT8" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
     </row>
     <row r="9" spans="5:72">
@@ -4606,7 +4621,7 @@
         <v>401</v>
       </c>
       <c r="BT10" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
     </row>
     <row r="11" spans="5:72">
@@ -4614,7 +4629,7 @@
         <v>402</v>
       </c>
       <c r="BT11" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="12" spans="5:72">
@@ -4622,7 +4637,7 @@
         <v>403</v>
       </c>
       <c r="BT12" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
     </row>
     <row r="13" spans="5:72">
@@ -6008,6 +6023,31 @@
     <row r="289" spans="49:49">
       <c r="AW289" t="s">
         <v>680</v>
+      </c>
+    </row>
+    <row r="290" spans="49:49">
+      <c r="AW290" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="291" spans="49:49">
+      <c r="AW291" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="292" spans="49:49">
+      <c r="AW292" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="293" spans="49:49">
+      <c r="AW293" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="294" spans="49:49">
+      <c r="AW294" t="s">
+        <v>685</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000049/metadata_template_ERC000049.xlsx
+++ b/templates/ERC000049/metadata_template_ERC000049.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="detectiontype">'cv_sample'!$AE$1:$AE$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AW$1:$AW$294</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AW$1:$AW$289</definedName>
     <definedName name="hostpredictionapproach">'cv_sample'!$AZ$1:$AZ$7</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
@@ -32,18 +32,18 @@
     <definedName name="reassemblypostbinning">'cv_sample'!$X$1:$X$2</definedName>
     <definedName name="singlecellorviralparticlelysisapproach">'cv_sample'!$BG$1:$BG$4</definedName>
     <definedName name="sortingtechnology">'cv_sample'!$BS$1:$BS$6</definedName>
-    <definedName name="sourceofuvigs">'cv_sample'!$AB$1:$AB$10</definedName>
+    <definedName name="sourceofUViGs">'cv_sample'!$AB$1:$AB$10</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
-    <definedName name="uvigassemblyquality">'cv_sample'!$AJ$1:$AJ$3</definedName>
+    <definedName name="UViGassemblyquality">'cv_sample'!$AJ$1:$AJ$3</definedName>
     <definedName name="virusenrichmentapproach">'cv_sample'!$BT$1:$BT$12</definedName>
-    <definedName name="wgaamplificationapproach">'cv_sample'!$BQ$1:$BQ$2</definedName>
+    <definedName name="WGAamplificationapproach">'cv_sample'!$BQ$1:$BQ$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="760">
   <si>
     <t>alias</t>
   </si>
@@ -870,115 +870,115 @@
     <t>symbiont</t>
   </si>
   <si>
-    <t>observed_biotic_relationship</t>
+    <t>observed biotic relationship</t>
   </si>
   <si>
     <t>(Optional) Description of relationship(s) between the subject organism and other organism(s) it is associated with. e.g., parasite on species x; mutualist with species y. the target organism is the subject of the relationship, and the other organism(s) is the object.</t>
   </si>
   <si>
-    <t>known_pathogenicity</t>
+    <t>known pathogenicity</t>
   </si>
   <si>
     <t>(Optional) To what is the entity pathogenic, for instance plant, fungi, bacteria</t>
   </si>
   <si>
-    <t>sample_collection_device</t>
+    <t>sample collection device</t>
   </si>
   <si>
     <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
   </si>
   <si>
-    <t>sample_collection_method</t>
+    <t>sample collection method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>metagenomic_source</t>
+    <t>metagenomic source</t>
   </si>
   <si>
     <t>(Mandatory) The metagenomic source of the sample. this value should contain “metagenome” and be in the taxonomy database e.g. wastewater metagenome or human gut metagenome. please note “metagenome” alone will not be accepted. check here for more details on metagenome taxonomy: https://ena-docs.readthedocs.io/en/latest/faq_taxonomy.html#environmental-taxonomic-classifications</t>
   </si>
   <si>
-    <t>sample_derived_from</t>
+    <t>sample derived from</t>
   </si>
   <si>
     <t>(Mandatory) Reference to parental sample(s) or original run(s) that the assembly is derived from. the referenced samples or runs should already be registered in insdc. this should be formatted as one of the following. a single sample/run e.g. ersxxxxxx or a comma separated list e.g. ersxxxxxx,ersxxxxxx or a range e.g. ersxxxxxx-ersxxxxxx</t>
   </si>
   <si>
-    <t>project_name</t>
+    <t>project name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
   </si>
   <si>
-    <t>estimated_size</t>
+    <t>estimated size</t>
   </si>
   <si>
     <t>(Optional) The estimated size of the genome (in bp) prior to sequencing. of particular importance in the sequencing of (eukaryotic) genome which could remain in draft form for a long or unspecified period. mandatory for migs of eukaryotes.</t>
   </si>
   <si>
-    <t>multiplex_identifiers</t>
+    <t>multiplex identifiers</t>
   </si>
   <si>
     <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
   </si>
   <si>
-    <t>relevant_electronic_resources</t>
+    <t>relevant electronic resources</t>
   </si>
   <si>
     <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>relevant_standard_operating_procedures</t>
+    <t>relevant standard operating procedures</t>
   </si>
   <si>
     <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>number_of_standard_trnas_extracted</t>
+    <t>number of standard tRNAs extracted</t>
   </si>
   <si>
     <t>(Optional) The total number of trnas identified from the bin, sag or mag</t>
   </si>
   <si>
-    <t>feature_prediction</t>
+    <t>feature prediction</t>
   </si>
   <si>
     <t>(Optional) Method used to predict uvigs features such as orfs, integration site, etc. add names and versions of software(s), parameters used</t>
   </si>
   <si>
-    <t>similarity_search_method</t>
+    <t>similarity search method</t>
   </si>
   <si>
     <t>(Optional) Tool used to compare orfs with database, along with version and cutoffs used. add names and versions of software(s), parameters used</t>
   </si>
   <si>
-    <t>trna_extraction_software</t>
+    <t>tRNA extraction software</t>
   </si>
   <si>
     <t>(Optional) Tools used for trna identification. add names and versions of software(s), parameters used</t>
   </si>
   <si>
-    <t>completeness_score</t>
+    <t>completeness score</t>
   </si>
   <si>
     <t>(Optional) Completeness score is typically based on either the fraction of markers found as compared to a database or the percent of a genome found as compared to a closely related reference genome. completeness score is one of 3 attributes which in combination reflect the standard quality of a mag, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html. mandatory for all samples directly linked with sags or mags. (Units: %)</t>
   </si>
   <si>
-    <t>completeness_software</t>
+    <t>completeness software</t>
   </si>
   <si>
     <t>(Optional) Tools used for completion estimate, i.e. checkm, anvi'o, busco. mandatory for all samples directly linked with sags or mags.</t>
   </si>
   <si>
-    <t>completeness_approach</t>
+    <t>completeness approach</t>
   </si>
   <si>
     <t>(Optional) The approach used to determine the completeness of a given bin, sag or mag, which would typically make use of a set of conserved marker genes or a closely related reference genome. for uvig completeness, include reference genome or group used, and contig feature suggesting a complete genome</t>
   </si>
   <si>
-    <t>binning_software</t>
+    <t>binning software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used for the extraction of genomes from metagenomic datasets, where possible include a product id (pid) of the tool(s) used. e.g. metacluster-ta (rrid:scr_004599) or maxbin (biotools:maxbin)</t>
@@ -990,25 +990,25 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>reassembly_post_binning</t>
+    <t>reassembly post binning</t>
   </si>
   <si>
     <t>(Optional) Has an assembly been performed on a genome bin extracted from a metagenomic assembly? (Units: Yes)</t>
   </si>
   <si>
-    <t>mag_coverage_software</t>
+    <t>MAG coverage software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used to determine the genome coverage if coverage is used as a binning parameter in the extraction of genomes from metagenomic datasets e.g. bwa, bbmap, bowtie, other</t>
   </si>
   <si>
-    <t>binning_parameters</t>
+    <t>binning parameters</t>
   </si>
   <si>
     <t>(Optional) The parameters that have been applied during the extraction of genomes from metagenomic datasets e.g. coverage and kmer</t>
   </si>
   <si>
-    <t>taxonomic_identity_marker</t>
+    <t>taxonomic identity marker</t>
   </si>
   <si>
     <t>(Optional) The phylogenetic marker(s) used to assign an organism name to the bin, sag or mag. examples are 16s gene, multi-marker approach or other e.g. rpob gene. mandatory for all samples directly linked with sags or mags.</t>
@@ -1041,7 +1041,7 @@
     <t>viral single amplified genome (vSAG)</t>
   </si>
   <si>
-    <t>source_of_uvigs</t>
+    <t>source of UViGs</t>
   </si>
   <si>
     <t>(Mandatory) Type of dataset from which the uvig was obtained</t>
@@ -1077,7 +1077,7 @@
     <t>uncharacterized</t>
   </si>
   <si>
-    <t>predicted_genome_type</t>
+    <t>predicted genome type</t>
   </si>
   <si>
     <t>(Mandatory) Type of genome predicted for the uvig</t>
@@ -1092,7 +1092,7 @@
     <t>undetermined</t>
   </si>
   <si>
-    <t>predicted_genome_structure</t>
+    <t>predicted genome structure</t>
   </si>
   <si>
     <t>(Mandatory) Expected structure of the viral genome</t>
@@ -1104,31 +1104,31 @@
     <t>provirus (UpViG)</t>
   </si>
   <si>
-    <t>detection_type</t>
+    <t>detection type</t>
   </si>
   <si>
     <t>(Mandatory) Type of uvig detection</t>
   </si>
   <si>
-    <t>viral_identification_software</t>
+    <t>viral identification software</t>
   </si>
   <si>
     <t>(Mandatory) Tool(s) used for the identification of uvig as a viral genome, software or protocol name including version number, parameters, and cutoffs used formatted {software};{version};{parameters} e.g. virsorter; 1.0.4; virome database, category 2</t>
   </si>
   <si>
-    <t>otu_classification_approach</t>
+    <t>OTU classification approach</t>
   </si>
   <si>
     <t>(Optional) Cutoffs and approach used when clustering “species-level” otus. note that results from standard 95% ani / 85% af clustering should be provided alongside otus defined from another set of thresholds, even if the latter are the ones primarily used during the analysis. this should be formatted {ani cutoff};{af cutoff};{clustering method} e.g. 95% ani;85% af; greedy incremental clustering</t>
   </si>
   <si>
-    <t>otu_sequence_comparison_approach</t>
+    <t>OTU sequence comparison approach</t>
   </si>
   <si>
     <t>(Optional) Tool and thresholds used to compare sequences when computing "species-level" otus formatted: {software};{version};{parameters} e.g. gblastn;2.6.0+;e-value cutoff: 0.001</t>
   </si>
   <si>
-    <t>otu_database</t>
+    <t>OTU database</t>
   </si>
   <si>
     <t>(Optional) Reference database (i.e. sequences not generated as part of the current study) used to cluster new genomes in "species-level" otus, if any. this should be formatted: {database};{version} e.g. ncbi viral refseq;83</t>
@@ -1143,7 +1143,7 @@
     <t>Single, validated, contiguous sequence per replicon without gaps or ambiguities, with extensive manual review and editing to annotate putative gene functions and transcriptional units</t>
   </si>
   <si>
-    <t>uvig_assembly_quality</t>
+    <t>UViG assembly quality</t>
   </si>
   <si>
     <t>(Mandatory) Uvig assembly quality is one of 3 attributes which in combination reflect the standard quality of a uvig, see here for more information: https://ena-docs.readthedocs.io/en/latest/faq_metagenomes.html.</t>
@@ -1155,7 +1155,7 @@
     <t>(Mandatory) Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -1167,37 +1167,37 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic_location_latitude</t>
+    <t>geographic location (latitude)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_longitude</t>
+    <t>geographic location (longitude)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_region_and_locality</t>
+    <t>geographic location (region and locality)</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>broadscale_environmental_context</t>
+    <t>broad-scale environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local_environmental_context</t>
+    <t>local environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental_medium</t>
+    <t>environmental medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
@@ -1209,13 +1209,13 @@
     <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
-    <t>amount_or_size_of_sample_collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
-  </si>
-  <si>
-    <t>size_fraction_selected</t>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>size fraction selected</t>
   </si>
   <si>
     <t>(Optional) Filtering pore size used in sample preparation e.g. 0-0.22 micrometer</t>
@@ -1434,6 +1434,9 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>East Timor</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1452,9 +1455,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1656,9 +1656,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1668,6 +1665,9 @@
     <t>Macau</t>
   </si>
   <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1707,7 +1707,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
+    <t>Micronesia</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1776,9 +1776,6 @@
     <t>North Korea</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1854,9 +1851,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1878,9 +1872,6 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1926,9 +1917,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1941,9 +1929,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1953,6 +1938,9 @@
     <t>Svalbard</t>
   </si>
   <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1977,9 +1965,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2040,12 +2025,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
     <t>Wake Island</t>
   </si>
   <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2103,19 +2088,19 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>host_scientific_name</t>
+    <t>host scientific name</t>
   </si>
   <si>
     <t>(Optional) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
   </si>
   <si>
-    <t>source_material_identifiers</t>
+    <t>source material identifiers</t>
   </si>
   <si>
     <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
@@ -2139,43 +2124,43 @@
     <t>provirus</t>
   </si>
   <si>
-    <t>host_prediction_approach</t>
+    <t>host prediction approach</t>
   </si>
   <si>
     <t>(Optional) Tool or approach used for host prediction</t>
   </si>
   <si>
-    <t>host_prediction_estimated_accuracy</t>
+    <t>host prediction estimated accuracy</t>
   </si>
   <si>
     <t>(Optional) For each tool or approach used for host prediction, estimated false discovery rates should be included, either computed de novo or from the literature</t>
   </si>
   <si>
-    <t>experimental_factor</t>
+    <t>experimental factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
-    <t>taxonomic_classification</t>
+    <t>taxonomic classification</t>
   </si>
   <si>
     <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
   </si>
   <si>
-    <t>annotation_source</t>
+    <t>annotation source</t>
   </si>
   <si>
     <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
   </si>
   <si>
-    <t>reference_for_biomaterial</t>
+    <t>reference for biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>reference_databases</t>
+    <t>reference database(s)</t>
   </si>
   <si>
     <t>(Optional) List of database(s) used for orf annotation, along with version number and reference to website or publication</t>
@@ -2190,61 +2175,61 @@
     <t>physical</t>
   </si>
   <si>
-    <t>single_cell_or_viral_particle_lysis_approach</t>
+    <t>single cell or viral particle lysis approach</t>
   </si>
   <si>
     <t>(Optional) Method used to free dna from interior of the cell(s) or particle(s)</t>
   </si>
   <si>
-    <t>single_cell_or_viral_particle_lysis_kit_protocol</t>
+    <t>single cell or viral particle lysis kit protocol</t>
   </si>
   <si>
     <t>(Optional) Name of the kit or standard protocol used for cell(s) or particle(s) lysis</t>
   </si>
   <si>
-    <t>sample_material_processing</t>
+    <t>sample material processing</t>
   </si>
   <si>
     <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
-    <t>nucleic_acid_extraction</t>
+    <t>nucleic acid extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>nucleic_acid_amplification</t>
+    <t>nucleic acid amplification</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the enzymatic amplification (pcr, tma, nasba) of specific nucleic acids</t>
   </si>
   <si>
-    <t>library_size</t>
+    <t>library size</t>
   </si>
   <si>
     <t>(Optional) Total number of clones in the library prepared for the project</t>
   </si>
   <si>
-    <t>library_reads_sequenced</t>
+    <t>library reads sequenced</t>
   </si>
   <si>
     <t>(Optional) Total number of clones sequenced from the library</t>
   </si>
   <si>
-    <t>library_vector</t>
+    <t>library vector</t>
   </si>
   <si>
     <t>(Optional) Cloning vector type(s) used in construction of libraries</t>
   </si>
   <si>
-    <t>library_screening_strategy</t>
+    <t>library screening strategy</t>
   </si>
   <si>
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>assembly_software</t>
+    <t>assembly software</t>
   </si>
   <si>
     <t>(Mandatory) Tool(s) used for assembly, including version number and parameters in the format {software};{version};{parameters} e.g. metaspades;3.11.0;kmer set 21,33,55,77,99,121, default parameters otherwise</t>
@@ -2256,13 +2241,13 @@
     <t>pcr based</t>
   </si>
   <si>
-    <t>wga_amplification_approach</t>
+    <t>WGA amplification approach</t>
   </si>
   <si>
     <t>(Optional) Method used to amplify genomic dna in preparation for sequencing</t>
   </si>
   <si>
-    <t>wga_amplification_kit</t>
+    <t>WGA amplification kit</t>
   </si>
   <si>
     <t>(Optional) Kit used to amplify genomic dna in preparation for sequencing</t>
@@ -2283,7 +2268,7 @@
     <t>optical manipulation</t>
   </si>
   <si>
-    <t>sorting_technology</t>
+    <t>sorting technology</t>
   </si>
   <si>
     <t>(Optional) Method used to sort/isolate cells or particles of interest</t>
@@ -2322,7 +2307,7 @@
     <t>ultrafiltration</t>
   </si>
   <si>
-    <t>virus_enrichment_approach</t>
+    <t>virus enrichment approach</t>
   </si>
   <si>
     <t>(Mandatory) List of approaches used to enrich the sample for viruses, if any</t>
@@ -2337,7 +2322,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
   </si>
 </sst>
 </file>
@@ -4026,82 +4011,82 @@
         <v>390</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="BF1" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="BG1" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="BG1" s="1" t="s">
-        <v>715</v>
-      </c>
       <c r="BH1" s="1" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:74" ht="150" customHeight="1">
@@ -4250,82 +4235,82 @@
         <v>391</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="BF2" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="BG2" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="BG2" s="2" t="s">
-        <v>716</v>
-      </c>
       <c r="BH2" s="2" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
   </sheetData>
@@ -4337,7 +4322,7 @@
       <formula1>reassemblypostbinning</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB101">
-      <formula1>sourceofuvigs</formula1>
+      <formula1>sourceofUViGs</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC101">
       <formula1>predictedgenometype</formula1>
@@ -4349,7 +4334,7 @@
       <formula1>detectiontype</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ3:AJ101">
-      <formula1>uvigassemblyquality</formula1>
+      <formula1>UViGassemblyquality</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW3:AW101">
       <formula1>geographiclocationcountryandorsea</formula1>
@@ -4361,7 +4346,7 @@
       <formula1>singlecellorviralparticlelysisapproach</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BQ3:BQ101">
-      <formula1>wgaamplificationapproach</formula1>
+      <formula1>WGAamplificationapproach</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS3:BS101">
       <formula1>sortingtechnology</formula1>
@@ -4376,7 +4361,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:BT294"/>
+  <dimension ref="E1:BT289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4408,19 +4393,19 @@
         <v>392</v>
       </c>
       <c r="AZ1" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="BG1" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="BQ1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="BS1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="BT1" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="2" spans="5:72">
@@ -4449,19 +4434,19 @@
         <v>393</v>
       </c>
       <c r="AZ2" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="BG2" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="BQ2" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="BS2" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="BT2" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="3" spans="5:72">
@@ -4484,16 +4469,16 @@
         <v>394</v>
       </c>
       <c r="AZ3" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="BG3" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="BS3" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="BT3" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="4" spans="5:72">
@@ -4510,16 +4495,16 @@
         <v>395</v>
       </c>
       <c r="AZ4" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="BG4" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="BS4" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="BT4" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="5" spans="5:72">
@@ -4536,13 +4521,13 @@
         <v>396</v>
       </c>
       <c r="AZ5" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="BS5" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="BT5" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="6" spans="5:72">
@@ -4562,7 +4547,7 @@
         <v>116</v>
       </c>
       <c r="BT6" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="7" spans="5:72">
@@ -4576,10 +4561,10 @@
         <v>398</v>
       </c>
       <c r="AZ7" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="BT7" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="8" spans="5:72">
@@ -4593,7 +4578,7 @@
         <v>399</v>
       </c>
       <c r="BT8" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="9" spans="5:72">
@@ -4621,7 +4606,7 @@
         <v>401</v>
       </c>
       <c r="BT10" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="11" spans="5:72">
@@ -4629,7 +4614,7 @@
         <v>402</v>
       </c>
       <c r="BT11" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="12" spans="5:72">
@@ -4637,7 +4622,7 @@
         <v>403</v>
       </c>
       <c r="BT12" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="13" spans="5:72">
@@ -6023,31 +6008,6 @@
     <row r="289" spans="49:49">
       <c r="AW289" t="s">
         <v>680</v>
-      </c>
-    </row>
-    <row r="290" spans="49:49">
-      <c r="AW290" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="291" spans="49:49">
-      <c r="AW291" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="292" spans="49:49">
-      <c r="AW292" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="293" spans="49:49">
-      <c r="AW293" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="294" spans="49:49">
-      <c r="AW294" t="s">
-        <v>685</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000049/metadata_template_ERC000049.xlsx
+++ b/templates/ERC000049/metadata_template_ERC000049.xlsx
@@ -17,33 +17,33 @@
     <sheet name="cv_sample" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="detectiontype">'cv_sample'!$AE$1:$AE$2</definedName>
+    <definedName name="detectiontype">'cv_sample'!$AG$1:$AG$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AW$1:$AW$289</definedName>
-    <definedName name="hostpredictionapproach">'cv_sample'!$AZ$1:$AZ$7</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AY$1:$AY$289</definedName>
+    <definedName name="hostpredictionapproach">'cv_sample'!$BB$1:$BB$7</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="observedbioticrelationship">'cv_sample'!$E$1:$E$5</definedName>
+    <definedName name="observedbioticrelationship">'cv_sample'!$G$1:$G$5</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="predictedgenomestructure">'cv_sample'!$AD$1:$AD$3</definedName>
-    <definedName name="predictedgenometype">'cv_sample'!$AC$1:$AC$10</definedName>
-    <definedName name="reassemblypostbinning">'cv_sample'!$X$1:$X$2</definedName>
-    <definedName name="singlecellorviralparticlelysisapproach">'cv_sample'!$BG$1:$BG$4</definedName>
-    <definedName name="sortingtechnology">'cv_sample'!$BS$1:$BS$6</definedName>
-    <definedName name="sourceofUViGs">'cv_sample'!$AB$1:$AB$10</definedName>
+    <definedName name="predictedgenomestructure">'cv_sample'!$AF$1:$AF$3</definedName>
+    <definedName name="predictedgenometype">'cv_sample'!$AE$1:$AE$10</definedName>
+    <definedName name="reassemblypostbinning">'cv_sample'!$Z$1:$Z$2</definedName>
+    <definedName name="singlecellorviralparticlelysisapproach">'cv_sample'!$BI$1:$BI$4</definedName>
+    <definedName name="sortingtechnology">'cv_sample'!$BU$1:$BU$6</definedName>
+    <definedName name="sourceofUViGs">'cv_sample'!$AD$1:$AD$10</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
-    <definedName name="UViGassemblyquality">'cv_sample'!$AJ$1:$AJ$3</definedName>
-    <definedName name="virusenrichmentapproach">'cv_sample'!$BT$1:$BT$12</definedName>
-    <definedName name="WGAamplificationapproach">'cv_sample'!$BQ$1:$BQ$2</definedName>
+    <definedName name="UViGassemblyquality">'cv_sample'!$AL$1:$AL$3</definedName>
+    <definedName name="virusenrichmentapproach">'cv_sample'!$BV$1:$BV$12</definedName>
+    <definedName name="WGAamplificationapproach">'cv_sample'!$BS$1:$BS$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="764">
   <si>
     <t>alias</t>
   </si>
@@ -847,6 +847,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -3856,7 +3868,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BV2"/>
+  <dimension ref="A1:BX2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3865,7 +3877,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74">
+    <row r="1" spans="1:76">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3879,10 +3891,10 @@
         <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>279</v>
@@ -3936,10 +3948,10 @@
         <v>311</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>319</v>
@@ -3948,19 +3960,19 @@
         <v>321</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>357</v>
@@ -3972,10 +3984,10 @@
         <v>361</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>370</v>
@@ -4011,19 +4023,19 @@
         <v>390</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>681</v>
+        <v>392</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>683</v>
+        <v>394</v>
       </c>
       <c r="AY1" s="1" t="s">
         <v>685</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="BB1" s="1" t="s">
         <v>697</v>
@@ -4041,10 +4053,10 @@
         <v>705</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="BI1" s="1" t="s">
         <v>714</v>
@@ -4071,25 +4083,31 @@
         <v>728</v>
       </c>
       <c r="BQ1" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="BR1" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="BR1" s="1" t="s">
-        <v>734</v>
-      </c>
       <c r="BS1" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="BV1" s="1" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="2" spans="1:74" ht="150" customHeight="1">
+      <c r="BW1" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="2" spans="1:76" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -4103,10 +4121,10 @@
         <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>280</v>
@@ -4160,10 +4178,10 @@
         <v>312</v>
       </c>
       <c r="X2" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>320</v>
@@ -4172,19 +4190,19 @@
         <v>322</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AE2" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>358</v>
@@ -4196,10 +4214,10 @@
         <v>362</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>371</v>
@@ -4235,19 +4253,19 @@
         <v>391</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>682</v>
+        <v>393</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>684</v>
+        <v>395</v>
       </c>
       <c r="AY2" s="2" t="s">
         <v>686</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="BB2" s="2" t="s">
         <v>698</v>
@@ -4265,10 +4283,10 @@
         <v>706</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="BI2" s="2" t="s">
         <v>715</v>
@@ -4295,63 +4313,69 @@
         <v>729</v>
       </c>
       <c r="BQ2" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="BR2" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="BR2" s="2" t="s">
-        <v>735</v>
-      </c>
       <c r="BS2" s="2" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="BV2" s="2" t="s">
         <v>759</v>
       </c>
+      <c r="BW2" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>763</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="13">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G101">
       <formula1>observedbioticrelationship</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z101">
       <formula1>reassemblypostbinning</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD3:AD101">
       <formula1>sourceofUViGs</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE3:AE101">
       <formula1>predictedgenometype</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD3:AD101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF3:AF101">
       <formula1>predictedgenomestructure</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE3:AE101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG3:AG101">
       <formula1>detectiontype</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ3:AJ101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL3:AL101">
       <formula1>UViGassemblyquality</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW3:AW101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY3:AY101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ3:AZ101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB3:BB101">
       <formula1>hostpredictionapproach</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BG3:BG101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI3:BI101">
       <formula1>singlecellorviralparticlelysisapproach</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BQ3:BQ101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS3:BS101">
       <formula1>WGAamplificationapproach</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS3:BS101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU3:BU101">
       <formula1>sortingtechnology</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT3:BT101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BV3:BV101">
       <formula1>virusenrichmentapproach</formula1>
     </dataValidation>
   </dataValidations>
@@ -4361,1653 +4385,1653 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:BT289"/>
+  <dimension ref="G1:BV289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="5:72">
-      <c r="E1" t="s">
-        <v>270</v>
-      </c>
-      <c r="X1" t="s">
-        <v>313</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AC1" t="s">
+    <row r="1" spans="7:74">
+      <c r="G1" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>350</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>355</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>396</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>691</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>711</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>734</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>740</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2" spans="7:74">
+      <c r="G2" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>318</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>339</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>351</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>356</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>368</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>397</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>692</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>693</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>735</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>741</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="3" spans="7:74">
+      <c r="G3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>329</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>340</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>352</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>369</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>398</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>693</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>712</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>742</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="4" spans="7:74">
+      <c r="G4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>399</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>694</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>713</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>743</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="5" spans="7:74">
+      <c r="G5" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>342</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>400</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>695</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>744</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="6" spans="7:74">
+      <c r="AD6" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>343</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>401</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>116</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="7" spans="7:74">
+      <c r="AD7" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>344</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>402</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>696</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="8" spans="7:74">
+      <c r="AD8" t="s">
+        <v>333</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>345</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>403</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="9" spans="7:74">
+      <c r="AD9" t="s">
         <v>334</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE9" t="s">
         <v>346</v>
       </c>
-      <c r="AE1" t="s">
-        <v>351</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>363</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>392</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>687</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>707</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>730</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>736</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="2" spans="5:72">
-      <c r="E2" t="s">
-        <v>271</v>
-      </c>
-      <c r="X2" t="s">
-        <v>314</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>324</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AY9" t="s">
+        <v>404</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="7:74">
+      <c r="AD10" t="s">
         <v>335</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE10" t="s">
         <v>347</v>
       </c>
-      <c r="AE2" t="s">
-        <v>352</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>364</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>393</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>688</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>689</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>731</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>737</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="3" spans="5:72">
-      <c r="E3" t="s">
-        <v>272</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>325</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>336</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>348</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>365</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>394</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>689</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>708</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>738</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="4" spans="5:72">
-      <c r="E4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>326</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>337</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>395</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>690</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>709</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>739</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="5" spans="5:72">
-      <c r="E5" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>338</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>396</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>691</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>740</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="6" spans="5:72">
-      <c r="AB6" t="s">
-        <v>327</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>339</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>397</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>116</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>116</v>
-      </c>
-      <c r="BT6" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="7" spans="5:72">
-      <c r="AB7" t="s">
-        <v>328</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>340</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>398</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>692</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="8" spans="5:72">
-      <c r="AB8" t="s">
-        <v>329</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>341</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>399</v>
-      </c>
-      <c r="BT8" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="9" spans="5:72">
-      <c r="AB9" t="s">
-        <v>330</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>342</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>400</v>
-      </c>
-      <c r="BT9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="5:72">
-      <c r="AB10" t="s">
-        <v>331</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>343</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>401</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="11" spans="5:72">
-      <c r="AW11" t="s">
-        <v>402</v>
-      </c>
-      <c r="BT11" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="12" spans="5:72">
-      <c r="AW12" t="s">
-        <v>403</v>
-      </c>
-      <c r="BT12" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="13" spans="5:72">
-      <c r="AW13" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="14" spans="5:72">
-      <c r="AW14" t="s">
+      <c r="AY10" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="15" spans="5:72">
-      <c r="AW15" t="s">
+      <c r="BV10" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="11" spans="7:74">
+      <c r="AY11" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="16" spans="5:72">
-      <c r="AW16" t="s">
+      <c r="BV11" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="12" spans="7:74">
+      <c r="AY12" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="17" spans="49:49">
-      <c r="AW17" t="s">
+      <c r="BV12" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="13" spans="7:74">
+      <c r="AY13" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="18" spans="49:49">
-      <c r="AW18" t="s">
+    <row r="14" spans="7:74">
+      <c r="AY14" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="19" spans="49:49">
-      <c r="AW19" t="s">
+    <row r="15" spans="7:74">
+      <c r="AY15" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="20" spans="49:49">
-      <c r="AW20" t="s">
+    <row r="16" spans="7:74">
+      <c r="AY16" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="21" spans="49:49">
-      <c r="AW21" t="s">
+    <row r="17" spans="51:51">
+      <c r="AY17" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="22" spans="49:49">
-      <c r="AW22" t="s">
+    <row r="18" spans="51:51">
+      <c r="AY18" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="23" spans="49:49">
-      <c r="AW23" t="s">
+    <row r="19" spans="51:51">
+      <c r="AY19" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="24" spans="49:49">
-      <c r="AW24" t="s">
+    <row r="20" spans="51:51">
+      <c r="AY20" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="25" spans="49:49">
-      <c r="AW25" t="s">
+    <row r="21" spans="51:51">
+      <c r="AY21" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="26" spans="49:49">
-      <c r="AW26" t="s">
+    <row r="22" spans="51:51">
+      <c r="AY22" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="27" spans="49:49">
-      <c r="AW27" t="s">
+    <row r="23" spans="51:51">
+      <c r="AY23" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="28" spans="49:49">
-      <c r="AW28" t="s">
+    <row r="24" spans="51:51">
+      <c r="AY24" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="29" spans="49:49">
-      <c r="AW29" t="s">
+    <row r="25" spans="51:51">
+      <c r="AY25" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="30" spans="49:49">
-      <c r="AW30" t="s">
+    <row r="26" spans="51:51">
+      <c r="AY26" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="31" spans="49:49">
-      <c r="AW31" t="s">
+    <row r="27" spans="51:51">
+      <c r="AY27" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="32" spans="49:49">
-      <c r="AW32" t="s">
+    <row r="28" spans="51:51">
+      <c r="AY28" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="33" spans="49:49">
-      <c r="AW33" t="s">
+    <row r="29" spans="51:51">
+      <c r="AY29" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="34" spans="49:49">
-      <c r="AW34" t="s">
+    <row r="30" spans="51:51">
+      <c r="AY30" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="35" spans="49:49">
-      <c r="AW35" t="s">
+    <row r="31" spans="51:51">
+      <c r="AY31" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="36" spans="49:49">
-      <c r="AW36" t="s">
+    <row r="32" spans="51:51">
+      <c r="AY32" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="37" spans="49:49">
-      <c r="AW37" t="s">
+    <row r="33" spans="51:51">
+      <c r="AY33" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="38" spans="49:49">
-      <c r="AW38" t="s">
+    <row r="34" spans="51:51">
+      <c r="AY34" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="39" spans="49:49">
-      <c r="AW39" t="s">
+    <row r="35" spans="51:51">
+      <c r="AY35" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="40" spans="49:49">
-      <c r="AW40" t="s">
+    <row r="36" spans="51:51">
+      <c r="AY36" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="41" spans="49:49">
-      <c r="AW41" t="s">
+    <row r="37" spans="51:51">
+      <c r="AY37" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="42" spans="49:49">
-      <c r="AW42" t="s">
+    <row r="38" spans="51:51">
+      <c r="AY38" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="43" spans="49:49">
-      <c r="AW43" t="s">
+    <row r="39" spans="51:51">
+      <c r="AY39" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="44" spans="49:49">
-      <c r="AW44" t="s">
+    <row r="40" spans="51:51">
+      <c r="AY40" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="45" spans="49:49">
-      <c r="AW45" t="s">
+    <row r="41" spans="51:51">
+      <c r="AY41" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="46" spans="49:49">
-      <c r="AW46" t="s">
+    <row r="42" spans="51:51">
+      <c r="AY42" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="47" spans="49:49">
-      <c r="AW47" t="s">
+    <row r="43" spans="51:51">
+      <c r="AY43" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="48" spans="49:49">
-      <c r="AW48" t="s">
+    <row r="44" spans="51:51">
+      <c r="AY44" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="49" spans="49:49">
-      <c r="AW49" t="s">
+    <row r="45" spans="51:51">
+      <c r="AY45" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="50" spans="49:49">
-      <c r="AW50" t="s">
+    <row r="46" spans="51:51">
+      <c r="AY46" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="51" spans="49:49">
-      <c r="AW51" t="s">
+    <row r="47" spans="51:51">
+      <c r="AY47" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="52" spans="49:49">
-      <c r="AW52" t="s">
+    <row r="48" spans="51:51">
+      <c r="AY48" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="53" spans="49:49">
-      <c r="AW53" t="s">
+    <row r="49" spans="51:51">
+      <c r="AY49" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="54" spans="49:49">
-      <c r="AW54" t="s">
+    <row r="50" spans="51:51">
+      <c r="AY50" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="55" spans="49:49">
-      <c r="AW55" t="s">
+    <row r="51" spans="51:51">
+      <c r="AY51" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="56" spans="49:49">
-      <c r="AW56" t="s">
+    <row r="52" spans="51:51">
+      <c r="AY52" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="57" spans="49:49">
-      <c r="AW57" t="s">
+    <row r="53" spans="51:51">
+      <c r="AY53" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="58" spans="49:49">
-      <c r="AW58" t="s">
+    <row r="54" spans="51:51">
+      <c r="AY54" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="59" spans="49:49">
-      <c r="AW59" t="s">
+    <row r="55" spans="51:51">
+      <c r="AY55" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="60" spans="49:49">
-      <c r="AW60" t="s">
+    <row r="56" spans="51:51">
+      <c r="AY56" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="61" spans="49:49">
-      <c r="AW61" t="s">
+    <row r="57" spans="51:51">
+      <c r="AY57" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="62" spans="49:49">
-      <c r="AW62" t="s">
+    <row r="58" spans="51:51">
+      <c r="AY58" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="63" spans="49:49">
-      <c r="AW63" t="s">
+    <row r="59" spans="51:51">
+      <c r="AY59" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="64" spans="49:49">
-      <c r="AW64" t="s">
+    <row r="60" spans="51:51">
+      <c r="AY60" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="65" spans="49:49">
-      <c r="AW65" t="s">
+    <row r="61" spans="51:51">
+      <c r="AY61" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="66" spans="49:49">
-      <c r="AW66" t="s">
+    <row r="62" spans="51:51">
+      <c r="AY62" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="67" spans="49:49">
-      <c r="AW67" t="s">
+    <row r="63" spans="51:51">
+      <c r="AY63" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="68" spans="49:49">
-      <c r="AW68" t="s">
+    <row r="64" spans="51:51">
+      <c r="AY64" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="69" spans="49:49">
-      <c r="AW69" t="s">
+    <row r="65" spans="51:51">
+      <c r="AY65" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="70" spans="49:49">
-      <c r="AW70" t="s">
+    <row r="66" spans="51:51">
+      <c r="AY66" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="71" spans="49:49">
-      <c r="AW71" t="s">
+    <row r="67" spans="51:51">
+      <c r="AY67" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="72" spans="49:49">
-      <c r="AW72" t="s">
+    <row r="68" spans="51:51">
+      <c r="AY68" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="73" spans="49:49">
-      <c r="AW73" t="s">
+    <row r="69" spans="51:51">
+      <c r="AY69" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="74" spans="49:49">
-      <c r="AW74" t="s">
+    <row r="70" spans="51:51">
+      <c r="AY70" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="75" spans="49:49">
-      <c r="AW75" t="s">
+    <row r="71" spans="51:51">
+      <c r="AY71" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="76" spans="49:49">
-      <c r="AW76" t="s">
+    <row r="72" spans="51:51">
+      <c r="AY72" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="77" spans="49:49">
-      <c r="AW77" t="s">
+    <row r="73" spans="51:51">
+      <c r="AY73" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="78" spans="49:49">
-      <c r="AW78" t="s">
+    <row r="74" spans="51:51">
+      <c r="AY74" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="79" spans="49:49">
-      <c r="AW79" t="s">
+    <row r="75" spans="51:51">
+      <c r="AY75" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="80" spans="49:49">
-      <c r="AW80" t="s">
+    <row r="76" spans="51:51">
+      <c r="AY76" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="81" spans="49:49">
-      <c r="AW81" t="s">
+    <row r="77" spans="51:51">
+      <c r="AY77" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="82" spans="49:49">
-      <c r="AW82" t="s">
+    <row r="78" spans="51:51">
+      <c r="AY78" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="83" spans="49:49">
-      <c r="AW83" t="s">
+    <row r="79" spans="51:51">
+      <c r="AY79" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="84" spans="49:49">
-      <c r="AW84" t="s">
+    <row r="80" spans="51:51">
+      <c r="AY80" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="85" spans="49:49">
-      <c r="AW85" t="s">
+    <row r="81" spans="51:51">
+      <c r="AY81" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="86" spans="49:49">
-      <c r="AW86" t="s">
+    <row r="82" spans="51:51">
+      <c r="AY82" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="87" spans="49:49">
-      <c r="AW87" t="s">
+    <row r="83" spans="51:51">
+      <c r="AY83" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="88" spans="49:49">
-      <c r="AW88" t="s">
+    <row r="84" spans="51:51">
+      <c r="AY84" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="89" spans="49:49">
-      <c r="AW89" t="s">
+    <row r="85" spans="51:51">
+      <c r="AY85" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="90" spans="49:49">
-      <c r="AW90" t="s">
+    <row r="86" spans="51:51">
+      <c r="AY86" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="91" spans="49:49">
-      <c r="AW91" t="s">
+    <row r="87" spans="51:51">
+      <c r="AY87" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="92" spans="49:49">
-      <c r="AW92" t="s">
+    <row r="88" spans="51:51">
+      <c r="AY88" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="93" spans="49:49">
-      <c r="AW93" t="s">
+    <row r="89" spans="51:51">
+      <c r="AY89" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="94" spans="49:49">
-      <c r="AW94" t="s">
+    <row r="90" spans="51:51">
+      <c r="AY90" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="95" spans="49:49">
-      <c r="AW95" t="s">
+    <row r="91" spans="51:51">
+      <c r="AY91" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="96" spans="49:49">
-      <c r="AW96" t="s">
+    <row r="92" spans="51:51">
+      <c r="AY92" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="97" spans="49:49">
-      <c r="AW97" t="s">
+    <row r="93" spans="51:51">
+      <c r="AY93" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="98" spans="49:49">
-      <c r="AW98" t="s">
+    <row r="94" spans="51:51">
+      <c r="AY94" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="99" spans="49:49">
-      <c r="AW99" t="s">
+    <row r="95" spans="51:51">
+      <c r="AY95" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="100" spans="49:49">
-      <c r="AW100" t="s">
+    <row r="96" spans="51:51">
+      <c r="AY96" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="101" spans="49:49">
-      <c r="AW101" t="s">
+    <row r="97" spans="51:51">
+      <c r="AY97" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="102" spans="49:49">
-      <c r="AW102" t="s">
+    <row r="98" spans="51:51">
+      <c r="AY98" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="103" spans="49:49">
-      <c r="AW103" t="s">
+    <row r="99" spans="51:51">
+      <c r="AY99" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="104" spans="49:49">
-      <c r="AW104" t="s">
+    <row r="100" spans="51:51">
+      <c r="AY100" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="105" spans="49:49">
-      <c r="AW105" t="s">
+    <row r="101" spans="51:51">
+      <c r="AY101" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="106" spans="49:49">
-      <c r="AW106" t="s">
+    <row r="102" spans="51:51">
+      <c r="AY102" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="107" spans="49:49">
-      <c r="AW107" t="s">
+    <row r="103" spans="51:51">
+      <c r="AY103" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="108" spans="49:49">
-      <c r="AW108" t="s">
+    <row r="104" spans="51:51">
+      <c r="AY104" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="109" spans="49:49">
-      <c r="AW109" t="s">
+    <row r="105" spans="51:51">
+      <c r="AY105" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="110" spans="49:49">
-      <c r="AW110" t="s">
+    <row r="106" spans="51:51">
+      <c r="AY106" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="111" spans="49:49">
-      <c r="AW111" t="s">
+    <row r="107" spans="51:51">
+      <c r="AY107" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="112" spans="49:49">
-      <c r="AW112" t="s">
+    <row r="108" spans="51:51">
+      <c r="AY108" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="113" spans="49:49">
-      <c r="AW113" t="s">
+    <row r="109" spans="51:51">
+      <c r="AY109" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="114" spans="49:49">
-      <c r="AW114" t="s">
+    <row r="110" spans="51:51">
+      <c r="AY110" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="115" spans="49:49">
-      <c r="AW115" t="s">
+    <row r="111" spans="51:51">
+      <c r="AY111" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="116" spans="49:49">
-      <c r="AW116" t="s">
+    <row r="112" spans="51:51">
+      <c r="AY112" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="117" spans="49:49">
-      <c r="AW117" t="s">
+    <row r="113" spans="51:51">
+      <c r="AY113" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="118" spans="49:49">
-      <c r="AW118" t="s">
+    <row r="114" spans="51:51">
+      <c r="AY114" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="119" spans="49:49">
-      <c r="AW119" t="s">
+    <row r="115" spans="51:51">
+      <c r="AY115" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="120" spans="49:49">
-      <c r="AW120" t="s">
+    <row r="116" spans="51:51">
+      <c r="AY116" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="121" spans="49:49">
-      <c r="AW121" t="s">
+    <row r="117" spans="51:51">
+      <c r="AY117" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="122" spans="49:49">
-      <c r="AW122" t="s">
+    <row r="118" spans="51:51">
+      <c r="AY118" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="123" spans="49:49">
-      <c r="AW123" t="s">
+    <row r="119" spans="51:51">
+      <c r="AY119" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="124" spans="49:49">
-      <c r="AW124" t="s">
+    <row r="120" spans="51:51">
+      <c r="AY120" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="125" spans="49:49">
-      <c r="AW125" t="s">
+    <row r="121" spans="51:51">
+      <c r="AY121" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="126" spans="49:49">
-      <c r="AW126" t="s">
+    <row r="122" spans="51:51">
+      <c r="AY122" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="127" spans="49:49">
-      <c r="AW127" t="s">
+    <row r="123" spans="51:51">
+      <c r="AY123" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="128" spans="49:49">
-      <c r="AW128" t="s">
+    <row r="124" spans="51:51">
+      <c r="AY124" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="129" spans="49:49">
-      <c r="AW129" t="s">
+    <row r="125" spans="51:51">
+      <c r="AY125" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="130" spans="49:49">
-      <c r="AW130" t="s">
+    <row r="126" spans="51:51">
+      <c r="AY126" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="131" spans="49:49">
-      <c r="AW131" t="s">
+    <row r="127" spans="51:51">
+      <c r="AY127" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="132" spans="49:49">
-      <c r="AW132" t="s">
+    <row r="128" spans="51:51">
+      <c r="AY128" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="133" spans="49:49">
-      <c r="AW133" t="s">
+    <row r="129" spans="51:51">
+      <c r="AY129" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="134" spans="49:49">
-      <c r="AW134" t="s">
+    <row r="130" spans="51:51">
+      <c r="AY130" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="135" spans="49:49">
-      <c r="AW135" t="s">
+    <row r="131" spans="51:51">
+      <c r="AY131" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="136" spans="49:49">
-      <c r="AW136" t="s">
+    <row r="132" spans="51:51">
+      <c r="AY132" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="137" spans="49:49">
-      <c r="AW137" t="s">
+    <row r="133" spans="51:51">
+      <c r="AY133" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="138" spans="49:49">
-      <c r="AW138" t="s">
+    <row r="134" spans="51:51">
+      <c r="AY134" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="139" spans="49:49">
-      <c r="AW139" t="s">
+    <row r="135" spans="51:51">
+      <c r="AY135" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="140" spans="49:49">
-      <c r="AW140" t="s">
+    <row r="136" spans="51:51">
+      <c r="AY136" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="141" spans="49:49">
-      <c r="AW141" t="s">
+    <row r="137" spans="51:51">
+      <c r="AY137" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="142" spans="49:49">
-      <c r="AW142" t="s">
+    <row r="138" spans="51:51">
+      <c r="AY138" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="143" spans="49:49">
-      <c r="AW143" t="s">
+    <row r="139" spans="51:51">
+      <c r="AY139" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="144" spans="49:49">
-      <c r="AW144" t="s">
+    <row r="140" spans="51:51">
+      <c r="AY140" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="145" spans="49:49">
-      <c r="AW145" t="s">
+    <row r="141" spans="51:51">
+      <c r="AY141" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="146" spans="49:49">
-      <c r="AW146" t="s">
+    <row r="142" spans="51:51">
+      <c r="AY142" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="147" spans="49:49">
-      <c r="AW147" t="s">
+    <row r="143" spans="51:51">
+      <c r="AY143" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="148" spans="49:49">
-      <c r="AW148" t="s">
+    <row r="144" spans="51:51">
+      <c r="AY144" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="149" spans="49:49">
-      <c r="AW149" t="s">
+    <row r="145" spans="51:51">
+      <c r="AY145" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="150" spans="49:49">
-      <c r="AW150" t="s">
+    <row r="146" spans="51:51">
+      <c r="AY146" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="151" spans="49:49">
-      <c r="AW151" t="s">
+    <row r="147" spans="51:51">
+      <c r="AY147" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="152" spans="49:49">
-      <c r="AW152" t="s">
+    <row r="148" spans="51:51">
+      <c r="AY148" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="153" spans="49:49">
-      <c r="AW153" t="s">
+    <row r="149" spans="51:51">
+      <c r="AY149" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="154" spans="49:49">
-      <c r="AW154" t="s">
+    <row r="150" spans="51:51">
+      <c r="AY150" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="155" spans="49:49">
-      <c r="AW155" t="s">
+    <row r="151" spans="51:51">
+      <c r="AY151" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="156" spans="49:49">
-      <c r="AW156" t="s">
+    <row r="152" spans="51:51">
+      <c r="AY152" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="157" spans="49:49">
-      <c r="AW157" t="s">
+    <row r="153" spans="51:51">
+      <c r="AY153" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="158" spans="49:49">
-      <c r="AW158" t="s">
+    <row r="154" spans="51:51">
+      <c r="AY154" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="159" spans="49:49">
-      <c r="AW159" t="s">
+    <row r="155" spans="51:51">
+      <c r="AY155" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="160" spans="49:49">
-      <c r="AW160" t="s">
+    <row r="156" spans="51:51">
+      <c r="AY156" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="161" spans="49:49">
-      <c r="AW161" t="s">
+    <row r="157" spans="51:51">
+      <c r="AY157" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="162" spans="49:49">
-      <c r="AW162" t="s">
+    <row r="158" spans="51:51">
+      <c r="AY158" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="163" spans="49:49">
-      <c r="AW163" t="s">
+    <row r="159" spans="51:51">
+      <c r="AY159" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="164" spans="49:49">
-      <c r="AW164" t="s">
+    <row r="160" spans="51:51">
+      <c r="AY160" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="165" spans="49:49">
-      <c r="AW165" t="s">
+    <row r="161" spans="51:51">
+      <c r="AY161" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="166" spans="49:49">
-      <c r="AW166" t="s">
+    <row r="162" spans="51:51">
+      <c r="AY162" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="167" spans="49:49">
-      <c r="AW167" t="s">
+    <row r="163" spans="51:51">
+      <c r="AY163" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="168" spans="49:49">
-      <c r="AW168" t="s">
+    <row r="164" spans="51:51">
+      <c r="AY164" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="169" spans="49:49">
-      <c r="AW169" t="s">
+    <row r="165" spans="51:51">
+      <c r="AY165" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="170" spans="49:49">
-      <c r="AW170" t="s">
+    <row r="166" spans="51:51">
+      <c r="AY166" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="171" spans="49:49">
-      <c r="AW171" t="s">
+    <row r="167" spans="51:51">
+      <c r="AY167" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="172" spans="49:49">
-      <c r="AW172" t="s">
+    <row r="168" spans="51:51">
+      <c r="AY168" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="173" spans="49:49">
-      <c r="AW173" t="s">
+    <row r="169" spans="51:51">
+      <c r="AY169" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="174" spans="49:49">
-      <c r="AW174" t="s">
+    <row r="170" spans="51:51">
+      <c r="AY170" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="175" spans="49:49">
-      <c r="AW175" t="s">
+    <row r="171" spans="51:51">
+      <c r="AY171" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="176" spans="49:49">
-      <c r="AW176" t="s">
+    <row r="172" spans="51:51">
+      <c r="AY172" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="177" spans="49:49">
-      <c r="AW177" t="s">
+    <row r="173" spans="51:51">
+      <c r="AY173" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="178" spans="49:49">
-      <c r="AW178" t="s">
+    <row r="174" spans="51:51">
+      <c r="AY174" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="179" spans="49:49">
-      <c r="AW179" t="s">
+    <row r="175" spans="51:51">
+      <c r="AY175" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="180" spans="49:49">
-      <c r="AW180" t="s">
+    <row r="176" spans="51:51">
+      <c r="AY176" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="181" spans="49:49">
-      <c r="AW181" t="s">
+    <row r="177" spans="51:51">
+      <c r="AY177" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="182" spans="49:49">
-      <c r="AW182" t="s">
+    <row r="178" spans="51:51">
+      <c r="AY178" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="183" spans="49:49">
-      <c r="AW183" t="s">
+    <row r="179" spans="51:51">
+      <c r="AY179" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="184" spans="49:49">
-      <c r="AW184" t="s">
+    <row r="180" spans="51:51">
+      <c r="AY180" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="185" spans="49:49">
-      <c r="AW185" t="s">
+    <row r="181" spans="51:51">
+      <c r="AY181" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="186" spans="49:49">
-      <c r="AW186" t="s">
+    <row r="182" spans="51:51">
+      <c r="AY182" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="187" spans="49:49">
-      <c r="AW187" t="s">
+    <row r="183" spans="51:51">
+      <c r="AY183" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="188" spans="49:49">
-      <c r="AW188" t="s">
+    <row r="184" spans="51:51">
+      <c r="AY184" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="189" spans="49:49">
-      <c r="AW189" t="s">
+    <row r="185" spans="51:51">
+      <c r="AY185" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="190" spans="49:49">
-      <c r="AW190" t="s">
+    <row r="186" spans="51:51">
+      <c r="AY186" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="191" spans="49:49">
-      <c r="AW191" t="s">
+    <row r="187" spans="51:51">
+      <c r="AY187" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="192" spans="49:49">
-      <c r="AW192" t="s">
+    <row r="188" spans="51:51">
+      <c r="AY188" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="193" spans="49:49">
-      <c r="AW193" t="s">
+    <row r="189" spans="51:51">
+      <c r="AY189" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="194" spans="49:49">
-      <c r="AW194" t="s">
+    <row r="190" spans="51:51">
+      <c r="AY190" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="195" spans="49:49">
-      <c r="AW195" t="s">
+    <row r="191" spans="51:51">
+      <c r="AY191" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="196" spans="49:49">
-      <c r="AW196" t="s">
+    <row r="192" spans="51:51">
+      <c r="AY192" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="197" spans="49:49">
-      <c r="AW197" t="s">
+    <row r="193" spans="51:51">
+      <c r="AY193" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="198" spans="49:49">
-      <c r="AW198" t="s">
+    <row r="194" spans="51:51">
+      <c r="AY194" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="199" spans="49:49">
-      <c r="AW199" t="s">
+    <row r="195" spans="51:51">
+      <c r="AY195" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="200" spans="49:49">
-      <c r="AW200" t="s">
+    <row r="196" spans="51:51">
+      <c r="AY196" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="201" spans="49:49">
-      <c r="AW201" t="s">
+    <row r="197" spans="51:51">
+      <c r="AY197" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="202" spans="49:49">
-      <c r="AW202" t="s">
+    <row r="198" spans="51:51">
+      <c r="AY198" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="203" spans="49:49">
-      <c r="AW203" t="s">
+    <row r="199" spans="51:51">
+      <c r="AY199" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="204" spans="49:49">
-      <c r="AW204" t="s">
+    <row r="200" spans="51:51">
+      <c r="AY200" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="205" spans="49:49">
-      <c r="AW205" t="s">
+    <row r="201" spans="51:51">
+      <c r="AY201" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="206" spans="49:49">
-      <c r="AW206" t="s">
+    <row r="202" spans="51:51">
+      <c r="AY202" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="207" spans="49:49">
-      <c r="AW207" t="s">
+    <row r="203" spans="51:51">
+      <c r="AY203" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="208" spans="49:49">
-      <c r="AW208" t="s">
+    <row r="204" spans="51:51">
+      <c r="AY204" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="209" spans="49:49">
-      <c r="AW209" t="s">
+    <row r="205" spans="51:51">
+      <c r="AY205" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="210" spans="49:49">
-      <c r="AW210" t="s">
+    <row r="206" spans="51:51">
+      <c r="AY206" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="211" spans="49:49">
-      <c r="AW211" t="s">
+    <row r="207" spans="51:51">
+      <c r="AY207" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="212" spans="49:49">
-      <c r="AW212" t="s">
+    <row r="208" spans="51:51">
+      <c r="AY208" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="213" spans="49:49">
-      <c r="AW213" t="s">
+    <row r="209" spans="51:51">
+      <c r="AY209" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="214" spans="49:49">
-      <c r="AW214" t="s">
+    <row r="210" spans="51:51">
+      <c r="AY210" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="215" spans="49:49">
-      <c r="AW215" t="s">
+    <row r="211" spans="51:51">
+      <c r="AY211" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="216" spans="49:49">
-      <c r="AW216" t="s">
+    <row r="212" spans="51:51">
+      <c r="AY212" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="217" spans="49:49">
-      <c r="AW217" t="s">
+    <row r="213" spans="51:51">
+      <c r="AY213" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="218" spans="49:49">
-      <c r="AW218" t="s">
+    <row r="214" spans="51:51">
+      <c r="AY214" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="219" spans="49:49">
-      <c r="AW219" t="s">
+    <row r="215" spans="51:51">
+      <c r="AY215" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="220" spans="49:49">
-      <c r="AW220" t="s">
+    <row r="216" spans="51:51">
+      <c r="AY216" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="221" spans="49:49">
-      <c r="AW221" t="s">
+    <row r="217" spans="51:51">
+      <c r="AY217" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="222" spans="49:49">
-      <c r="AW222" t="s">
+    <row r="218" spans="51:51">
+      <c r="AY218" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="223" spans="49:49">
-      <c r="AW223" t="s">
+    <row r="219" spans="51:51">
+      <c r="AY219" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="224" spans="49:49">
-      <c r="AW224" t="s">
+    <row r="220" spans="51:51">
+      <c r="AY220" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="225" spans="49:49">
-      <c r="AW225" t="s">
+    <row r="221" spans="51:51">
+      <c r="AY221" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="226" spans="49:49">
-      <c r="AW226" t="s">
+    <row r="222" spans="51:51">
+      <c r="AY222" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="227" spans="49:49">
-      <c r="AW227" t="s">
+    <row r="223" spans="51:51">
+      <c r="AY223" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="228" spans="49:49">
-      <c r="AW228" t="s">
+    <row r="224" spans="51:51">
+      <c r="AY224" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="229" spans="49:49">
-      <c r="AW229" t="s">
+    <row r="225" spans="51:51">
+      <c r="AY225" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="230" spans="49:49">
-      <c r="AW230" t="s">
+    <row r="226" spans="51:51">
+      <c r="AY226" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="231" spans="49:49">
-      <c r="AW231" t="s">
+    <row r="227" spans="51:51">
+      <c r="AY227" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="232" spans="49:49">
-      <c r="AW232" t="s">
+    <row r="228" spans="51:51">
+      <c r="AY228" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="233" spans="49:49">
-      <c r="AW233" t="s">
+    <row r="229" spans="51:51">
+      <c r="AY229" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="234" spans="49:49">
-      <c r="AW234" t="s">
+    <row r="230" spans="51:51">
+      <c r="AY230" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="235" spans="49:49">
-      <c r="AW235" t="s">
+    <row r="231" spans="51:51">
+      <c r="AY231" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="236" spans="49:49">
-      <c r="AW236" t="s">
+    <row r="232" spans="51:51">
+      <c r="AY232" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="237" spans="49:49">
-      <c r="AW237" t="s">
+    <row r="233" spans="51:51">
+      <c r="AY233" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="238" spans="49:49">
-      <c r="AW238" t="s">
+    <row r="234" spans="51:51">
+      <c r="AY234" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="239" spans="49:49">
-      <c r="AW239" t="s">
+    <row r="235" spans="51:51">
+      <c r="AY235" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="240" spans="49:49">
-      <c r="AW240" t="s">
+    <row r="236" spans="51:51">
+      <c r="AY236" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="241" spans="49:49">
-      <c r="AW241" t="s">
+    <row r="237" spans="51:51">
+      <c r="AY237" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="242" spans="49:49">
-      <c r="AW242" t="s">
+    <row r="238" spans="51:51">
+      <c r="AY238" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="243" spans="49:49">
-      <c r="AW243" t="s">
+    <row r="239" spans="51:51">
+      <c r="AY239" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="244" spans="49:49">
-      <c r="AW244" t="s">
+    <row r="240" spans="51:51">
+      <c r="AY240" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="245" spans="49:49">
-      <c r="AW245" t="s">
+    <row r="241" spans="51:51">
+      <c r="AY241" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="246" spans="49:49">
-      <c r="AW246" t="s">
+    <row r="242" spans="51:51">
+      <c r="AY242" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="247" spans="49:49">
-      <c r="AW247" t="s">
+    <row r="243" spans="51:51">
+      <c r="AY243" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="248" spans="49:49">
-      <c r="AW248" t="s">
+    <row r="244" spans="51:51">
+      <c r="AY244" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="249" spans="49:49">
-      <c r="AW249" t="s">
+    <row r="245" spans="51:51">
+      <c r="AY245" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="250" spans="49:49">
-      <c r="AW250" t="s">
+    <row r="246" spans="51:51">
+      <c r="AY246" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="251" spans="49:49">
-      <c r="AW251" t="s">
+    <row r="247" spans="51:51">
+      <c r="AY247" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="252" spans="49:49">
-      <c r="AW252" t="s">
+    <row r="248" spans="51:51">
+      <c r="AY248" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="253" spans="49:49">
-      <c r="AW253" t="s">
+    <row r="249" spans="51:51">
+      <c r="AY249" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="254" spans="49:49">
-      <c r="AW254" t="s">
+    <row r="250" spans="51:51">
+      <c r="AY250" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="255" spans="49:49">
-      <c r="AW255" t="s">
+    <row r="251" spans="51:51">
+      <c r="AY251" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="256" spans="49:49">
-      <c r="AW256" t="s">
+    <row r="252" spans="51:51">
+      <c r="AY252" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="257" spans="49:49">
-      <c r="AW257" t="s">
+    <row r="253" spans="51:51">
+      <c r="AY253" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="258" spans="49:49">
-      <c r="AW258" t="s">
+    <row r="254" spans="51:51">
+      <c r="AY254" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="259" spans="49:49">
-      <c r="AW259" t="s">
+    <row r="255" spans="51:51">
+      <c r="AY255" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="260" spans="49:49">
-      <c r="AW260" t="s">
+    <row r="256" spans="51:51">
+      <c r="AY256" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="261" spans="49:49">
-      <c r="AW261" t="s">
+    <row r="257" spans="51:51">
+      <c r="AY257" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="262" spans="49:49">
-      <c r="AW262" t="s">
+    <row r="258" spans="51:51">
+      <c r="AY258" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="263" spans="49:49">
-      <c r="AW263" t="s">
+    <row r="259" spans="51:51">
+      <c r="AY259" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="264" spans="49:49">
-      <c r="AW264" t="s">
+    <row r="260" spans="51:51">
+      <c r="AY260" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="265" spans="49:49">
-      <c r="AW265" t="s">
+    <row r="261" spans="51:51">
+      <c r="AY261" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="266" spans="49:49">
-      <c r="AW266" t="s">
+    <row r="262" spans="51:51">
+      <c r="AY262" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="267" spans="49:49">
-      <c r="AW267" t="s">
+    <row r="263" spans="51:51">
+      <c r="AY263" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="268" spans="49:49">
-      <c r="AW268" t="s">
+    <row r="264" spans="51:51">
+      <c r="AY264" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="269" spans="49:49">
-      <c r="AW269" t="s">
+    <row r="265" spans="51:51">
+      <c r="AY265" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="270" spans="49:49">
-      <c r="AW270" t="s">
+    <row r="266" spans="51:51">
+      <c r="AY266" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="271" spans="49:49">
-      <c r="AW271" t="s">
+    <row r="267" spans="51:51">
+      <c r="AY267" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="272" spans="49:49">
-      <c r="AW272" t="s">
+    <row r="268" spans="51:51">
+      <c r="AY268" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="273" spans="49:49">
-      <c r="AW273" t="s">
+    <row r="269" spans="51:51">
+      <c r="AY269" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="274" spans="49:49">
-      <c r="AW274" t="s">
+    <row r="270" spans="51:51">
+      <c r="AY270" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="275" spans="49:49">
-      <c r="AW275" t="s">
+    <row r="271" spans="51:51">
+      <c r="AY271" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="276" spans="49:49">
-      <c r="AW276" t="s">
+    <row r="272" spans="51:51">
+      <c r="AY272" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="277" spans="49:49">
-      <c r="AW277" t="s">
+    <row r="273" spans="51:51">
+      <c r="AY273" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="278" spans="49:49">
-      <c r="AW278" t="s">
+    <row r="274" spans="51:51">
+      <c r="AY274" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="279" spans="49:49">
-      <c r="AW279" t="s">
+    <row r="275" spans="51:51">
+      <c r="AY275" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="280" spans="49:49">
-      <c r="AW280" t="s">
+    <row r="276" spans="51:51">
+      <c r="AY276" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="281" spans="49:49">
-      <c r="AW281" t="s">
+    <row r="277" spans="51:51">
+      <c r="AY277" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="282" spans="49:49">
-      <c r="AW282" t="s">
+    <row r="278" spans="51:51">
+      <c r="AY278" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="283" spans="49:49">
-      <c r="AW283" t="s">
+    <row r="279" spans="51:51">
+      <c r="AY279" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="284" spans="49:49">
-      <c r="AW284" t="s">
+    <row r="280" spans="51:51">
+      <c r="AY280" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="285" spans="49:49">
-      <c r="AW285" t="s">
+    <row r="281" spans="51:51">
+      <c r="AY281" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="286" spans="49:49">
-      <c r="AW286" t="s">
+    <row r="282" spans="51:51">
+      <c r="AY282" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="287" spans="49:49">
-      <c r="AW287" t="s">
+    <row r="283" spans="51:51">
+      <c r="AY283" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="288" spans="49:49">
-      <c r="AW288" t="s">
+    <row r="284" spans="51:51">
+      <c r="AY284" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="289" spans="49:49">
-      <c r="AW289" t="s">
+    <row r="285" spans="51:51">
+      <c r="AY285" t="s">
         <v>680</v>
+      </c>
+    </row>
+    <row r="286" spans="51:51">
+      <c r="AY286" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="287" spans="51:51">
+      <c r="AY287" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="288" spans="51:51">
+      <c r="AY288" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="289" spans="51:51">
+      <c r="AY289" t="s">
+        <v>684</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000049/metadata_template_ERC000049.xlsx
+++ b/templates/ERC000049/metadata_template_ERC000049.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="detectiontype">'cv_sample'!$AG$1:$AG$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AY$1:$AY$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AY$1:$AY$294</definedName>
     <definedName name="hostpredictionapproach">'cv_sample'!$BB$1:$BB$7</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="769">
   <si>
     <t>alias</t>
   </si>
@@ -1005,7 +1005,7 @@
     <t>reassembly post binning</t>
   </si>
   <si>
-    <t>(Optional) Has an assembly been performed on a genome bin extracted from a metagenomic assembly? (Units: Yes)</t>
+    <t>(Optional) Has an assembly been performed on a genome bin extracted from a metagenomic assembly? (Units: No, Yes)</t>
   </si>
   <si>
     <t>MAG coverage software</t>
@@ -1224,7 +1224,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m2, m3, g, L, kg)</t>
   </si>
   <si>
     <t>size fraction selected</t>
@@ -1446,9 +1446,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1467,6 +1464,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1668,6 +1668,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1677,9 +1680,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1719,7 +1719,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1788,6 +1788,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1863,6 +1866,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1884,6 +1890,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1929,6 +1938,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1941,6 +1953,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1950,9 +1965,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1977,6 +1989,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2037,12 +2052,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2334,7 +2349,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm, m)</t>
   </si>
 </sst>
 </file>
@@ -4029,82 +4044,82 @@
         <v>394</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
     </row>
     <row r="2" spans="1:76" ht="150" customHeight="1">
@@ -4259,82 +4274,82 @@
         <v>395</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
   </sheetData>
@@ -4385,7 +4400,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:BV289"/>
+  <dimension ref="G1:BV294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4417,19 +4432,19 @@
         <v>396</v>
       </c>
       <c r="BB1" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="BI1" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="BS1" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BU1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BV1" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
     </row>
     <row r="2" spans="7:74">
@@ -4458,19 +4473,19 @@
         <v>397</v>
       </c>
       <c r="BB2" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="BI2" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="BS2" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BU2" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BV2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
     </row>
     <row r="3" spans="7:74">
@@ -4493,16 +4508,16 @@
         <v>398</v>
       </c>
       <c r="BB3" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="BI3" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="BU3" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BV3" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
     </row>
     <row r="4" spans="7:74">
@@ -4519,16 +4534,16 @@
         <v>399</v>
       </c>
       <c r="BB4" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="BI4" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="BU4" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BV4" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
     </row>
     <row r="5" spans="7:74">
@@ -4545,13 +4560,13 @@
         <v>400</v>
       </c>
       <c r="BB5" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="BU5" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BV5" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
     </row>
     <row r="6" spans="7:74">
@@ -4571,7 +4586,7 @@
         <v>116</v>
       </c>
       <c r="BV6" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="7" spans="7:74">
@@ -4585,10 +4600,10 @@
         <v>402</v>
       </c>
       <c r="BB7" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="BV7" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
     </row>
     <row r="8" spans="7:74">
@@ -4602,7 +4617,7 @@
         <v>403</v>
       </c>
       <c r="BV8" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
     </row>
     <row r="9" spans="7:74">
@@ -4630,7 +4645,7 @@
         <v>405</v>
       </c>
       <c r="BV10" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
     </row>
     <row r="11" spans="7:74">
@@ -4638,7 +4653,7 @@
         <v>406</v>
       </c>
       <c r="BV11" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
     </row>
     <row r="12" spans="7:74">
@@ -4646,7 +4661,7 @@
         <v>407</v>
       </c>
       <c r="BV12" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
     </row>
     <row r="13" spans="7:74">
@@ -6032,6 +6047,31 @@
     <row r="289" spans="51:51">
       <c r="AY289" t="s">
         <v>684</v>
+      </c>
+    </row>
+    <row r="290" spans="51:51">
+      <c r="AY290" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="291" spans="51:51">
+      <c r="AY291" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="292" spans="51:51">
+      <c r="AY292" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="293" spans="51:51">
+      <c r="AY293" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="294" spans="51:51">
+      <c r="AY294" t="s">
+        <v>689</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000049/metadata_template_ERC000049.xlsx
+++ b/templates/ERC000049/metadata_template_ERC000049.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="detectiontype">'cv_sample'!$AG$1:$AG$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AY$1:$AY$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AY$1:$AY$294</definedName>
     <definedName name="hostpredictionapproach">'cv_sample'!$BB$1:$BB$7</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="769">
   <si>
     <t>alias</t>
   </si>
@@ -1224,7 +1224,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
   </si>
   <si>
     <t>size fraction selected</t>
@@ -1446,9 +1446,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1467,6 +1464,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1668,6 +1668,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1677,9 +1680,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1719,7 +1719,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1788,6 +1788,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1863,6 +1866,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1884,6 +1890,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1929,6 +1938,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1941,6 +1953,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1950,9 +1965,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1977,6 +1989,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2037,12 +2052,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2334,7 +2349,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
 </sst>
 </file>
@@ -4029,82 +4044,82 @@
         <v>394</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
     </row>
     <row r="2" spans="1:76" ht="150" customHeight="1">
@@ -4259,82 +4274,82 @@
         <v>395</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
   </sheetData>
@@ -4385,7 +4400,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:BV289"/>
+  <dimension ref="G1:BV294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4417,19 +4432,19 @@
         <v>396</v>
       </c>
       <c r="BB1" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="BI1" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="BS1" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BU1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BV1" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
     </row>
     <row r="2" spans="7:74">
@@ -4458,19 +4473,19 @@
         <v>397</v>
       </c>
       <c r="BB2" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="BI2" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="BS2" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BU2" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BV2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
     </row>
     <row r="3" spans="7:74">
@@ -4493,16 +4508,16 @@
         <v>398</v>
       </c>
       <c r="BB3" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="BI3" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="BU3" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BV3" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
     </row>
     <row r="4" spans="7:74">
@@ -4519,16 +4534,16 @@
         <v>399</v>
       </c>
       <c r="BB4" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="BI4" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="BU4" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BV4" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
     </row>
     <row r="5" spans="7:74">
@@ -4545,13 +4560,13 @@
         <v>400</v>
       </c>
       <c r="BB5" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="BU5" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BV5" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
     </row>
     <row r="6" spans="7:74">
@@ -4571,7 +4586,7 @@
         <v>116</v>
       </c>
       <c r="BV6" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="7" spans="7:74">
@@ -4585,10 +4600,10 @@
         <v>402</v>
       </c>
       <c r="BB7" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="BV7" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
     </row>
     <row r="8" spans="7:74">
@@ -4602,7 +4617,7 @@
         <v>403</v>
       </c>
       <c r="BV8" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
     </row>
     <row r="9" spans="7:74">
@@ -4630,7 +4645,7 @@
         <v>405</v>
       </c>
       <c r="BV10" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
     </row>
     <row r="11" spans="7:74">
@@ -4638,7 +4653,7 @@
         <v>406</v>
       </c>
       <c r="BV11" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
     </row>
     <row r="12" spans="7:74">
@@ -4646,7 +4661,7 @@
         <v>407</v>
       </c>
       <c r="BV12" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
     </row>
     <row r="13" spans="7:74">
@@ -6032,6 +6047,31 @@
     <row r="289" spans="51:51">
       <c r="AY289" t="s">
         <v>684</v>
+      </c>
+    </row>
+    <row r="290" spans="51:51">
+      <c r="AY290" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="291" spans="51:51">
+      <c r="AY291" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="292" spans="51:51">
+      <c r="AY292" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="293" spans="51:51">
+      <c r="AY293" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="294" spans="51:51">
+      <c r="AY294" t="s">
+        <v>689</v>
       </c>
     </row>
   </sheetData>
